--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0BAEE-C7E4-442C-B0C6-03EFEBEF6F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB88703A-CB66-47FE-B2AF-D4F57BF1C27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" firstSheet="1" activeTab="5" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="131">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Ramazan</t>
   </si>
   <si>
-    <t>Güldağı_Gıda</t>
-  </si>
-  <si>
     <t>ÖDEME</t>
   </si>
   <si>
@@ -385,6 +382,57 @@
   </si>
   <si>
     <t>Sarıoğlu</t>
+  </si>
+  <si>
+    <t>KASA_TİPİ</t>
+  </si>
+  <si>
+    <t>ÜRÜN_CİNSİ</t>
+  </si>
+  <si>
+    <t>Süleyman</t>
+  </si>
+  <si>
+    <t>Şaban</t>
+  </si>
+  <si>
+    <t>31.5.2021/PAZARTESİ</t>
+  </si>
+  <si>
+    <t>1.6.2021/SALI</t>
+  </si>
+  <si>
+    <t>Özvarlı</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Kefsar</t>
+  </si>
+  <si>
+    <t>Malta_Erik</t>
+  </si>
+  <si>
+    <t>2.6.2021/ÇARŞAMBA</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>Anjelika</t>
+  </si>
+  <si>
+    <t>Ali açıkgöz</t>
+  </si>
+  <si>
+    <t>Gültekin Özdemir</t>
+  </si>
+  <si>
+    <t>Ferit Adsız</t>
+  </si>
+  <si>
+    <t>Çelikler_Göldağı_Gıda</t>
   </si>
 </sst>
 </file>
@@ -410,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +513,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -478,15 +532,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -496,6 +547,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,9 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,26 +900,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1796875" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -889,704 +953,696 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="2" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>520</v>
+        <v>364</v>
       </c>
       <c r="E3">
-        <v>2140</v>
+        <v>1360</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">(E3-F3)</f>
-        <v>1930</v>
+        <f>(E3-F3)</f>
+        <v>1178</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="1">(G3*H3)</f>
-        <v>14475</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1</v>
-      </c>
+        <f>(G3*H3)</f>
+        <v>9424</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="E4">
-        <v>960</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>860</v>
+        <f>(E4-F4)</f>
+        <v>440</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>6880</v>
-      </c>
-      <c r="N4" s="3">
-        <v>605</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4">
-        <v>248</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4">
-        <v>230</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="2"/>
+        <f>(G4*H4)</f>
+        <v>3520</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5">
-        <v>1100</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>950</v>
-      </c>
-      <c r="H5">
-        <v>6.25</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>5937.5</v>
-      </c>
-      <c r="R5">
-        <v>1656</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(D3:D4)</f>
+        <v>511</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM(E3:E4)</f>
+        <v>1800</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(F3:F4)</f>
+        <v>182</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(G3:G4)</f>
+        <v>1618</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <f>SUM(I3:I4)</f>
+        <v>12944</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>498</v>
-      </c>
-      <c r="E6">
-        <v>1800</v>
-      </c>
-      <c r="F6">
-        <v>250</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1550</v>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>8525</v>
-      </c>
-      <c r="R6">
-        <v>14</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <f>AVERAGE(H3:H4)</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>229</v>
-      </c>
-      <c r="E7">
-        <v>1320</v>
-      </c>
-      <c r="F7">
-        <v>230</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>4360</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
+      <c r="A8" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D8">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="E8">
-        <v>1720</v>
-      </c>
-      <c r="F8">
-        <v>376</v>
+        <v>1593</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1344</v>
+        <f>(E8-F8)</f>
+        <v>1593</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>9408</v>
-      </c>
-      <c r="Y8" s="2"/>
+        <f>(G8*H8)</f>
+        <v>11549.25</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
+      <c r="A9" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="E9">
-        <v>420</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
+        <v>1278</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>380</v>
+        <f>(E9-F9)</f>
+        <v>1278</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <f>(G9*H9)</f>
+        <v>9712.7999999999993</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>484</v>
-      </c>
-      <c r="E10">
-        <v>1900</v>
-      </c>
-      <c r="F10">
-        <v>242</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1658</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>11606</v>
-      </c>
-      <c r="Y10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D8:D9)</f>
+        <v>304</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E8:E9)</f>
+        <v>2871</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <f>SUM(G8:G9)</f>
+        <v>2871</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <f>SUM(I8:I9)</f>
+        <v>21262.05</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <f>SUM(D1:D10)</f>
-        <v>2755</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E1:E10)</f>
-        <v>11360</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(F1:F10)</f>
-        <v>1598</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM(G1:G10)</f>
-        <v>9762</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <f>SUM(I1:I10)</f>
-        <v>63851.5</v>
+        <v>18</v>
+      </c>
+      <c r="H11" s="2">
+        <f>AVERAGE(H8:H9)</f>
+        <v>7.4249999999999998</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:V11" si="2">SUM(N4:N10)</f>
-        <v>605</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2">
-        <f t="shared" si="2"/>
-        <v>1918</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2">
-        <f>SUM(N11:Y11)</f>
-        <v>2753</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <f>(AVERAGE(H3:H10))</f>
-        <v>6.53125</v>
-      </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>205</v>
+      </c>
+      <c r="E13">
+        <v>760</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f>(E13-F13)</f>
+        <v>660</v>
+      </c>
+      <c r="H13">
+        <v>7.1</v>
+      </c>
+      <c r="I13">
+        <f>(G13*H13)</f>
+        <v>4686</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>1158</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f>(E14-F14)</f>
+        <v>1058</v>
+      </c>
+      <c r="H14">
+        <v>7.5</v>
+      </c>
+      <c r="I14">
+        <f>(G14*H14)</f>
+        <v>7935</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D15">
-        <v>690</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>2580</v>
-      </c>
-      <c r="F15">
-        <v>345</v>
-      </c>
-      <c r="G15">
-        <f>(E15-F15)</f>
-        <v>2235</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <f>(G15*H15)</f>
-        <v>15645</v>
-      </c>
-      <c r="N15" s="3">
-        <v>455</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15">
-        <v>1455</v>
-      </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15">
-        <v>288</v>
-      </c>
-      <c r="W15" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" t="s">
-        <v>9</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>534</v>
-      </c>
-      <c r="E16">
-        <v>1900</v>
-      </c>
-      <c r="F16">
-        <v>267</v>
-      </c>
-      <c r="G16">
-        <f>(E16-F16)</f>
-        <v>1633</v>
-      </c>
-      <c r="H16">
-        <v>4.5</v>
-      </c>
-      <c r="I16">
-        <f>(G16*H16)</f>
-        <v>7348.5</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>525</v>
-      </c>
-      <c r="E17">
-        <v>1960</v>
-      </c>
-      <c r="F17">
-        <v>262</v>
-      </c>
-      <c r="G17">
-        <f>(E17-F17)</f>
-        <v>1698</v>
-      </c>
-      <c r="H17">
-        <v>6.5</v>
-      </c>
-      <c r="I17">
-        <f>(G17*H17)</f>
-        <v>11037</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>443</v>
-      </c>
-      <c r="E18">
-        <v>2627</v>
-      </c>
-      <c r="F18">
-        <v>443</v>
-      </c>
-      <c r="G18">
-        <f>(E18-F18)</f>
-        <v>2184</v>
-      </c>
-      <c r="H18">
-        <v>6.5</v>
-      </c>
-      <c r="I18">
-        <f>(G18*H18)</f>
-        <v>14196</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:I19" si="3">SUM(D15:D18)</f>
-        <v>2192</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>9067</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="3"/>
-        <v>1317</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>7750</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>48226.5</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="N19" s="2">
-        <f t="shared" ref="N19:V19" si="4">SUM(N15:N18)</f>
-        <v>455</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2">
-        <f t="shared" si="4"/>
-        <v>1455</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2">
-        <f t="shared" si="4"/>
-        <v>288</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2">
-        <f>SUM(N19:Y19)</f>
-        <v>2198</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <f>(AVERAGE(H15:H18))</f>
-        <v>6.125</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
@@ -1600,1135 +1656,2215 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>1489</v>
-      </c>
-      <c r="E23">
-        <v>6500</v>
-      </c>
-      <c r="F23">
-        <v>745</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G28" si="5">(E23-F23)</f>
-        <v>5755</v>
-      </c>
-      <c r="H23">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I28" si="6">(G23*H23)</f>
-        <v>46040</v>
-      </c>
-      <c r="N23">
-        <v>489</v>
-      </c>
-      <c r="O23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23">
-        <v>2524</v>
-      </c>
-      <c r="S23" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V23">
-        <v>312</v>
-      </c>
-      <c r="W23" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>205</v>
+        <v>520</v>
       </c>
       <c r="E24">
-        <v>760</v>
+        <v>2140</v>
       </c>
       <c r="F24">
+        <v>210</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G31" si="0">(E24-F24)</f>
+        <v>1930</v>
+      </c>
+      <c r="H24">
+        <v>7.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I31" si="1">(G24*H24)</f>
+        <v>14475</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>249</v>
+      </c>
+      <c r="E25">
+        <v>960</v>
+      </c>
+      <c r="F25">
         <v>100</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="H24">
-        <v>6.8</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>6880</v>
+      </c>
+      <c r="N25" s="3">
+        <v>605</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>585</v>
-      </c>
-      <c r="E25">
-        <v>2180</v>
-      </c>
-      <c r="F25">
-        <v>292</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="5"/>
-        <v>1888</v>
-      </c>
-      <c r="H25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
-        <v>8684.7999999999993</v>
-      </c>
+      <c r="R25">
+        <v>248</v>
+      </c>
+      <c r="S25" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25">
+        <v>230</v>
+      </c>
+      <c r="W25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="E26">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F26">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>1345</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="H26">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
-        <v>7397.5</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>5937.5</v>
+      </c>
+      <c r="R26">
+        <v>1656</v>
+      </c>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
+      <c r="A27" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>170</v>
+        <v>498</v>
       </c>
       <c r="E27">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="F27">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>532</v>
+        <f t="shared" si="0"/>
+        <v>1550</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
-        <v>3192</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>8525</v>
+      </c>
+      <c r="R27">
+        <v>14</v>
+      </c>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
+      <c r="A28" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>489</v>
+        <v>229</v>
       </c>
       <c r="E28">
-        <v>2940</v>
+        <v>1320</v>
       </c>
       <c r="F28">
-        <v>489</v>
+        <v>230</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>2451</v>
+        <f t="shared" si="0"/>
+        <v>1090</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>14706</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>4360</v>
+      </c>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>376</v>
+      </c>
+      <c r="E29">
+        <v>1720</v>
+      </c>
+      <c r="F29">
+        <v>376</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1344</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>9408</v>
+      </c>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>420</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2660</v>
+      </c>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>484</v>
+      </c>
+      <c r="E31">
+        <v>1900</v>
+      </c>
+      <c r="F31">
+        <v>242</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1658</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>11606</v>
+      </c>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <f t="shared" ref="D29:I29" si="7">SUM(D23:D28)</f>
-        <v>3325</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="7"/>
-        <v>14480</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="7"/>
-        <v>1849</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="7"/>
-        <v>12631</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <f t="shared" si="7"/>
-        <v>84508.3</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="N29" s="2">
-        <f t="shared" ref="N29:V29" si="8">SUM(N23:N28)</f>
-        <v>489</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2">
-        <f t="shared" si="8"/>
-        <v>2524</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2">
-        <f>SUM(N29:Y29)</f>
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="17">
+        <f>SUM($D$24:$D$31)</f>
+        <v>2755</v>
+      </c>
+      <c r="E32" s="2">
+        <f>SUM($E$24:$E$31)</f>
+        <v>11360</v>
+      </c>
+      <c r="F32" s="2">
+        <f>SUM($F$24:$F$31)</f>
+        <v>1598</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM($G$24:$G$31)</f>
+        <v>9762</v>
+      </c>
+      <c r="H32" s="2">
+        <f>SUM($H$24:$H$31)</f>
+        <v>52.25</v>
+      </c>
+      <c r="I32" s="2">
+        <f>SUM($I$24:$I$31)</f>
+        <v>63851.5</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2">
+        <f t="shared" ref="N32:V32" si="2">SUM(N25:N31)</f>
+        <v>605</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <f t="shared" si="2"/>
+        <v>1918</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <f>SUM(N32:Y32)</f>
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <f>(AVERAGE(H23:H28))</f>
-        <v>6.1499999999999995</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>366</v>
-      </c>
-      <c r="E33">
-        <v>1440</v>
-      </c>
-      <c r="F33">
-        <v>145</v>
-      </c>
-      <c r="G33">
-        <f>(E33-F33)</f>
-        <v>1295</v>
-      </c>
-      <c r="H33">
-        <v>7.5</v>
-      </c>
-      <c r="I33">
-        <f>(G33*H33)</f>
-        <v>9712.5</v>
-      </c>
-      <c r="N33">
-        <v>525</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" t="s">
-        <v>96</v>
-      </c>
-      <c r="R33">
-        <v>564</v>
-      </c>
-      <c r="S33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T33" t="s">
-        <v>9</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <f>(AVERAGE($H$24:$H$31))</f>
+        <v>6.53125</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>469</v>
-      </c>
-      <c r="E34">
-        <v>2980</v>
-      </c>
-      <c r="F34">
-        <v>470</v>
-      </c>
-      <c r="G34">
-        <f>(E34-F34)</f>
-        <v>2510</v>
-      </c>
-      <c r="H34">
-        <v>5.5</v>
-      </c>
-      <c r="I34">
-        <f>(G34*H34)</f>
-        <v>13805</v>
-      </c>
-      <c r="N34">
-        <v>469</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
+      <c r="A35" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35">
-        <v>198</v>
+        <v>690</v>
       </c>
       <c r="E35">
-        <v>740</v>
+        <v>2580</v>
       </c>
       <c r="F35">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="G35">
         <f>(E35-F35)</f>
-        <v>660</v>
+        <v>2235</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <f>(G35*H35)</f>
-        <v>3960</v>
+        <v>15645</v>
+      </c>
+      <c r="N35" s="3">
+        <v>455</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>1455</v>
+      </c>
+      <c r="S35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35">
+        <v>288</v>
+      </c>
+      <c r="W35" t="s">
+        <v>35</v>
+      </c>
+      <c r="X35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
+      <c r="A36" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36">
+        <v>534</v>
+      </c>
+      <c r="E36">
+        <v>1900</v>
+      </c>
+      <c r="F36">
+        <v>267</v>
+      </c>
+      <c r="G36">
+        <f>(E36-F36)</f>
+        <v>1633</v>
+      </c>
+      <c r="H36">
+        <v>4.5</v>
+      </c>
+      <c r="I36">
+        <f>(G36*H36)</f>
+        <v>7348.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
         <v>525</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="E37">
+        <v>1960</v>
+      </c>
+      <c r="F37">
+        <v>262</v>
+      </c>
+      <c r="G37">
+        <f>(E37-F37)</f>
+        <v>1698</v>
+      </c>
+      <c r="H37">
+        <v>6.5</v>
+      </c>
+      <c r="I37">
+        <f>(G37*H37)</f>
+        <v>11037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>443</v>
+      </c>
+      <c r="E38">
+        <v>2627</v>
+      </c>
+      <c r="F38">
+        <v>443</v>
+      </c>
+      <c r="G38">
+        <f>(E38-F38)</f>
+        <v>2184</v>
+      </c>
+      <c r="H38">
+        <v>6.5</v>
+      </c>
+      <c r="I38">
+        <f>(G38*H38)</f>
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <f>SUM(D33:D36)</f>
-        <v>1558</v>
-      </c>
-      <c r="E37" s="2">
-        <f>SUM(E33:E35)</f>
-        <v>5160</v>
-      </c>
-      <c r="F37" s="2">
-        <f>SUM(F33:F35)</f>
-        <v>695</v>
-      </c>
-      <c r="G37" s="2">
-        <f>SUM(G33:G35)</f>
-        <v>4465</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <f>SUM(I33:I35)</f>
-        <v>27477.5</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="N37" s="2">
-        <f t="shared" ref="N37:R37" si="9">SUM(N33:N36)</f>
-        <v>994</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2">
-        <f t="shared" si="9"/>
-        <v>564</v>
-      </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2">
-        <f>SUM(N37:Y37)</f>
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <f>SUM($D$35:$D$38)</f>
+        <v>2192</v>
+      </c>
+      <c r="E39" s="2">
+        <f>SUM($E$35:$E$38)</f>
+        <v>9067</v>
+      </c>
+      <c r="F39" s="2">
+        <f>SUM($F$35:$F$38)</f>
+        <v>1317</v>
+      </c>
+      <c r="G39" s="2">
+        <f>SUM($G$35:$G$38)</f>
+        <v>7750</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
+        <f>SUM($I$35:$I$38)</f>
+        <v>48226.5</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="N39" s="2">
+        <f t="shared" ref="N39:V39" si="3">SUM(N35:N38)</f>
+        <v>455</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>1455</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
+        <f>SUM(N39:Y39)</f>
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="2">
-        <f>(AVERAGE(H33:H35))</f>
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <f>(AVERAGE(H35:H38))</f>
+        <v>6.125</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41">
-        <v>121</v>
-      </c>
-      <c r="E41">
-        <v>660</v>
-      </c>
-      <c r="F41">
-        <v>120</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ref="G41:G46" si="10">(E41-F41)</f>
-        <v>540</v>
-      </c>
-      <c r="H41">
-        <v>4.5</v>
-      </c>
-      <c r="I41">
-        <f t="shared" ref="I41:I46" si="11">(G41*H41)</f>
-        <v>2430</v>
-      </c>
-      <c r="N41">
-        <v>341</v>
-      </c>
-      <c r="O41" t="s">
-        <v>34</v>
-      </c>
-      <c r="P41" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41">
-        <v>2244</v>
-      </c>
-      <c r="S41" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" t="s">
-        <v>9</v>
-      </c>
-      <c r="V41">
-        <v>240</v>
-      </c>
-      <c r="W41" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42">
-        <v>303</v>
+        <v>1489</v>
       </c>
       <c r="E42">
-        <v>1700</v>
+        <v>6500</v>
       </c>
       <c r="F42">
-        <v>302</v>
+        <v>745</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
-        <v>1398</v>
+        <f t="shared" ref="G42:G47" si="4">(E42-F42)</f>
+        <v>5755</v>
       </c>
       <c r="H42">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
-        <v>7409.4</v>
+        <f t="shared" ref="I42:I47" si="5">(G42*H42)</f>
+        <v>46040</v>
       </c>
       <c r="N42">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="O42" t="s">
         <v>34</v>
       </c>
       <c r="P42" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>2524</v>
+      </c>
+      <c r="S42" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42">
+        <v>312</v>
+      </c>
+      <c r="W42" t="s">
+        <v>35</v>
+      </c>
+      <c r="X42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="E43">
-        <v>1040</v>
+        <v>760</v>
       </c>
       <c r="F43">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
-        <v>920</v>
+        <f t="shared" si="4"/>
+        <v>660</v>
       </c>
       <c r="H43">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I43">
-        <f t="shared" si="11"/>
-        <v>6900</v>
+        <f t="shared" si="5"/>
+        <v>4488</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44">
-        <v>955</v>
+        <v>585</v>
       </c>
       <c r="E44">
-        <v>4040</v>
+        <v>2180</v>
       </c>
       <c r="F44">
-        <v>477</v>
+        <v>292</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
-        <v>3563</v>
+        <f t="shared" si="4"/>
+        <v>1888</v>
       </c>
       <c r="H44">
-        <v>7.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I44">
-        <f t="shared" si="11"/>
-        <v>26722.5</v>
+        <f t="shared" si="5"/>
+        <v>8684.7999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45">
-        <v>816</v>
+        <v>387</v>
       </c>
       <c r="E45">
-        <v>2840</v>
+        <v>1500</v>
       </c>
       <c r="F45">
-        <v>410</v>
+        <v>155</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
-        <v>2430</v>
+        <f t="shared" si="4"/>
+        <v>1345</v>
       </c>
       <c r="H45">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I45">
-        <f t="shared" si="11"/>
-        <v>11542.5</v>
+        <f t="shared" si="5"/>
+        <v>7397.5</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46">
-        <v>471</v>
+        <v>170</v>
       </c>
       <c r="E46">
-        <v>1660</v>
+        <v>600</v>
       </c>
       <c r="F46">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
-        <v>1425</v>
+        <f t="shared" si="4"/>
+        <v>532</v>
       </c>
       <c r="H46">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <f t="shared" si="11"/>
-        <v>9618.75</v>
+        <f t="shared" si="5"/>
+        <v>3192</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>489</v>
+      </c>
+      <c r="E47">
+        <v>2940</v>
+      </c>
+      <c r="F47">
+        <v>489</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>2451</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>14706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <f t="shared" ref="D47:I47" si="12">SUM(D41:D46)</f>
-        <v>2907</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="12"/>
-        <v>11940</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="12"/>
-        <v>1664</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="12"/>
-        <v>10276</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2">
-        <f t="shared" si="12"/>
-        <v>64623.15</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="N47" s="2">
-        <f t="shared" ref="N47:V47" si="13">SUM(N41:N46)</f>
-        <v>423</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2">
-        <f t="shared" si="13"/>
-        <v>2244</v>
-      </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2">
-        <f t="shared" si="13"/>
-        <v>240</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2">
-        <f>SUM(N47:Y47)</f>
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <f>SUM($D$42:$D$47)</f>
+        <v>3325</v>
+      </c>
+      <c r="E48" s="2">
+        <f>SUM($E$42:$E$47)</f>
+        <v>14480</v>
+      </c>
+      <c r="F48" s="2">
+        <f>SUM($F$42:$F$47)</f>
+        <v>1849</v>
+      </c>
+      <c r="G48" s="2">
+        <f>SUM($G$42:$G$47)</f>
+        <v>12631</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <f>SUM($I$42:$I$47)</f>
+        <v>84508.3</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="N48" s="2">
+        <f t="shared" ref="N48:V48" si="6">SUM(N42:N47)</f>
+        <v>489</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <f t="shared" si="6"/>
+        <v>2524</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2">
+        <f t="shared" si="6"/>
+        <v>312</v>
+      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2">
+        <f>SUM(N48:Y48)</f>
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="2">
-        <f>(AVERAGE(H41:H46))</f>
-        <v>6.05</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <f>(AVERAGE(H42:H47))</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>44</v>
-      </c>
-      <c r="E50">
-        <v>162</v>
-      </c>
-      <c r="F50">
-        <v>22</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ref="G50:G57" si="14">(E50-F50)</f>
-        <v>140</v>
-      </c>
-      <c r="N50">
-        <v>466</v>
-      </c>
-      <c r="P50" t="s">
-        <v>9</v>
-      </c>
-      <c r="R50" s="8">
-        <v>1889</v>
-      </c>
-      <c r="V50">
-        <v>284</v>
-      </c>
-      <c r="X50" t="s">
-        <v>9</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>94</v>
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="E51">
-        <v>880</v>
+        <v>1440</v>
       </c>
       <c r="F51">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G51">
-        <f t="shared" si="14"/>
-        <v>725</v>
+        <f>(E51-F51)</f>
+        <v>1295</v>
       </c>
       <c r="H51">
-        <v>5.65</v>
+        <v>7.5</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:I57" si="15">(G51*H51)</f>
-        <v>4096.25</v>
+        <f>(G51*H51)</f>
+        <v>9712.5</v>
+      </c>
+      <c r="N51">
+        <v>525</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>95</v>
+      </c>
+      <c r="R51">
+        <v>564</v>
+      </c>
+      <c r="S51" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52">
-        <v>723</v>
+        <v>469</v>
       </c>
       <c r="E52">
-        <v>2940</v>
+        <v>2980</v>
       </c>
       <c r="F52">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="G52">
-        <f t="shared" si="14"/>
-        <v>2640</v>
+        <f>(E52-F52)</f>
+        <v>2510</v>
       </c>
       <c r="H52">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="I52">
-        <f t="shared" si="15"/>
-        <v>19140</v>
+        <f>(G52*H52)</f>
+        <v>13805</v>
+      </c>
+      <c r="N52">
+        <v>469</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="E53">
-        <v>420</v>
+        <v>740</v>
       </c>
       <c r="F53">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G53">
-        <f t="shared" si="14"/>
-        <v>358</v>
+        <f>(E53-F53)</f>
+        <v>660</v>
       </c>
       <c r="H53">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I53">
-        <f t="shared" si="15"/>
-        <v>1969</v>
+        <f>(G53*H53)</f>
+        <v>3960</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <f>SUM($D$51:$D$54)</f>
+        <v>1558</v>
+      </c>
+      <c r="E55" s="2">
+        <f>SUM($E$51:$E$53)</f>
+        <v>5160</v>
+      </c>
+      <c r="F55" s="2">
+        <f>SUM($F$51:$F$53)</f>
+        <v>695</v>
+      </c>
+      <c r="G55" s="2">
+        <f>SUM($G$51:$G$53)</f>
+        <v>4465</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <f>SUM($I$51:$I$53)</f>
+        <v>27477.5</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="N55" s="2">
+        <f t="shared" ref="N55:R55" si="7">SUM(N51:N54)</f>
+        <v>994</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <f t="shared" si="7"/>
+        <v>564</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
+        <f>SUM(N55:Y55)</f>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="2">
+        <f>(AVERAGE(H51:H53))</f>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>121</v>
+      </c>
+      <c r="E58">
+        <v>660</v>
+      </c>
+      <c r="F58">
+        <v>120</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G63" si="8">(E58-F58)</f>
+        <v>540</v>
+      </c>
+      <c r="H58">
+        <v>4.5</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I63" si="9">(G58*H58)</f>
+        <v>2430</v>
+      </c>
+      <c r="N58">
+        <v>341</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58">
+        <v>2244</v>
+      </c>
+      <c r="S58" t="s">
+        <v>35</v>
+      </c>
+      <c r="T58" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58">
+        <v>240</v>
+      </c>
+      <c r="W58" t="s">
+        <v>35</v>
+      </c>
+      <c r="X58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>303</v>
+      </c>
+      <c r="E59">
+        <v>1700</v>
+      </c>
+      <c r="F59">
+        <v>302</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>1398</v>
+      </c>
+      <c r="H59">
+        <v>5.3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="9"/>
+        <v>7409.4</v>
+      </c>
+      <c r="N59">
+        <v>82</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>241</v>
+      </c>
+      <c r="E60">
+        <v>1040</v>
+      </c>
+      <c r="F60">
+        <v>120</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="H60">
+        <v>7.5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="9"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>955</v>
+      </c>
+      <c r="E61">
+        <v>4040</v>
+      </c>
+      <c r="F61">
+        <v>477</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>3563</v>
+      </c>
+      <c r="H61">
+        <v>7.5</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="9"/>
+        <v>26722.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>816</v>
+      </c>
+      <c r="E62">
+        <v>2840</v>
+      </c>
+      <c r="F62">
+        <v>410</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>2430</v>
+      </c>
+      <c r="H62">
+        <v>4.75</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="9"/>
+        <v>11542.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>471</v>
+      </c>
+      <c r="E63">
+        <v>1660</v>
+      </c>
+      <c r="F63">
+        <v>235</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>1425</v>
+      </c>
+      <c r="H63">
+        <v>6.75</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>9618.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
+        <f>SUM($D$58:$D$63)</f>
+        <v>2907</v>
+      </c>
+      <c r="E64" s="2">
+        <f>SUM($E$58:$E$63)</f>
+        <v>11940</v>
+      </c>
+      <c r="F64" s="2">
+        <f>SUM($F$58:$F$63)</f>
+        <v>1664</v>
+      </c>
+      <c r="G64" s="2">
+        <f>SUM($G$58:$G$63)</f>
+        <v>10276</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <f>SUM($I$58:$I$63)</f>
+        <v>64623.15</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="N64" s="2">
+        <f t="shared" ref="N64:V64" si="10">SUM(N58:N63)</f>
+        <v>423</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2">
+        <f t="shared" si="10"/>
+        <v>2244</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2">
+        <f>SUM(N64:Y64)</f>
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="2">
+        <f>(AVERAGE(H58:H63))</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>44</v>
+      </c>
+      <c r="E67">
+        <v>184</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G74" si="11">(E67-F67)</f>
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>7.5</v>
+      </c>
+      <c r="I67">
+        <f>(G67*H67)</f>
+        <v>1200</v>
+      </c>
+      <c r="N67">
+        <v>466</v>
+      </c>
+      <c r="P67" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" s="7">
+        <v>1889</v>
+      </c>
+      <c r="V67">
+        <v>284</v>
+      </c>
+      <c r="X67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>155</v>
+      </c>
+      <c r="E68">
+        <v>880</v>
+      </c>
+      <c r="F68">
+        <v>155</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="11"/>
+        <v>725</v>
+      </c>
+      <c r="H68">
+        <v>5.65</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I74" si="12">(G68*H68)</f>
+        <v>4096.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>723</v>
+      </c>
+      <c r="E69">
+        <v>2940</v>
+      </c>
+      <c r="F69">
+        <v>300</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="11"/>
+        <v>2640</v>
+      </c>
+      <c r="H69">
+        <v>7.25</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>125</v>
+      </c>
+      <c r="E70">
+        <v>420</v>
+      </c>
+      <c r="F70">
+        <v>62</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="11"/>
+        <v>358</v>
+      </c>
+      <c r="H70">
+        <v>5.5</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
         <v>305</v>
       </c>
-      <c r="E54">
+      <c r="E71">
         <v>1180</v>
       </c>
-      <c r="F54">
+      <c r="F71">
         <v>150</v>
       </c>
-      <c r="G54">
+      <c r="G71">
+        <f t="shared" si="11"/>
+        <v>1030</v>
+      </c>
+      <c r="H71">
+        <v>7.5</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>690</v>
+      </c>
+      <c r="E72">
+        <v>2600</v>
+      </c>
+      <c r="F72">
+        <v>345</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="11"/>
+        <v>2255</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>11275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>244</v>
+      </c>
+      <c r="E73">
+        <v>820</v>
+      </c>
+      <c r="F73">
+        <v>120</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="H73">
+        <v>4.3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>292</v>
+      </c>
+      <c r="E74">
+        <v>1640</v>
+      </c>
+      <c r="F74">
+        <v>292</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>1348</v>
+      </c>
+      <c r="H74">
+        <v>6.3</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="12"/>
+        <v>8492.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2">
+        <f>SUM($D$67:$D$74)</f>
+        <v>2578</v>
+      </c>
+      <c r="E75" s="2">
+        <f>SUM($E$67:$E$74)</f>
+        <v>10664</v>
+      </c>
+      <c r="F75" s="2">
+        <f>SUM($F$67:$F$74)</f>
+        <v>1448</v>
+      </c>
+      <c r="G75" s="2">
+        <f>SUM($G$67:$G$74)</f>
+        <v>9216</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2">
+        <f>SUM($I$67:$I$74)</f>
+        <v>56907.65</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" ref="N75:V75" si="13">SUM(N67:N74)</f>
+        <v>466</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2">
+        <f t="shared" si="13"/>
+        <v>1889</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2">
+        <f t="shared" si="13"/>
+        <v>284</v>
+      </c>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Z75" s="2">
+        <f>SUM(N75:Y75)</f>
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <f>AVERAGE(H67:H74)</f>
+        <v>6.1249999999999991</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>2011</v>
+      </c>
+      <c r="E78">
+        <v>8100</v>
+      </c>
+      <c r="F78">
+        <v>1000</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:G86" si="14">(E78-F78)</f>
+        <v>7100</v>
+      </c>
+      <c r="H78">
+        <v>7.4</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:I86" si="15">(G78*H78)</f>
+        <v>52540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>465</v>
+      </c>
+      <c r="E79">
+        <v>2620</v>
+      </c>
+      <c r="F79">
+        <v>465</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="14"/>
-        <v>1030</v>
-      </c>
-      <c r="H54">
+        <v>2155</v>
+      </c>
+      <c r="H79" s="18">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="15"/>
+        <v>11012.050000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>753</v>
+      </c>
+      <c r="E80">
+        <v>3140</v>
+      </c>
+      <c r="F80">
+        <v>390</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>2750</v>
+      </c>
+      <c r="H80">
         <v>7.5</v>
       </c>
-      <c r="I54">
+      <c r="I80">
         <f t="shared" si="15"/>
-        <v>7725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
+        <v>20625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D55">
-        <v>690</v>
-      </c>
-      <c r="E55">
-        <v>2600</v>
-      </c>
-      <c r="F55">
-        <v>345</v>
-      </c>
-      <c r="G55">
+      <c r="D81">
+        <v>220</v>
+      </c>
+      <c r="E81">
+        <v>860</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="14"/>
-        <v>2255</v>
-      </c>
-      <c r="H55">
+        <v>770</v>
+      </c>
+      <c r="H81">
+        <v>7.75</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="15"/>
+        <v>5967.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>675</v>
+      </c>
+      <c r="E82">
+        <v>2720</v>
+      </c>
+      <c r="F82">
+        <v>337</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="14"/>
+        <v>2383</v>
+      </c>
+      <c r="H82">
+        <v>7.5</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="15"/>
+        <v>17872.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>628</v>
+      </c>
+      <c r="E83">
+        <v>2906</v>
+      </c>
+      <c r="F83">
+        <v>256</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="14"/>
+        <v>2650</v>
+      </c>
+      <c r="H83">
+        <v>7.5</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="15"/>
+        <v>19875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>47</v>
+      </c>
+      <c r="E84">
+        <v>160</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="14"/>
+        <v>140</v>
+      </c>
+      <c r="H84">
         <v>5</v>
       </c>
-      <c r="I55">
+      <c r="I84">
         <f t="shared" si="15"/>
-        <v>11275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D56">
-        <v>244</v>
-      </c>
-      <c r="E56">
+      <c r="D85">
+        <v>584</v>
+      </c>
+      <c r="E85">
+        <v>2340</v>
+      </c>
+      <c r="F85">
+        <v>250</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="14"/>
+        <v>2090</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="15"/>
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>224</v>
+      </c>
+      <c r="E86">
         <v>820</v>
       </c>
-      <c r="F56">
+      <c r="F86">
         <v>120</v>
       </c>
-      <c r="G56">
+      <c r="G86">
         <f t="shared" si="14"/>
         <v>700</v>
       </c>
-      <c r="H56">
-        <v>4.3</v>
-      </c>
-      <c r="I56">
+      <c r="H86">
+        <v>5.25</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="15"/>
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>292</v>
-      </c>
-      <c r="E57">
-        <v>1640</v>
-      </c>
-      <c r="F57">
-        <v>292</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="14"/>
-        <v>1348</v>
-      </c>
-      <c r="H57">
-        <v>6.3</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="15"/>
-        <v>8492.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="2">
-        <f>SUM(D50:D57)</f>
-        <v>2578</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" ref="E58:I58" si="16">SUM(E50:E57)</f>
-        <v>10642</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="16"/>
-        <v>1446</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="16"/>
-        <v>9196</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <f t="shared" si="16"/>
-        <v>55707.65</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" ref="N58:V58" si="17">SUM(N50:N57)</f>
-        <v>466</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2">
-        <f t="shared" si="17"/>
-        <v>1889</v>
-      </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2">
-        <f t="shared" si="17"/>
-        <v>284</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Z58" s="2">
-        <f>SUM(N58:Y58)</f>
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="19"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>101</v>
+      <c r="D88" s="2">
+        <f>SUM($D$78:$D$86)</f>
+        <v>5607</v>
+      </c>
+      <c r="E88" s="2">
+        <f>SUM($E$78:$E$86)</f>
+        <v>23666</v>
+      </c>
+      <c r="F88" s="2">
+        <f>SUM($F$78:$F$86)</f>
+        <v>2928</v>
+      </c>
+      <c r="G88" s="2">
+        <f>SUM($G$78:$G$86)</f>
+        <v>20738</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2">
+        <f>SUM($I$78:$I$86)</f>
+        <v>144807.04999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="2">
+        <f>AVERAGE($H$78:$H$86)</f>
+        <v>6.5566666666666675</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +3883,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2763,50 +3899,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="H1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="15" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2814,22 +3950,22 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -2838,7 +3974,7 @@
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
@@ -2847,7 +3983,7 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
         <v>42</v>
@@ -2857,19 +3993,19 @@
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2755</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>11360</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>9762</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>63851.5</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="H4">
         <v>605</v>
       </c>
@@ -2884,19 +4020,19 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2192</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>9067</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>7750</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>48226.5</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
       <c r="H5">
         <v>455</v>
       </c>
@@ -2911,19 +4047,19 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3325</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>14480</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>12631</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>84508.3</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="H6">
         <v>489</v>
       </c>
@@ -2938,19 +4074,19 @@
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1558</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>5160</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>4465</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>27477.5</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
       <c r="H7">
         <v>994</v>
       </c>
@@ -2962,19 +4098,19 @@
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2907</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>11940</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>10276</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>64623.15</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="H8">
         <v>423</v>
       </c>
@@ -2989,19 +4125,19 @@
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2578</v>
       </c>
-      <c r="C9" s="7">
-        <v>10642</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9196</v>
-      </c>
-      <c r="E9" s="7">
-        <v>54359.65</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6">
+        <v>10664</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9216</v>
+      </c>
+      <c r="E9" s="6">
+        <v>56907.7</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="H9">
         <v>466</v>
       </c>
@@ -3014,56 +4150,56 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ref="B10:E10" si="0">SUM(B4:B9)</f>
+        <f>SUM($B$4:$B$9)</f>
         <v>15315</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>62649</v>
+        <f>SUM($C$4:$C$9)</f>
+        <v>62671</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>54080</v>
+        <f>SUM($D$4:$D$9)</f>
+        <v>54100</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>343046.60000000003</v>
-      </c>
-      <c r="F10" s="7"/>
+        <f>SUM($E$4:$E$9)</f>
+        <v>345594.65</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2">
-        <f>SUM(H4:H9)</f>
+        <f>SUM($H$4:$H$9)</f>
         <v>3432</v>
       </c>
       <c r="K10" s="2">
-        <f>SUM(K4:K9)</f>
+        <f>SUM($K$4:$K$9)</f>
         <v>10594</v>
       </c>
       <c r="N10" s="2">
-        <f>SUM(N4:N9)</f>
+        <f>SUM($N$4:$N$9)</f>
         <v>1354</v>
       </c>
       <c r="Q10" s="2">
-        <f>SUM(H10:N10)</f>
+        <f>SUM($H$10:$N$10)</f>
         <v>15380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>3340</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>18856</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>83720</v>
       </c>
       <c r="K11">
@@ -3072,10 +4208,20 @@
       <c r="N11">
         <v>1974</v>
       </c>
+      <c r="O11">
+        <v>5030</v>
+      </c>
+      <c r="P11">
+        <v>30180</v>
+      </c>
+      <c r="Q11">
+        <f>(H11+K11+N11)</f>
+        <v>15646</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12">
         <f>(H10-H11)</f>
@@ -3091,26 +4237,29 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3128,11 +4277,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F270D6F7-0D6A-4A75-AA4F-0021C3FDDED5}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3223,7 +4372,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44350</v>
       </c>
       <c r="B4" t="s">
@@ -3250,10 +4399,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44352</v>
       </c>
       <c r="B6" t="s">
@@ -3280,7 +4429,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44353</v>
       </c>
       <c r="B7" t="s">
@@ -3307,7 +4456,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44355</v>
       </c>
       <c r="B8" t="s">
@@ -3334,7 +4483,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44355</v>
       </c>
       <c r="B9" t="s">
@@ -3349,7 +4498,7 @@
       <c r="E9">
         <v>2.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>900</v>
       </c>
       <c r="G9">
@@ -3361,7 +4510,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>44356</v>
       </c>
       <c r="B10" t="s">
@@ -3388,7 +4537,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44358</v>
       </c>
       <c r="B11" t="s">
@@ -3415,7 +4564,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44360</v>
       </c>
       <c r="B12" t="s">
@@ -3430,7 +4579,7 @@
       <c r="E12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>900</v>
       </c>
       <c r="G12">
@@ -3462,7 +4611,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44361</v>
       </c>
       <c r="B15" t="s">
@@ -3483,10 +4632,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44362</v>
       </c>
       <c r="B17" t="s">
@@ -3510,7 +4659,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>44366</v>
       </c>
       <c r="B18" t="s">
@@ -3534,7 +4683,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>44369</v>
       </c>
       <c r="B19" t="s">
@@ -3558,7 +4707,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>44373</v>
       </c>
       <c r="B20" t="s">
@@ -3582,7 +4731,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>44376</v>
       </c>
       <c r="B21" t="s">
@@ -3606,7 +4755,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>44379</v>
       </c>
       <c r="B22" t="s">
@@ -3645,7 +4794,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>44469</v>
       </c>
       <c r="B25" t="s">
@@ -3669,7 +4818,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>44383</v>
       </c>
       <c r="B27" t="s">
@@ -3696,7 +4845,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>44385</v>
       </c>
       <c r="B28" t="s">
@@ -3723,7 +4872,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>44388</v>
       </c>
       <c r="B29" t="s">
@@ -3750,7 +4899,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>44389</v>
       </c>
       <c r="B30" t="s">
@@ -3777,7 +4926,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>44391</v>
       </c>
       <c r="B31" t="s">
@@ -3817,7 +4966,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>0</v>
       </c>
@@ -3832,8 +4981,16 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>44395</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3845,11 +5002,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C3A4D-AFBD-4AD5-B2DB-741DA471BB89}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4295,7 +5452,7 @@
         <v>44384</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -4385,7 +5542,7 @@
         <v>44387</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -4441,7 +5598,7 @@
         <v>44390</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -4455,7 +5612,7 @@
         <v>44391</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
@@ -4472,10 +5629,10 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E42">
-        <v>17750</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -4486,10 +5643,80 @@
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E43">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44">
         <v>70000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48">
+        <v>5645</v>
       </c>
     </row>
   </sheetData>
@@ -4499,11 +5726,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601663CF-CCB7-4C86-A880-A44006FEDBE7}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4535,13 +5762,13 @@
         <v>44336</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -4552,13 +5779,13 @@
         <v>44344</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -4569,7 +5796,7 @@
         <v>44348</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -4583,7 +5810,7 @@
         <v>44351</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -4597,7 +5824,7 @@
         <v>44351</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -4611,7 +5838,7 @@
         <v>44354</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -4628,13 +5855,13 @@
         <v>44354</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>5000</v>
@@ -4645,7 +5872,7 @@
         <v>44355</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -4662,7 +5889,7 @@
         <v>44356</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -4676,7 +5903,7 @@
         <v>44356</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -4690,7 +5917,7 @@
         <v>44357</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -4707,13 +5934,13 @@
         <v>44357</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>5000</v>
@@ -4724,7 +5951,7 @@
         <v>44358</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
@@ -4738,13 +5965,13 @@
         <v>44358</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -4755,7 +5982,7 @@
         <v>44358</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -4772,7 +5999,7 @@
         <v>44359</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -4786,7 +6013,7 @@
         <v>44361</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -4800,7 +6027,7 @@
         <v>44362</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -4814,7 +6041,7 @@
         <v>44363</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4828,7 +6055,7 @@
         <v>44364</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -4842,7 +6069,7 @@
         <v>44365</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -4856,7 +6083,7 @@
         <v>44366</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -4870,7 +6097,7 @@
         <v>44368</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -4884,7 +6111,7 @@
         <v>44369</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -4898,7 +6125,7 @@
         <v>44369</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -4912,7 +6139,7 @@
         <v>44369</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -4926,7 +6153,7 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -4940,7 +6167,7 @@
         <v>44372</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -4954,7 +6181,7 @@
         <v>44373</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -4968,7 +6195,7 @@
         <v>44373</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -4982,7 +6209,7 @@
         <v>44375</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -4996,7 +6223,7 @@
         <v>44376</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -5010,7 +6237,7 @@
         <v>44377</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -5024,7 +6251,7 @@
         <v>44378</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -5038,7 +6265,7 @@
         <v>44379</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -5052,7 +6279,7 @@
         <v>44380</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -5066,7 +6293,7 @@
         <v>44382</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -5080,7 +6307,7 @@
         <v>44383</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -5094,7 +6321,7 @@
         <v>44383</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
@@ -5108,7 +6335,7 @@
         <v>44384</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -5122,7 +6349,7 @@
         <v>44385</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
@@ -5136,7 +6363,7 @@
         <v>44385</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -5150,7 +6377,7 @@
         <v>44386</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -5164,7 +6391,7 @@
         <v>44387</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -5178,7 +6405,7 @@
         <v>44389</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -5192,7 +6419,7 @@
         <v>44389</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -5206,7 +6433,7 @@
         <v>44390</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -5217,19 +6444,61 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>44392</v>
       </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49">
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -5239,11 +6508,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D277C11-66A6-460E-A32C-33352BFB7673}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5273,7 +6542,7 @@
         <v>44333</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -5286,6 +6555,9 @@
       <c r="A3" s="1">
         <v>44336</v>
       </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
@@ -5297,6 +6569,9 @@
       <c r="A4" s="1">
         <v>44336</v>
       </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
@@ -5308,6 +6583,9 @@
       <c r="A5" s="1">
         <v>44344</v>
       </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
@@ -5319,6 +6597,9 @@
       <c r="A6" s="1">
         <v>44351</v>
       </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
@@ -5330,6 +6611,9 @@
       <c r="A7" s="1">
         <v>44354</v>
       </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
@@ -5341,6 +6625,9 @@
       <c r="A8" s="1">
         <v>44357</v>
       </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
@@ -5352,6 +6639,9 @@
       <c r="A9" s="1">
         <v>44362</v>
       </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
@@ -5363,6 +6653,9 @@
       <c r="A10" s="1">
         <v>44364</v>
       </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
       <c r="C10" t="s">
         <v>63</v>
       </c>
@@ -5374,6 +6667,9 @@
       <c r="A11" s="1">
         <v>44371</v>
       </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
@@ -5385,6 +6681,9 @@
       <c r="A12" s="1">
         <v>44372</v>
       </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
@@ -5396,12 +6695,18 @@
       <c r="A13" s="1">
         <v>44378</v>
       </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="E13">
         <v>26910</v>
       </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5426,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5434,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5442,7 +6747,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5450,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5458,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5466,7 +6771,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5474,7 +6779,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0723C2-5EC7-40C4-9964-12C5CFC60610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B3183-432F-4628-BFC1-F3F3642624F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="1" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="266">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Ramazan</t>
   </si>
   <si>
-    <t>KALAN</t>
-  </si>
-  <si>
     <t>Şekeroğlu</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
   </si>
   <si>
     <t>DÜKKAN</t>
-  </si>
-  <si>
-    <t>KOMİSYON_GİDERİ</t>
   </si>
   <si>
     <t>yesil_kasa</t>
@@ -756,9 +750,6 @@
     <t>BAKİYE</t>
   </si>
   <si>
-    <t>VERİLEN</t>
-  </si>
-  <si>
     <t>ALİ AÇIKGÖZ</t>
   </si>
   <si>
@@ -771,13 +762,85 @@
     <t>Efes Buzhane</t>
   </si>
   <si>
-    <t>Kurtuluş Dinç Hal</t>
-  </si>
-  <si>
     <t>ANTALYA</t>
   </si>
   <si>
     <t>İSTANBUL</t>
+  </si>
+  <si>
+    <t>Kurtuluş_Dinç_Hal</t>
+  </si>
+  <si>
+    <t>Genel Toplam</t>
+  </si>
+  <si>
+    <t>Değişen Toplam</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>Ünalberk</t>
+  </si>
+  <si>
+    <t>Bayramlık</t>
+  </si>
+  <si>
+    <t>16.7.2021/HAFTALIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KOMİSYON GİDERİ/HAFTALIK</t>
+  </si>
+  <si>
+    <t>KOMİSYON_GİDERİ/HAFTALIK</t>
+  </si>
+  <si>
+    <t>21.7.2021/ÇARŞAMBA</t>
+  </si>
+  <si>
+    <t>Mert</t>
+  </si>
+  <si>
+    <t>Mert Engin</t>
+  </si>
+  <si>
+    <t>Süleyman Küçük</t>
+  </si>
+  <si>
+    <t>HAFTALIK_TOPLAM</t>
+  </si>
+  <si>
+    <t>HAYRİ KANAT</t>
+  </si>
+  <si>
+    <t>ADNAN TOPÇU</t>
+  </si>
+  <si>
+    <t>HÜSEYİN ADSIZ</t>
+  </si>
+  <si>
+    <t>GÜLTEKİN EKİNCİ</t>
+  </si>
+  <si>
+    <t>ŞABAN OK</t>
+  </si>
+  <si>
+    <t>SERCAN GÜR</t>
+  </si>
+  <si>
+    <t>YUSUF AKINCI</t>
+  </si>
+  <si>
+    <t>OSMAN ALKAN</t>
+  </si>
+  <si>
+    <t>KURTULUŞ DİNÇ</t>
+  </si>
+  <si>
+    <t>BORÇ</t>
+  </si>
+  <si>
+    <t>ÖDEME</t>
   </si>
 </sst>
 </file>
@@ -803,7 +866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +957,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -907,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -952,6 +1039,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,10 +1075,27 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1304,11 +1414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
   <dimension ref="A1:BQ408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B383" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N395" sqref="N395"/>
+      <selection pane="bottomRight" activeCell="O393" sqref="O393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1374,98 +1484,98 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="37" t="s">
+      <c r="L1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="28" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="36" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="34" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="29" t="s">
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="30" t="s">
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="BQ1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
@@ -1483,145 +1593,145 @@
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="W2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AA2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AE2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AI2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AJ2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AL2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AM2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AR2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AT2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AU2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AV2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AY2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AZ2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="BA2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BB2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="BC2" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="BE2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BF2" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="BG2" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BH2" s="7" t="s">
         <v>2</v>
@@ -1633,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BL2" s="7" t="s">
         <v>2</v>
@@ -1645,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="BO2" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BP2" s="2"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1741,10 +1851,10 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2042,13 +2152,13 @@
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
         <v>116</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
       </c>
       <c r="D8">
         <v>166</v>
@@ -2129,13 +2239,13 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
       </c>
       <c r="D9">
         <v>138</v>
@@ -2427,13 +2537,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13">
         <v>7480</v>
@@ -2500,10 +2610,10 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
         <v>121</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2590,10 +2700,10 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2680,13 +2790,13 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -2995,7 +3105,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>22</v>
@@ -3083,10 +3193,10 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
@@ -3171,10 +3281,10 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
@@ -3259,10 +3369,10 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
@@ -3349,10 +3459,10 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>9</v>
@@ -3437,7 +3547,7 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -3756,10 +3866,10 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
@@ -3846,10 +3956,10 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>9</v>
@@ -3936,10 +4046,10 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -4346,10 +4456,10 @@
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>9</v>
@@ -4436,10 +4546,10 @@
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>9</v>
@@ -4526,10 +4636,10 @@
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -4616,10 +4726,10 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>9</v>
@@ -4706,10 +4816,10 @@
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>9</v>
@@ -4796,7 +4906,7 @@
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>22</v>
@@ -4886,10 +4996,10 @@
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>9</v>
@@ -5212,10 +5322,10 @@
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>9</v>
@@ -5310,10 +5420,10 @@
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>9</v>
@@ -5408,10 +5518,10 @@
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>9</v>
@@ -5498,7 +5608,7 @@
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>12</v>
@@ -5588,10 +5698,10 @@
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>9</v>
@@ -5678,10 +5788,10 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>9</v>
@@ -5768,7 +5878,7 @@
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>22</v>
@@ -6096,10 +6206,10 @@
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>9</v>
@@ -6202,10 +6312,10 @@
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>9</v>
@@ -6302,7 +6412,7 @@
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>31</v>
@@ -6392,10 +6502,10 @@
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>9</v>
@@ -6482,10 +6592,10 @@
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>9</v>
@@ -6572,10 +6682,10 @@
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>9</v>
@@ -6662,10 +6772,10 @@
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>36</v>
@@ -6993,10 +7103,10 @@
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>9</v>
@@ -7097,10 +7207,10 @@
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>9</v>
@@ -7187,7 +7297,7 @@
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>31</v>
@@ -7277,7 +7387,7 @@
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>31</v>
@@ -7367,10 +7477,10 @@
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>9</v>
@@ -7457,10 +7567,10 @@
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>9</v>
@@ -7547,10 +7657,10 @@
     </row>
     <row r="72" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>9</v>
@@ -7637,10 +7747,10 @@
     </row>
     <row r="73" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>9</v>
@@ -7727,7 +7837,7 @@
     </row>
     <row r="74" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>15</v>
@@ -7817,7 +7927,7 @@
     </row>
     <row r="75" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>28</v>
@@ -8147,7 +8257,7 @@
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>15</v>
@@ -8249,10 +8359,10 @@
     </row>
     <row r="80" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>36</v>
@@ -8351,10 +8461,10 @@
     </row>
     <row r="81" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>9</v>
@@ -8441,10 +8551,10 @@
     </row>
     <row r="82" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>9</v>
@@ -8531,7 +8641,7 @@
     </row>
     <row r="83" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>28</v>
@@ -8621,7 +8731,7 @@
     </row>
     <row r="84" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>31</v>
@@ -8711,10 +8821,10 @@
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>36</v>
@@ -8801,7 +8911,7 @@
     </row>
     <row r="86" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>32</v>
@@ -9132,7 +9242,7 @@
     </row>
     <row r="90" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>32</v>
@@ -9224,10 +9334,10 @@
     </row>
     <row r="91" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>9</v>
@@ -9314,10 +9424,10 @@
     </row>
     <row r="92" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>9</v>
@@ -9404,7 +9514,7 @@
     </row>
     <row r="93" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>12</v>
@@ -9494,10 +9604,10 @@
     </row>
     <row r="94" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>9</v>
@@ -9584,10 +9694,10 @@
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>9</v>
@@ -9909,7 +10019,7 @@
     </row>
     <row r="99" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>31</v>
@@ -10007,7 +10117,7 @@
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>12</v>
@@ -10097,10 +10207,10 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>9</v>
@@ -10187,10 +10297,10 @@
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>9</v>
@@ -10277,7 +10387,7 @@
     </row>
     <row r="103" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>32</v>
@@ -10367,7 +10477,7 @@
     </row>
     <row r="104" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>32</v>
@@ -10699,7 +10809,7 @@
     </row>
     <row r="108" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>12</v>
@@ -10801,10 +10911,10 @@
     </row>
     <row r="109" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>9</v>
@@ -10891,10 +11001,10 @@
     </row>
     <row r="110" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>9</v>
@@ -10981,10 +11091,10 @@
     </row>
     <row r="111" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>9</v>
@@ -11071,7 +11181,7 @@
     </row>
     <row r="112" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>32</v>
@@ -11161,7 +11271,7 @@
     </row>
     <row r="113" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>32</v>
@@ -11491,10 +11601,10 @@
     </row>
     <row r="117" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>9</v>
@@ -11575,7 +11685,7 @@
         <v>74</v>
       </c>
       <c r="BE117" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BF117" s="23"/>
       <c r="BG117" s="11"/>
@@ -11591,7 +11701,7 @@
     </row>
     <row r="118" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>32</v>
@@ -11687,7 +11797,7 @@
     </row>
     <row r="119" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>32</v>
@@ -11777,7 +11887,7 @@
     </row>
     <row r="120" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>31</v>
@@ -11867,7 +11977,7 @@
     </row>
     <row r="121" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>15</v>
@@ -12194,7 +12304,7 @@
     </row>
     <row r="125" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>12</v>
@@ -12292,10 +12402,10 @@
     </row>
     <row r="126" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>9</v>
@@ -12382,10 +12492,10 @@
     </row>
     <row r="127" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>9</v>
@@ -12472,7 +12582,7 @@
     </row>
     <row r="128" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>32</v>
@@ -12562,10 +12672,10 @@
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>9</v>
@@ -12896,7 +13006,7 @@
     </row>
     <row r="133" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>8</v>
@@ -12996,10 +13106,10 @@
     </row>
     <row r="134" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>9</v>
@@ -13086,7 +13196,7 @@
     </row>
     <row r="135" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>31</v>
@@ -13176,7 +13286,7 @@
     </row>
     <row r="136" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>12</v>
@@ -13266,7 +13376,7 @@
     </row>
     <row r="137" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>12</v>
@@ -13356,10 +13466,10 @@
     </row>
     <row r="138" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>9</v>
@@ -13446,7 +13556,7 @@
     </row>
     <row r="139" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>15</v>
@@ -13782,7 +13892,7 @@
     </row>
     <row r="143" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>8</v>
@@ -13882,7 +13992,7 @@
     </row>
     <row r="144" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>14</v>
@@ -13972,7 +14082,7 @@
     </row>
     <row r="145" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>15</v>
@@ -14062,10 +14172,10 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>9</v>
@@ -14152,7 +14262,7 @@
     </row>
     <row r="147" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>12</v>
@@ -14242,7 +14352,7 @@
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>12</v>
@@ -14332,10 +14442,10 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>9</v>
@@ -14422,10 +14532,10 @@
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>9</v>
@@ -14512,10 +14622,10 @@
     </row>
     <row r="151" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>9</v>
@@ -14602,10 +14712,10 @@
     </row>
     <row r="152" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>9</v>
@@ -14692,7 +14802,7 @@
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>13</v>
@@ -15026,7 +15136,7 @@
     </row>
     <row r="157" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>8</v>
@@ -15126,7 +15236,7 @@
     </row>
     <row r="158" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>8</v>
@@ -15224,7 +15334,7 @@
     </row>
     <row r="159" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>31</v>
@@ -15314,7 +15424,7 @@
     </row>
     <row r="160" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>26</v>
@@ -15404,10 +15514,10 @@
     </row>
     <row r="161" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>9</v>
@@ -15494,7 +15604,7 @@
     </row>
     <row r="162" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>14</v>
@@ -15584,7 +15694,7 @@
     </row>
     <row r="163" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>12</v>
@@ -15674,7 +15784,7 @@
     </row>
     <row r="164" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>12</v>
@@ -16004,7 +16114,7 @@
     </row>
     <row r="168" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>26</v>
@@ -16102,7 +16212,7 @@
     </row>
     <row r="169" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
@@ -16200,7 +16310,7 @@
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>32</v>
@@ -16290,7 +16400,7 @@
     </row>
     <row r="171" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>8</v>
@@ -16380,7 +16490,7 @@
     </row>
     <row r="172" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>22</v>
@@ -16470,7 +16580,7 @@
     </row>
     <row r="173" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>22</v>
@@ -16794,7 +16904,7 @@
     </row>
     <row r="177" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>22</v>
@@ -16885,7 +16995,7 @@
       </c>
       <c r="BI177" s="23"/>
       <c r="BJ177" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BK177" s="11"/>
       <c r="BL177" s="11"/>
@@ -16896,7 +17006,7 @@
     </row>
     <row r="178" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
@@ -16994,10 +17104,10 @@
     </row>
     <row r="179" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>9</v>
@@ -17088,7 +17198,7 @@
     </row>
     <row r="180" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>8</v>
@@ -17171,7 +17281,7 @@
       </c>
       <c r="BI180" s="23"/>
       <c r="BJ180" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BK180" s="11"/>
       <c r="BL180" s="11"/>
@@ -17182,10 +17292,10 @@
     </row>
     <row r="181" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>9</v>
@@ -17272,10 +17382,10 @@
     </row>
     <row r="182" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>9</v>
@@ -17362,7 +17472,7 @@
     </row>
     <row r="183" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>13</v>
@@ -17452,13 +17562,13 @@
     </row>
     <row r="184" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D184" s="8">
         <v>724</v>
@@ -17783,10 +17893,10 @@
     </row>
     <row r="188" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>9</v>
@@ -17877,7 +17987,7 @@
     </row>
     <row r="189" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
@@ -17971,7 +18081,7 @@
     </row>
     <row r="190" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>13</v>
@@ -18061,10 +18171,10 @@
     </row>
     <row r="191" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>36</v>
@@ -18151,7 +18261,7 @@
     </row>
     <row r="192" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>13</v>
@@ -18241,10 +18351,10 @@
     </row>
     <row r="193" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>9</v>
@@ -18565,7 +18675,7 @@
     </row>
     <row r="197" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>12</v>
@@ -18659,7 +18769,7 @@
     </row>
     <row r="198" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>14</v>
@@ -18749,10 +18859,10 @@
     </row>
     <row r="199" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>9</v>
@@ -18839,10 +18949,10 @@
     </row>
     <row r="200" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>9</v>
@@ -18929,7 +19039,7 @@
     </row>
     <row r="201" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>15</v>
@@ -19257,7 +19367,7 @@
     </row>
     <row r="205" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>22</v>
@@ -19351,7 +19461,7 @@
     </row>
     <row r="206" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>26</v>
@@ -19441,10 +19551,10 @@
     </row>
     <row r="207" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>9</v>
@@ -19531,10 +19641,10 @@
     </row>
     <row r="208" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>9</v>
@@ -19861,10 +19971,10 @@
     </row>
     <row r="212" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>9</v>
@@ -19955,7 +20065,7 @@
     </row>
     <row r="213" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>8</v>
@@ -20045,10 +20155,10 @@
     </row>
     <row r="214" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>9</v>
@@ -20135,7 +20245,7 @@
     </row>
     <row r="215" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>26</v>
@@ -20225,7 +20335,7 @@
     </row>
     <row r="216" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>26</v>
@@ -20315,7 +20425,7 @@
     </row>
     <row r="217" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>14</v>
@@ -20641,7 +20751,7 @@
     </row>
     <row r="221" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>12</v>
@@ -20739,7 +20849,7 @@
     </row>
     <row r="222" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>13</v>
@@ -20829,7 +20939,7 @@
     </row>
     <row r="223" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>22</v>
@@ -20919,7 +21029,7 @@
     </row>
     <row r="224" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>26</v>
@@ -21009,10 +21119,10 @@
     </row>
     <row r="225" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>9</v>
@@ -21335,7 +21445,7 @@
     </row>
     <row r="229" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>12</v>
@@ -21433,10 +21543,10 @@
     </row>
     <row r="230" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>9</v>
@@ -21523,10 +21633,10 @@
     </row>
     <row r="231" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>9</v>
@@ -21613,7 +21723,7 @@
     </row>
     <row r="232" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>14</v>
@@ -21703,7 +21813,7 @@
     </row>
     <row r="233" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>26</v>
@@ -21793,7 +21903,7 @@
     </row>
     <row r="234" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>15</v>
@@ -21883,7 +21993,7 @@
     </row>
     <row r="235" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>32</v>
@@ -21973,10 +22083,10 @@
     </row>
     <row r="236" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>9</v>
@@ -22299,7 +22409,7 @@
     </row>
     <row r="240" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
@@ -22397,7 +22507,7 @@
     </row>
     <row r="241" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>8</v>
@@ -22487,7 +22597,7 @@
     </row>
     <row r="242" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>32</v>
@@ -22577,7 +22687,7 @@
     </row>
     <row r="243" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>32</v>
@@ -22903,7 +23013,7 @@
     </row>
     <row r="247" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>28</v>
@@ -23001,10 +23111,10 @@
     </row>
     <row r="248" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>9</v>
@@ -23091,7 +23201,7 @@
     </row>
     <row r="249" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>32</v>
@@ -23181,10 +23291,10 @@
     </row>
     <row r="250" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>9</v>
@@ -23507,10 +23617,10 @@
     </row>
     <row r="254" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>9</v>
@@ -23605,7 +23715,7 @@
     </row>
     <row r="255" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>13</v>
@@ -23695,7 +23805,7 @@
     </row>
     <row r="256" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>14</v>
@@ -24019,7 +24129,7 @@
     </row>
     <row r="260" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>8</v>
@@ -24119,7 +24229,7 @@
     </row>
     <row r="261" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>26</v>
@@ -24209,10 +24319,10 @@
     </row>
     <row r="262" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>9</v>
@@ -24299,10 +24409,10 @@
     </row>
     <row r="263" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>9</v>
@@ -24389,7 +24499,7 @@
     </row>
     <row r="264" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>12</v>
@@ -24479,7 +24589,7 @@
     </row>
     <row r="265" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>15</v>
@@ -24569,7 +24679,7 @@
     </row>
     <row r="266" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>21</v>
@@ -24659,7 +24769,7 @@
     </row>
     <row r="267" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
@@ -24985,7 +25095,7 @@
     </row>
     <row r="271" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>26</v>
@@ -25085,7 +25195,7 @@
     </row>
     <row r="272" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>22</v>
@@ -25175,10 +25285,10 @@
     </row>
     <row r="273" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>9</v>
@@ -25265,7 +25375,7 @@
     </row>
     <row r="274" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>12</v>
@@ -25591,7 +25701,7 @@
     </row>
     <row r="278" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>8</v>
@@ -25669,7 +25779,7 @@
         <v>276</v>
       </c>
       <c r="BE278" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BF278" s="23"/>
       <c r="BG278" s="23"/>
@@ -25689,7 +25799,7 @@
     </row>
     <row r="279" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>22</v>
@@ -25785,7 +25895,7 @@
     </row>
     <row r="280" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>23</v>
@@ -25875,7 +25985,7 @@
     </row>
     <row r="281" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>12</v>
@@ -25965,10 +26075,10 @@
     </row>
     <row r="282" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>9</v>
@@ -26055,7 +26165,7 @@
     </row>
     <row r="283" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>26</v>
@@ -26382,7 +26492,7 @@
     </row>
     <row r="287" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>32</v>
@@ -26460,7 +26570,7 @@
         <v>907</v>
       </c>
       <c r="BE287" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BF287" s="23" t="s">
         <v>9</v>
@@ -26486,10 +26596,10 @@
     </row>
     <row r="288" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>9</v>
@@ -26576,7 +26686,7 @@
     </row>
     <row r="289" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>8</v>
@@ -26666,7 +26776,7 @@
     </row>
     <row r="290" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>23</v>
@@ -26756,7 +26866,7 @@
     </row>
     <row r="291" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>13</v>
@@ -27084,7 +27194,7 @@
     </row>
     <row r="295" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>14</v>
@@ -27165,7 +27275,7 @@
         <v>35</v>
       </c>
       <c r="BF295" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG295" s="23"/>
       <c r="BH295" s="23">
@@ -27175,7 +27285,7 @@
         <v>35</v>
       </c>
       <c r="BJ295" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BK295" s="11"/>
       <c r="BL295" s="11"/>
@@ -27186,7 +27296,7 @@
     </row>
     <row r="296" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>23</v>
@@ -27264,7 +27374,7 @@
         <v>378</v>
       </c>
       <c r="BE296" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BF296" s="23"/>
       <c r="BG296" s="23"/>
@@ -27272,10 +27382,10 @@
         <v>70</v>
       </c>
       <c r="BI296" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BJ296" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BK296" s="11"/>
       <c r="BL296" s="11"/>
@@ -27286,7 +27396,7 @@
     </row>
     <row r="297" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>31</v>
@@ -27386,7 +27496,7 @@
     </row>
     <row r="298" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>32</v>
@@ -27476,10 +27586,10 @@
     </row>
     <row r="299" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>9</v>
@@ -27566,13 +27676,13 @@
     </row>
     <row r="300" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D300" s="8">
         <v>282</v>
@@ -27656,13 +27766,13 @@
     </row>
     <row r="301" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B301" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B301" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="C301" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D301" s="8">
         <v>26</v>
@@ -27744,13 +27854,13 @@
     </row>
     <row r="302" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B302" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B302" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="C302" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D302" s="8">
         <v>136</v>
@@ -27832,7 +27942,7 @@
     </row>
     <row r="303" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>15</v>
@@ -28160,7 +28270,7 @@
     </row>
     <row r="307" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>23</v>
@@ -28260,7 +28370,7 @@
     </row>
     <row r="308" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>26</v>
@@ -28356,7 +28466,7 @@
     </row>
     <row r="309" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>26</v>
@@ -28446,10 +28556,10 @@
     </row>
     <row r="310" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>36</v>
@@ -28536,7 +28646,7 @@
     </row>
     <row r="311" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>15</v>
@@ -28626,7 +28736,7 @@
     </row>
     <row r="312" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>14</v>
@@ -30397,7 +30507,7 @@
         <v>34</v>
       </c>
       <c r="BF344" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH344">
         <v>564</v>
@@ -30982,7 +31092,7 @@
         <v>38</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
@@ -31044,7 +31154,7 @@
         <v>38</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C363" t="s">
         <v>9</v>
@@ -31342,7 +31452,7 @@
     </row>
     <row r="371" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B371" t="s">
         <v>25</v>
@@ -31385,7 +31495,7 @@
     </row>
     <row r="372" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B372" t="s">
         <v>23</v>
@@ -31416,7 +31526,7 @@
     </row>
     <row r="373" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B373" t="s">
         <v>22</v>
@@ -31447,7 +31557,7 @@
     </row>
     <row r="374" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B374" t="s">
         <v>8</v>
@@ -31478,10 +31588,10 @@
     </row>
     <row r="375" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B375" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C375" t="s">
         <v>9</v>
@@ -31509,7 +31619,7 @@
     </row>
     <row r="376" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B376" t="s">
         <v>15</v>
@@ -31540,10 +31650,10 @@
     </row>
     <row r="377" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B377" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C377" t="s">
         <v>9</v>
@@ -31571,7 +31681,7 @@
     </row>
     <row r="378" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B378" t="s">
         <v>26</v>
@@ -31602,7 +31712,7 @@
     </row>
     <row r="379" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B379" t="s">
         <v>21</v>
@@ -31633,7 +31743,7 @@
     </row>
     <row r="380" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B380" t="s">
         <v>14</v>
@@ -31719,7 +31829,7 @@
     </row>
     <row r="384" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B384" t="s">
         <v>8</v>
@@ -31737,24 +31847,24 @@
         <v>80</v>
       </c>
       <c r="G384">
-        <f>(E384-F384)</f>
+        <f t="shared" ref="G384:G395" si="84">(E384-F384)</f>
         <v>580</v>
       </c>
       <c r="H384">
         <v>5</v>
       </c>
       <c r="I384">
-        <f>(G384*H384)</f>
+        <f t="shared" ref="I384:I395" si="85">(G384*H384)</f>
         <v>2900</v>
       </c>
       <c r="L384">
         <v>1752</v>
       </c>
       <c r="N384" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="O384">
-        <v>6660</v>
+        <v>3730</v>
       </c>
       <c r="P384">
         <v>648</v>
@@ -31768,10 +31878,10 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B385" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C385" t="s">
         <v>9</v>
@@ -31786,24 +31896,24 @@
         <v>352</v>
       </c>
       <c r="G385">
-        <f>(E385-F385)</f>
+        <f t="shared" si="84"/>
         <v>3108</v>
       </c>
       <c r="H385">
         <v>7.5</v>
       </c>
       <c r="I385">
-        <f>(G385*H385)</f>
+        <f t="shared" si="85"/>
         <v>23310</v>
       </c>
       <c r="L385">
         <v>932</v>
       </c>
       <c r="N385" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="O385">
-        <v>3730</v>
+        <v>6660</v>
       </c>
       <c r="P385">
         <v>867</v>
@@ -31817,10 +31927,10 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B386" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -31835,23 +31945,23 @@
         <v>220</v>
       </c>
       <c r="G386">
-        <f>(E386-F386)</f>
+        <f t="shared" si="84"/>
         <v>2000</v>
       </c>
       <c r="H386">
         <v>7.75</v>
       </c>
       <c r="I386">
-        <f>(G386*H386)</f>
+        <f t="shared" si="85"/>
         <v>15500</v>
       </c>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B387" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C387" t="s">
         <v>9</v>
@@ -31866,20 +31976,20 @@
         <v>210</v>
       </c>
       <c r="G387">
-        <f>(E387-F387)</f>
+        <f t="shared" si="84"/>
         <v>1410</v>
       </c>
       <c r="H387">
         <v>7.5</v>
       </c>
       <c r="I387">
-        <f>(G387*H387)</f>
+        <f t="shared" si="85"/>
         <v>10575</v>
       </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B388" t="s">
         <v>28</v>
@@ -31897,23 +32007,23 @@
         <v>250</v>
       </c>
       <c r="G388">
-        <f>(E388-F388)</f>
+        <f t="shared" si="84"/>
         <v>2250</v>
       </c>
       <c r="H388">
         <v>7.5</v>
       </c>
       <c r="I388">
-        <f>(G388*H388)</f>
+        <f t="shared" si="85"/>
         <v>16875</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B389" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -31928,20 +32038,20 @@
         <v>195</v>
       </c>
       <c r="G389">
-        <f>(E389-F389)</f>
+        <f t="shared" si="84"/>
         <v>1225</v>
       </c>
       <c r="H389">
         <v>7.5</v>
       </c>
       <c r="I389">
-        <f>(G389*H389)</f>
+        <f t="shared" si="85"/>
         <v>9187.5</v>
       </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B390" t="s">
         <v>14</v>
@@ -31959,23 +32069,23 @@
         <v>680</v>
       </c>
       <c r="G390">
-        <f>(E390-F390)</f>
+        <f t="shared" si="84"/>
         <v>3960</v>
       </c>
       <c r="H390">
         <v>7.2</v>
       </c>
       <c r="I390">
-        <f>(G390*H390)</f>
+        <f t="shared" si="85"/>
         <v>28512</v>
       </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B391" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -31990,20 +32100,20 @@
         <v>260</v>
       </c>
       <c r="G391">
-        <f>(E391-F391)</f>
+        <f t="shared" si="84"/>
         <v>2220</v>
       </c>
       <c r="H391">
         <v>7</v>
       </c>
       <c r="I391">
-        <f>(G391*H391)</f>
+        <f t="shared" si="85"/>
         <v>15540</v>
       </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
@@ -32021,23 +32131,23 @@
         <v>130</v>
       </c>
       <c r="G392">
-        <f>(E392-F392)</f>
+        <f t="shared" si="84"/>
         <v>1090</v>
       </c>
       <c r="H392">
         <v>6.5</v>
       </c>
       <c r="I392">
-        <f>(G392*H392)</f>
+        <f t="shared" si="85"/>
         <v>7085</v>
       </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B393" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C393" t="s">
         <v>9</v>
@@ -32052,23 +32162,23 @@
         <v>180</v>
       </c>
       <c r="G393">
-        <f>(E393-F393)</f>
+        <f t="shared" si="84"/>
         <v>1580</v>
       </c>
       <c r="H393">
         <v>7.2</v>
       </c>
       <c r="I393">
-        <f>(G393*H393)</f>
+        <f t="shared" si="85"/>
         <v>11376</v>
       </c>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B394" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C394" t="s">
         <v>9</v>
@@ -32083,23 +32193,23 @@
         <v>390</v>
       </c>
       <c r="G394">
-        <f>(E394-F394)</f>
+        <f t="shared" si="84"/>
         <v>2960</v>
       </c>
       <c r="H394">
         <v>10</v>
       </c>
       <c r="I394">
-        <f>(G394*H394)</f>
+        <f t="shared" si="85"/>
         <v>29600</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B395" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C395" t="s">
         <v>36</v>
@@ -32114,23 +32224,23 @@
         <v>91</v>
       </c>
       <c r="G395">
-        <f>(E395-F395)</f>
+        <f t="shared" si="84"/>
         <v>2621</v>
       </c>
       <c r="H395">
         <v>9.5</v>
       </c>
       <c r="I395">
-        <f>(G395*H395)</f>
+        <f t="shared" si="85"/>
         <v>24899.5</v>
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B396" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C396" t="s">
         <v>36</v>
@@ -32185,7 +32295,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B400" t="s">
         <v>28</v>
@@ -32200,7 +32310,7 @@
         <v>285</v>
       </c>
       <c r="G400">
-        <f>(E400-F400)</f>
+        <f t="shared" ref="G400:G406" si="86">(E400-F400)</f>
         <v>2515</v>
       </c>
       <c r="H400">
@@ -32213,7 +32323,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B401" t="s">
         <v>26</v>
@@ -32228,7 +32338,7 @@
         <v>350</v>
       </c>
       <c r="G401">
-        <f>(E401-F401)</f>
+        <f t="shared" si="86"/>
         <v>3030</v>
       </c>
       <c r="H401">
@@ -32241,7 +32351,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B402" t="s">
         <v>14</v>
@@ -32256,7 +32366,7 @@
         <v>180</v>
       </c>
       <c r="G402">
-        <f>(E402-F402)</f>
+        <f t="shared" si="86"/>
         <v>1260</v>
       </c>
       <c r="H402">
@@ -32269,7 +32379,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B403" t="s">
         <v>14</v>
@@ -32284,23 +32394,23 @@
         <v>340</v>
       </c>
       <c r="G403">
-        <f>(E403-F403)</f>
+        <f t="shared" si="86"/>
         <v>2120</v>
       </c>
       <c r="H403">
         <v>5</v>
       </c>
       <c r="I403">
-        <f t="shared" ref="I403:I406" si="84">(G403*H403)</f>
+        <f t="shared" ref="I403:I406" si="87">(G403*H403)</f>
         <v>10600</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B404" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C404" t="s">
         <v>36</v>
@@ -32315,20 +32425,20 @@
         <v>100</v>
       </c>
       <c r="G404">
-        <f>(E404-F404)</f>
+        <f t="shared" si="86"/>
         <v>1000</v>
       </c>
       <c r="H404">
         <v>9</v>
       </c>
       <c r="I404">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>9000</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B405" t="s">
         <v>8</v>
@@ -32343,20 +32453,20 @@
         <v>400</v>
       </c>
       <c r="G405">
-        <f>(E405-F405)</f>
+        <f t="shared" si="86"/>
         <v>3240</v>
       </c>
       <c r="H405">
         <v>7.65</v>
       </c>
       <c r="I405">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>24786</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B406" t="s">
         <v>8</v>
@@ -32371,14 +32481,14 @@
         <v>80</v>
       </c>
       <c r="G406">
-        <f>(E406-F406)</f>
+        <f t="shared" si="86"/>
         <v>920</v>
       </c>
       <c r="H406">
         <v>5</v>
       </c>
       <c r="I406">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4600</v>
       </c>
     </row>
@@ -32387,24 +32497,24 @@
         <v>17</v>
       </c>
       <c r="D407" s="2">
-        <f t="shared" ref="D407:I407" si="85">SUM(D400:D406)</f>
+        <f t="shared" ref="D407:I407" si="88">SUM(D400:D406)</f>
         <v>4037</v>
       </c>
       <c r="E407" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>15820</v>
       </c>
       <c r="F407" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>1735</v>
       </c>
       <c r="G407" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>14085</v>
       </c>
       <c r="H407" s="2"/>
       <c r="I407" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>98036.3</v>
       </c>
     </row>
@@ -32419,16 +32529,16 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -32457,7 +32567,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -32465,7 +32575,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -32473,7 +32583,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -32481,7 +32591,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -32489,7 +32599,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -32497,7 +32607,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -32505,7 +32615,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -32515,101 +32625,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="27"/>
+    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="43"/>
+      <c r="K1" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="U1" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Z1" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AE1" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AO1" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AT1" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AY1" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BD1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+    </row>
+    <row r="2" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>38000</v>
+      </c>
+      <c r="D3">
+        <f>(B3-C3)</f>
+        <v>38000</v>
+      </c>
       <c r="F3" s="1">
         <v>44395</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>33650</v>
+      </c>
+      <c r="H3">
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <f>(G3-H3)</f>
+        <v>28650</v>
       </c>
       <c r="K3" s="1">
         <v>44395</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>16297</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <f>(L3-M3)</f>
+        <v>16297</v>
+      </c>
+      <c r="P3" s="1">
+        <v>44401</v>
+      </c>
+      <c r="Q3">
+        <v>72000</v>
+      </c>
+      <c r="R3">
+        <v>25000</v>
+      </c>
+      <c r="S3">
+        <f>(Q3-R3)</f>
+        <v>47000</v>
+      </c>
+      <c r="U3" s="1">
+        <v>44395</v>
+      </c>
+      <c r="V3">
+        <v>11000</v>
+      </c>
+      <c r="W3">
+        <v>5000</v>
+      </c>
+      <c r="X3">
+        <f>(V3-W3)</f>
+        <v>6000</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3">
+        <v>10650</v>
+      </c>
+      <c r="AB3">
+        <v>5000</v>
+      </c>
+      <c r="AC3">
+        <f>(AA3-AB3)</f>
+        <v>5650</v>
+      </c>
+      <c r="AF3">
+        <v>17872</v>
+      </c>
+      <c r="AH3">
+        <f>(AF3-AG3)</f>
+        <v>17872</v>
+      </c>
+      <c r="AK3">
+        <v>28947</v>
+      </c>
+      <c r="AM3">
+        <f>(AK3-AL3)</f>
+        <v>28947</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>44400</v>
+      </c>
+      <c r="AP3">
+        <v>35499</v>
+      </c>
+      <c r="AQ3">
+        <v>30000</v>
+      </c>
+      <c r="AR3">
+        <f>(AP3-AQ3)</f>
+        <v>5499</v>
+      </c>
+      <c r="AU3">
+        <v>35737</v>
+      </c>
+      <c r="AV3">
+        <v>10000</v>
+      </c>
+      <c r="AW3">
+        <f>(AU3-AV3)</f>
+        <v>25737</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>44399</v>
+      </c>
+      <c r="AZ3">
+        <v>23310</v>
+      </c>
+      <c r="BB3">
+        <f>(AZ3-BA3)</f>
+        <v>23310</v>
+      </c>
+      <c r="BE3">
+        <v>8110</v>
+      </c>
+      <c r="BF3">
+        <v>1000</v>
+      </c>
+      <c r="BG3">
+        <f>(BE3-BF3)</f>
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <v>44399</v>
+      </c>
+      <c r="G4">
+        <v>28512</v>
+      </c>
+      <c r="I4">
+        <f>(G4-H4+I3)</f>
+        <v>57162</v>
+      </c>
       <c r="K4" s="1">
         <v>44399</v>
       </c>
+      <c r="L4">
+        <v>18461</v>
+      </c>
+      <c r="N4">
+        <f>(L4-M4+N3)</f>
+        <v>34758</v>
+      </c>
+      <c r="AV4">
+        <v>10000</v>
+      </c>
+      <c r="AW4">
+        <f>(AW3+AU4-AV4)</f>
+        <v>15737</v>
+      </c>
+      <c r="AY4" s="1"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="F5" s="1">
+        <v>44400</v>
+      </c>
+      <c r="G5">
+        <v>18790</v>
+      </c>
+      <c r="I5">
+        <f>(G5-H5+I4)</f>
+        <v>75952</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44400</v>
+      </c>
+      <c r="L5">
+        <v>22000</v>
+      </c>
+      <c r="M5">
+        <v>15000</v>
+      </c>
+      <c r="N5">
+        <f>(L5-M5+N4)</f>
+        <v>41758</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32617,10 +33077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781AA57-6247-4A4F-9752-70CC607DC978}">
-  <dimension ref="A1:AK89"/>
+  <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView topLeftCell="A73" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32637,6 +33097,9 @@
     <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.26953125" bestFit="1" customWidth="1"/>
@@ -32646,21 +33109,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -32668,22 +33131,22 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>42</v>
@@ -32692,7 +33155,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>42</v>
@@ -32701,7 +33164,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>42</v>
@@ -32710,7 +33173,7 @@
         <v>40</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>42</v>
@@ -32719,7 +33182,7 @@
         <v>40</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V3" s="25" t="s">
         <v>42</v>
@@ -32728,24 +33191,24 @@
         <v>40</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="25" t="s">
         <v>42</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6">
         <v>511</v>
@@ -32763,7 +33226,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6">
         <v>304</v>
@@ -32781,7 +33244,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="6">
         <v>685</v>
@@ -32799,7 +33262,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="6">
         <v>1892</v>
@@ -32817,7 +33280,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="6">
         <v>1264</v>
@@ -32833,12 +33296,12 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9:E9" si="0">SUM(B4:B8)</f>
@@ -32858,7 +33321,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -32869,49 +33332,49 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="H12" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
       <c r="Z12" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -32919,7 +33382,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>42</v>
@@ -32928,7 +33391,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>42</v>
@@ -32937,7 +33400,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>42</v>
@@ -32946,7 +33409,7 @@
         <v>40</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>42</v>
@@ -32955,7 +33418,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>42</v>
@@ -32964,7 +33427,7 @@
         <v>40</v>
       </c>
       <c r="X13" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="25" t="s">
         <v>42</v>
@@ -32972,7 +33435,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="6">
         <v>2808</v>
@@ -32996,7 +33459,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="6">
         <v>2264</v>
@@ -33020,7 +33483,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="6">
         <v>3201</v>
@@ -33047,7 +33510,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="6">
         <v>4823</v>
@@ -33077,7 +33540,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="6">
         <v>4813</v>
@@ -33104,7 +33567,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" s="6">
         <v>2606</v>
@@ -33125,7 +33588,7 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ref="B20:E20" si="1">SUM(B14:B19)</f>
@@ -33145,7 +33608,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2">
         <f>SUM(H14:H19)</f>
@@ -33176,68 +33639,68 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39" t="s">
+      <c r="H24" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39" t="s">
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
     </row>
     <row r="25" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>42</v>
@@ -33246,7 +33709,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>42</v>
@@ -33255,7 +33718,7 @@
         <v>40</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>42</v>
@@ -33264,7 +33727,7 @@
         <v>40</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S25" s="13" t="s">
         <v>42</v>
@@ -33273,7 +33736,7 @@
         <v>40</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V25" s="13" t="s">
         <v>42</v>
@@ -33282,7 +33745,7 @@
         <v>40</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y25" s="13" t="s">
         <v>42</v>
@@ -33291,7 +33754,7 @@
         <v>40</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB25" s="13" t="s">
         <v>42</v>
@@ -33300,7 +33763,7 @@
         <v>40</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE25" s="13" t="s">
         <v>42</v>
@@ -33309,24 +33772,24 @@
         <v>40</v>
       </c>
       <c r="AG25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH25" s="13" t="s">
         <v>42</v>
       </c>
       <c r="AI25" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ25" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK25" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26" s="6">
         <v>4494</v>
@@ -33356,7 +33819,7 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="6">
         <v>2446</v>
@@ -33383,7 +33846,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="6">
         <v>2109</v>
@@ -33410,7 +33873,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="6">
         <v>1900</v>
@@ -33440,7 +33903,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" s="6">
         <v>2804</v>
@@ -33473,7 +33936,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="6">
         <v>3193</v>
@@ -33506,7 +33969,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ref="B32:E32" si="2">SUM(B26:B31)</f>
@@ -33526,7 +33989,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="2">
         <v>275</v>
@@ -33565,53 +34028,53 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
+      <c r="H36" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H37" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>42</v>
@@ -33620,7 +34083,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>42</v>
@@ -33629,7 +34092,7 @@
         <v>40</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>42</v>
@@ -33638,7 +34101,7 @@
         <v>40</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>42</v>
@@ -33647,7 +34110,7 @@
         <v>40</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V37" s="13" t="s">
         <v>42</v>
@@ -33656,24 +34119,24 @@
         <v>40</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y37" s="13" t="s">
         <v>42</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38" s="6">
         <v>3121</v>
@@ -33700,7 +34163,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B39" s="6">
         <v>2291</v>
@@ -33724,7 +34187,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B40" s="6">
         <v>5027</v>
@@ -33751,7 +34214,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B41" s="6">
         <v>834</v>
@@ -33778,7 +34241,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B42" s="6">
         <v>1544</v>
@@ -33802,7 +34265,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B43" s="6">
         <v>1827</v>
@@ -33826,7 +34289,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ref="B44:E44" si="3">SUM(B38:B43)</f>
@@ -33846,7 +34309,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="2">
         <v>375</v>
@@ -33875,33 +34338,33 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H49" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>42</v>
@@ -33910,24 +34373,24 @@
         <v>40</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B50" s="6">
         <v>3859</v>
@@ -33951,7 +34414,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B51" s="6">
         <v>1909</v>
@@ -33975,7 +34438,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B52" s="6">
         <v>2981</v>
@@ -33999,7 +34462,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B53" s="6">
         <v>1829</v>
@@ -34023,7 +34486,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B54" s="6">
         <v>2560</v>
@@ -34047,7 +34510,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B55" s="6">
         <v>902</v>
@@ -34071,7 +34534,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" ref="B56:E56" si="4">SUM(B50:B55)</f>
@@ -34091,7 +34554,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H56" s="2">
         <f>SUM(H50:H55)</f>
@@ -34108,38 +34571,38 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39" t="s">
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -34148,7 +34611,7 @@
         <v>40</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>42</v>
@@ -34157,24 +34620,24 @@
         <v>40</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B62" s="6">
         <v>4038</v>
@@ -34198,7 +34661,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B63" s="6">
         <v>2394</v>
@@ -34222,7 +34685,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B64" s="6">
         <v>2329</v>
@@ -34246,7 +34709,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B65" s="6">
         <v>2979</v>
@@ -34273,7 +34736,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B66" s="6">
         <v>3283</v>
@@ -34297,7 +34760,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B67" s="6">
         <v>1253</v>
@@ -34321,7 +34784,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" ref="B68:E68" si="5">SUM(B62:B67)</f>
@@ -34341,7 +34804,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" s="2">
         <f>SUM(H62:H67)</f>
@@ -34361,38 +34824,38 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H72" s="38" t="s">
+      <c r="H72" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38" t="s">
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
     </row>
     <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>42</v>
@@ -34401,7 +34864,7 @@
         <v>40</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>42</v>
@@ -34410,19 +34873,19 @@
         <v>40</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -34598,7 +35061,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" ref="B80:E80" si="6">SUM(B74:B79)</f>
@@ -34618,7 +35081,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H80" s="2">
         <f>SUM(H74:H79)</f>
@@ -34643,9 +35106,9 @@
         <v>345594</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H81" s="6">
         <v>3340</v>
@@ -34687,9 +35150,9 @@
         <v>407790</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H82">
         <f>($H$80-$H$81)</f>
@@ -34716,35 +35179,35 @@
         <v>-62196</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H84" s="38" t="s">
+    <row r="83" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H84" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-    </row>
-    <row r="85" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+    </row>
+    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>42</v>
@@ -34753,7 +35216,7 @@
         <v>40</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>42</v>
@@ -34762,7 +35225,7 @@
         <v>40</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>42</v>
@@ -34771,15 +35234,24 @@
         <v>40</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" s="8">
         <v>6202</v>
@@ -34793,16 +35265,22 @@
       <c r="E86">
         <v>164057.1</v>
       </c>
-      <c r="H86">
-        <v>1742</v>
-      </c>
-      <c r="K86">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="B87">
+        <v>6901</v>
+      </c>
+      <c r="C87">
+        <v>28042</v>
+      </c>
+      <c r="D87">
+        <v>25004</v>
+      </c>
+      <c r="E87">
+        <v>195360</v>
       </c>
       <c r="N87">
         <v>648</v>
@@ -34823,7 +35301,10 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
       <c r="N88">
         <v>867</v>
       </c>
@@ -34843,32 +35324,171 @@
         <v>39165</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
+        <v>233</v>
+      </c>
+      <c r="B89">
+        <v>4037</v>
+      </c>
+      <c r="C89">
+        <v>15820</v>
+      </c>
+      <c r="D89">
+        <v>14085</v>
+      </c>
+      <c r="E89">
+        <v>98036.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>4897</v>
+      </c>
+      <c r="I91">
+        <v>21752</v>
+      </c>
+      <c r="J91">
+        <v>128380</v>
+      </c>
+      <c r="K91">
+        <v>7686</v>
+      </c>
+      <c r="L91">
+        <v>29738</v>
+      </c>
+      <c r="M91">
+        <v>219394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92">
+        <v>456</v>
+      </c>
+      <c r="L92">
+        <v>1931</v>
+      </c>
+      <c r="M92">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="2">
+        <f>SUM(B86:B89)</f>
+        <v>17140</v>
+      </c>
+      <c r="C93" s="2">
+        <f>SUM(C86:C89)</f>
+        <v>71628</v>
+      </c>
+      <c r="D93" s="2">
+        <f>SUM(D86:D89)</f>
+        <v>63327</v>
+      </c>
+      <c r="E93" s="2">
+        <f>SUM(E86:E89)</f>
+        <v>457453.39999999997</v>
+      </c>
+      <c r="F93" s="2">
+        <f>(E93/D93)</f>
+        <v>7.2236707881314439</v>
+      </c>
+      <c r="H93" s="2">
+        <v>4897</v>
+      </c>
+      <c r="I93" s="2">
+        <v>21752</v>
+      </c>
+      <c r="J93" s="2">
+        <v>128380</v>
+      </c>
+      <c r="K93" s="2">
+        <f>SUM(K91:K92)</f>
+        <v>8142</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" ref="L93:M93" si="7">SUM(L91:L92)</f>
+        <v>31669</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="7"/>
+        <v>239144</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" ref="N93:S93" si="8">SUM(N87:N92)</f>
+        <v>1515</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="8"/>
+        <v>6021</v>
+      </c>
+      <c r="P93" s="2">
+        <f t="shared" si="8"/>
+        <v>56420</v>
+      </c>
+      <c r="Q93" s="2">
+        <f t="shared" si="8"/>
+        <v>2684</v>
+      </c>
+      <c r="R93" s="2">
+        <f t="shared" si="8"/>
+        <v>10390</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" si="8"/>
+        <v>95775</v>
+      </c>
+      <c r="T93" s="2">
+        <f>(H93+K93+N93+Q93)</f>
+        <v>17238</v>
+      </c>
+      <c r="U93" s="2">
+        <f>(I93+L93+O93+R93)</f>
+        <v>69832</v>
+      </c>
+      <c r="V93" s="2">
+        <f>(J93+M93+P93+S93)</f>
+        <v>519719</v>
+      </c>
+      <c r="W93">
+        <f>(V93/U93)</f>
+        <v>7.4424189483331427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+    </row>
+    <row r="95" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="Q12:S12"/>
@@ -34885,6 +35505,25 @@
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="N84:P84"/>
     <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34893,135 +35532,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2">
-        <v>750</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2">
-        <v>9350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>4500</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3">
-        <v>750</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3">
-        <v>14407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="I3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4">
+        <v>4500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="4">
+        <v>44400</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9">
         <v>200</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>750</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>14260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10">
+        <v>750</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>11723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="F11">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F12">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="8">
+        <v>950</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="8">
+        <v>200</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="8">
+        <v>200</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20">
+        <v>250</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C30" s="2">
+        <f>SUM(C9:C29)</f>
+        <v>4450</v>
+      </c>
+      <c r="F30" s="2">
+        <f>SUM(F9:F29)</f>
+        <v>6200</v>
+      </c>
+      <c r="I30" s="2">
+        <f>SUM(I9:I29)</f>
+        <v>25983</v>
+      </c>
+      <c r="J30" s="2">
+        <f>(C30+F30+I30)</f>
+        <v>36633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35035,7 +35956,7 @@
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35736,7 +36657,19 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J35" s="2"/>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>5500</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35">
+        <f>(H35-G35)</f>
+        <v>5500</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
@@ -35773,10 +36706,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -36236,7 +37169,7 @@
         <v>44384</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -36326,7 +37259,7 @@
         <v>44387</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -36382,7 +37315,7 @@
         <v>44390</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -36396,7 +37329,7 @@
         <v>44391</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
@@ -36441,7 +37374,7 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <v>70000</v>
@@ -36494,7 +37427,7 @@
         <v>44394</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -36546,13 +37479,13 @@
         <v>44336</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -36563,13 +37496,13 @@
         <v>44344</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -36580,7 +37513,7 @@
         <v>44348</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -36594,7 +37527,7 @@
         <v>44351</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -36608,7 +37541,7 @@
         <v>44351</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -36622,7 +37555,7 @@
         <v>44354</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -36639,13 +37572,13 @@
         <v>44354</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>5000</v>
@@ -36656,7 +37589,7 @@
         <v>44355</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -36673,7 +37606,7 @@
         <v>44356</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -36687,7 +37620,7 @@
         <v>44356</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -36701,7 +37634,7 @@
         <v>44357</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -36718,13 +37651,13 @@
         <v>44357</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>5000</v>
@@ -36735,7 +37668,7 @@
         <v>44358</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
@@ -36749,13 +37682,13 @@
         <v>44358</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -36766,7 +37699,7 @@
         <v>44358</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -36783,7 +37716,7 @@
         <v>44359</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -36797,7 +37730,7 @@
         <v>44361</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -36811,7 +37744,7 @@
         <v>44362</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -36825,7 +37758,7 @@
         <v>44363</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -36839,7 +37772,7 @@
         <v>44364</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -36853,7 +37786,7 @@
         <v>44365</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -36867,7 +37800,7 @@
         <v>44366</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -36881,7 +37814,7 @@
         <v>44368</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -36895,7 +37828,7 @@
         <v>44369</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -36909,7 +37842,7 @@
         <v>44369</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -36923,7 +37856,7 @@
         <v>44369</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -36937,7 +37870,7 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -36951,7 +37884,7 @@
         <v>44372</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -36965,7 +37898,7 @@
         <v>44373</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -36979,7 +37912,7 @@
         <v>44373</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -36993,7 +37926,7 @@
         <v>44375</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -37007,7 +37940,7 @@
         <v>44376</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -37021,7 +37954,7 @@
         <v>44377</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -37035,7 +37968,7 @@
         <v>44378</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -37049,7 +37982,7 @@
         <v>44379</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -37063,7 +37996,7 @@
         <v>44380</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -37077,7 +38010,7 @@
         <v>44382</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -37091,7 +38024,7 @@
         <v>44383</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -37105,7 +38038,7 @@
         <v>44383</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
@@ -37119,7 +38052,7 @@
         <v>44384</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -37133,7 +38066,7 @@
         <v>44385</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
@@ -37147,7 +38080,7 @@
         <v>44385</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -37161,7 +38094,7 @@
         <v>44386</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -37175,7 +38108,7 @@
         <v>44387</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -37189,7 +38122,7 @@
         <v>44389</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -37203,7 +38136,7 @@
         <v>44389</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -37217,7 +38150,7 @@
         <v>44390</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -37231,7 +38164,7 @@
         <v>44391</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -37245,13 +38178,13 @@
         <v>44392</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50">
         <v>12000</v>
@@ -37262,7 +38195,7 @@
         <v>44393</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -37276,7 +38209,7 @@
         <v>44394</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
@@ -37326,7 +38259,7 @@
         <v>44333</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -37340,7 +38273,7 @@
         <v>44336</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -37354,7 +38287,7 @@
         <v>44336</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -37368,7 +38301,7 @@
         <v>44344</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -37382,7 +38315,7 @@
         <v>44351</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -37396,7 +38329,7 @@
         <v>44354</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -37410,7 +38343,7 @@
         <v>44357</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -37424,7 +38357,7 @@
         <v>44362</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -37438,7 +38371,7 @@
         <v>44364</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -37452,7 +38385,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -37466,7 +38399,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -37480,7 +38413,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B3183-432F-4628-BFC1-F3F3642624F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF11AA-2303-49F5-9C82-80D204606329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="1" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="271">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -774,12 +774,6 @@
     <t>Genel Toplam</t>
   </si>
   <si>
-    <t>Değişen Toplam</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
     <t>Ünalberk</t>
   </si>
   <si>
@@ -841,6 +835,27 @@
   </si>
   <si>
     <t>ÖDEME</t>
+  </si>
+  <si>
+    <t>Sinan Küçükzeybek</t>
+  </si>
+  <si>
+    <t>25.7.2021/PAZAR</t>
+  </si>
+  <si>
+    <t>Ali Durmaz</t>
+  </si>
+  <si>
+    <t>Sedat Ektiren</t>
+  </si>
+  <si>
+    <t>ALİ DURMAZ</t>
+  </si>
+  <si>
+    <t>SEDAT EKTİREN</t>
+  </si>
+  <si>
+    <t>HAFTALIK TOPLAM</t>
   </si>
 </sst>
 </file>
@@ -1042,28 +1057,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1075,15 +1089,16 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1092,10 +1107,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1412,13 +1427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BQ408"/>
+  <dimension ref="A1:BQ419"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B376" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O393" sqref="O393"/>
+      <selection pane="bottomRight" activeCell="BP418" sqref="BP418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,6 +1441,7 @@
     <col min="1" max="1" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.36328125" bestFit="1" customWidth="1"/>
@@ -1487,90 +1503,90 @@
         <v>171</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="31" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="30" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="37" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="36" t="s">
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="31" t="s">
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="32" t="s">
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="33" t="s">
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="34" t="s">
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
@@ -32181,7 +32197,7 @@
         <v>163</v>
       </c>
       <c r="C394" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D394">
         <v>783</v>
@@ -32321,7 +32337,7 @@
         <v>18862.5</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>233</v>
       </c>
@@ -32349,7 +32365,7 @@
         <v>21997.8</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>233</v>
       </c>
@@ -32377,7 +32393,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>233</v>
       </c>
@@ -32405,7 +32421,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>233</v>
       </c>
@@ -32436,7 +32452,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>233</v>
       </c>
@@ -32464,7 +32480,7 @@
         <v>24786</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>233</v>
       </c>
@@ -32492,7 +32508,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B407" s="2" t="s">
         <v>17</v>
       </c>
@@ -32518,7 +32534,7 @@
         <v>98036.3</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B408" s="2" t="s">
         <v>18</v>
       </c>
@@ -32527,13 +32543,258 @@
         <v>6.8442857142857134</v>
       </c>
     </row>
+    <row r="409" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="10"/>
+    </row>
+    <row r="411" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A411" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B411" t="s">
+        <v>264</v>
+      </c>
+      <c r="D411">
+        <v>486</v>
+      </c>
+      <c r="E411">
+        <v>1860</v>
+      </c>
+      <c r="F411">
+        <v>240</v>
+      </c>
+      <c r="G411">
+        <f t="shared" ref="G411:G417" si="89">(E411-F411)</f>
+        <v>1620</v>
+      </c>
+      <c r="H411">
+        <v>7.22</v>
+      </c>
+      <c r="I411">
+        <f t="shared" ref="I411:I417" si="90">(G411*H411)</f>
+        <v>11696.4</v>
+      </c>
+      <c r="BD411">
+        <v>481</v>
+      </c>
+      <c r="BH411">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="412" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A412" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B412" t="s">
+        <v>266</v>
+      </c>
+      <c r="D412">
+        <v>48</v>
+      </c>
+      <c r="E412">
+        <v>280</v>
+      </c>
+      <c r="F412">
+        <v>48</v>
+      </c>
+      <c r="G412">
+        <f t="shared" si="89"/>
+        <v>232</v>
+      </c>
+      <c r="H412">
+        <v>7</v>
+      </c>
+      <c r="I412">
+        <f t="shared" si="90"/>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="413" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A413" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B413" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413">
+        <v>281</v>
+      </c>
+      <c r="E413">
+        <v>1860</v>
+      </c>
+      <c r="F413">
+        <v>281</v>
+      </c>
+      <c r="G413">
+        <f t="shared" si="89"/>
+        <v>1579</v>
+      </c>
+      <c r="H413">
+        <v>7.5</v>
+      </c>
+      <c r="I413">
+        <f t="shared" si="90"/>
+        <v>11842.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A414" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B414" t="s">
+        <v>267</v>
+      </c>
+      <c r="D414">
+        <v>759</v>
+      </c>
+      <c r="E414">
+        <v>3300</v>
+      </c>
+      <c r="F414">
+        <v>300</v>
+      </c>
+      <c r="G414">
+        <f t="shared" si="89"/>
+        <v>3000</v>
+      </c>
+      <c r="H414">
+        <v>7.3</v>
+      </c>
+      <c r="I414">
+        <f t="shared" si="90"/>
+        <v>21900</v>
+      </c>
+    </row>
+    <row r="415" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A415" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B415" t="s">
+        <v>124</v>
+      </c>
+      <c r="D415">
+        <v>172</v>
+      </c>
+      <c r="E415">
+        <v>800</v>
+      </c>
+      <c r="F415">
+        <v>70</v>
+      </c>
+      <c r="G415">
+        <f t="shared" si="89"/>
+        <v>730</v>
+      </c>
+      <c r="H415">
+        <v>7.5</v>
+      </c>
+      <c r="I415">
+        <f t="shared" si="90"/>
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="416" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A416" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B416" t="s">
+        <v>124</v>
+      </c>
+      <c r="D416">
+        <v>90</v>
+      </c>
+      <c r="E416">
+        <v>600</v>
+      </c>
+      <c r="F416">
+        <v>40</v>
+      </c>
+      <c r="G416">
+        <f t="shared" si="89"/>
+        <v>560</v>
+      </c>
+      <c r="H416">
+        <v>6</v>
+      </c>
+      <c r="I416">
+        <f t="shared" si="90"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="417" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A417" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417">
+        <v>591</v>
+      </c>
+      <c r="E417">
+        <v>2360</v>
+      </c>
+      <c r="F417">
+        <v>240</v>
+      </c>
+      <c r="G417">
+        <f t="shared" si="89"/>
+        <v>2120</v>
+      </c>
+      <c r="H417" s="6">
+        <v>7.27</v>
+      </c>
+      <c r="I417">
+        <f t="shared" si="90"/>
+        <v>15412.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="B418" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D418" s="2">
+        <f t="shared" ref="D418:I418" si="91">SUM(D411:D417)</f>
+        <v>2427</v>
+      </c>
+      <c r="E418" s="2">
+        <f t="shared" si="91"/>
+        <v>11060</v>
+      </c>
+      <c r="F418" s="2">
+        <f t="shared" si="91"/>
+        <v>1219</v>
+      </c>
+      <c r="G418" s="2">
+        <f t="shared" si="91"/>
+        <v>9841</v>
+      </c>
+      <c r="H418" s="2"/>
+      <c r="I418" s="2">
+        <f t="shared" si="91"/>
+        <v>71310.3</v>
+      </c>
+      <c r="BD418" s="2">
+        <v>481</v>
+      </c>
+      <c r="BH418" s="2">
+        <v>1940</v>
+      </c>
+      <c r="BP418" s="2">
+        <f>(BD418+BH418)</f>
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="419" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="B419" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H419" s="2">
+        <f>AVERAGE(H411:H417)</f>
+        <v>7.1128571428571421</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -32543,6 +32804,11 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32625,14 +32891,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:BL6"/>
+  <dimension ref="A1:BQ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="BH1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
@@ -32642,97 +32909,108 @@
     <col min="46" max="46" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="28"/>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="42" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="27"/>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="U1" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Z1" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="U1" s="39" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AE1" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Z1" s="34" t="s">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AJ1" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AO1" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AJ1" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AO1" s="45" t="s">
-        <v>260</v>
       </c>
       <c r="AP1" s="45"/>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AT1" s="46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AU1" s="46"/>
       <c r="AV1" s="46"/>
       <c r="AW1" s="46"/>
-      <c r="AY1" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BD1" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-    </row>
-    <row r="2" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AY1" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BD1" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BI1" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BN1" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+    </row>
+    <row r="2" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>234</v>
@@ -32741,10 +33019,10 @@
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>234</v>
@@ -32753,10 +33031,10 @@
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>234</v>
@@ -32765,10 +33043,10 @@
         <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>234</v>
@@ -32777,10 +33055,10 @@
         <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>234</v>
@@ -32789,10 +33067,10 @@
         <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>234</v>
@@ -32801,10 +33079,10 @@
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>234</v>
@@ -32813,10 +33091,10 @@
         <v>59</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>234</v>
@@ -32825,10 +33103,10 @@
         <v>59</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>234</v>
@@ -32837,10 +33115,10 @@
         <v>59</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>234</v>
@@ -32849,10 +33127,10 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>234</v>
@@ -32861,16 +33139,40 @@
         <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BI2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>38000</v>
       </c>
@@ -32995,8 +33297,41 @@
         <f>(BE3-BF3)</f>
         <v>7110</v>
       </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BI3" s="1">
+        <v>44402</v>
+      </c>
+      <c r="BJ3">
+        <v>1624</v>
+      </c>
+      <c r="BL3">
+        <f>(BJ3-BK3)</f>
+        <v>1624</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>44402</v>
+      </c>
+      <c r="BO3">
+        <v>21925</v>
+      </c>
+      <c r="BQ3">
+        <f>(BO3-BP3)</f>
+        <v>21925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B4">
+        <v>15400</v>
+      </c>
+      <c r="C4">
+        <v>33000</v>
+      </c>
+      <c r="D4">
+        <f>(B4-C4+D3)</f>
+        <v>20400</v>
+      </c>
       <c r="F4" s="1">
         <v>44399</v>
       </c>
@@ -33026,7 +33361,7 @@
       </c>
       <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
       <c r="F5" s="1">
         <v>44400</v>
       </c>
@@ -33052,24 +33387,47 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="F6" s="1">
+        <v>44402</v>
+      </c>
+      <c r="G6">
+        <v>11840</v>
+      </c>
+      <c r="I6">
+        <f>(G6-H6+I5)</f>
+        <v>87792</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44402</v>
+      </c>
+      <c r="L6">
+        <v>8835</v>
+      </c>
+      <c r="M6">
+        <v>19500</v>
+      </c>
+      <c r="N6">
+        <f>(L6-M6+N5)</f>
+        <v>31093</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BI1:BL1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33077,10 +33435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781AA57-6247-4A4F-9752-70CC607DC978}">
-  <dimension ref="A1:AK95"/>
+  <dimension ref="A1:AK98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33109,21 +33467,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -33337,36 +33695,36 @@
     </row>
     <row r="11" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29" t="s">
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29" t="s">
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29" t="s">
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
       <c r="Z12" s="25" t="s">
         <v>82</v>
       </c>
@@ -33649,51 +34007,51 @@
     </row>
     <row r="23" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40" t="s">
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40" t="s">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40" t="s">
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40" t="s">
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40" t="s">
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40" t="s">
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40" t="s">
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
     </row>
     <row r="25" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="13" t="s">
@@ -34038,36 +34396,36 @@
     </row>
     <row r="35" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40" t="s">
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40" t="s">
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40" t="s">
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40" t="s">
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
     </row>
     <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H37" s="13" t="s">
@@ -34348,16 +34706,16 @@
     </row>
     <row r="47" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29" t="s">
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H49" s="2" t="s">
@@ -34581,21 +34939,21 @@
     </row>
     <row r="59" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="40" t="s">
+      <c r="H60" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40" t="s">
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40" t="s">
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H61" s="2" t="s">
@@ -34834,21 +35192,21 @@
     </row>
     <row r="71" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29" t="s">
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29" t="s">
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
     </row>
     <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
@@ -35106,7 +35464,7 @@
         <v>345594</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
         <v>95</v>
       </c>
@@ -35150,7 +35508,7 @@
         <v>407790</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
         <v>96</v>
       </c>
@@ -35179,30 +35537,30 @@
         <v>-62196</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H84" s="29" t="s">
+    <row r="83" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H84" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29" t="s">
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29" t="s">
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29" t="s">
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-    </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+    </row>
+    <row r="85" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
         <v>40</v>
       </c>
@@ -35249,7 +35607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -35266,7 +35624,7 @@
         <v>164057.1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -35301,7 +35659,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -35324,7 +35682,7 @@
         <v>39165</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>233</v>
       </c>
@@ -35341,12 +35699,12 @@
         <v>98036.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G91" t="s">
         <v>9</v>
       </c>
@@ -35369,7 +35727,7 @@
         <v>219394</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G92" t="s">
         <v>36</v>
       </c>
@@ -35383,7 +35741,7 @@
         <v>19750</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -35464,12 +35822,8 @@
         <f>(J93+M93+P93+S93)</f>
         <v>519719</v>
       </c>
-      <c r="W93">
-        <f>(V93/U93)</f>
-        <v>7.4424189483331427</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -35486,9 +35840,85 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H96" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+    </row>
+    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98">
+        <v>2427</v>
+      </c>
+      <c r="C98">
+        <v>11060</v>
+      </c>
+      <c r="D98">
+        <v>9841</v>
+      </c>
+      <c r="E98">
+        <v>71310.3</v>
+      </c>
+      <c r="H98">
+        <v>481</v>
+      </c>
+      <c r="K98">
+        <v>1940</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="Q12:S12"/>
@@ -35505,25 +35935,6 @@
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="N84:P84"/>
     <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35532,10 +35943,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35568,16 +35980,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>44393</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="B3" t="s">
         <v>137</v>
       </c>
@@ -35594,11 +36009,16 @@
         <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
@@ -35619,6 +36039,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="B5" t="s">
         <v>130</v>
       </c>
@@ -35633,8 +36056,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6">
         <v>1200</v>
@@ -35646,41 +36072,37 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="C7" s="2">
+        <f>SUM(C3:C6)</f>
+        <v>4800</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(F3:F6)</f>
+        <v>9000</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUM(I4:I6)</f>
+        <v>28162</v>
+      </c>
+      <c r="J7" s="2">
+        <f>(C7+F7+I7)</f>
+        <v>41962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="4">
         <v>44400</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9">
-        <v>750</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9">
-        <v>14260</v>
+      <c r="I9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -35688,22 +36110,22 @@
         <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10">
         <v>750</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I10">
-        <v>11723</v>
+        <v>14260</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -35711,16 +36133,22 @@
         <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>750</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>11723</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -35728,7 +36156,7 @@
         <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -35737,41 +36165,46 @@
         <v>45</v>
       </c>
       <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
         <v>700</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="8">
         <v>950</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="8">
-        <v>200</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
         <v>250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>253</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -35779,7 +36212,15 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="8">
+        <v>200</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -35787,34 +36228,21 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19">
-        <v>250</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19">
-        <v>750</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <v>750</v>
@@ -35825,10 +36253,16 @@
         <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="C21">
         <v>250</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21">
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -35836,7 +36270,7 @@
         <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>250</v>
@@ -35847,7 +36281,7 @@
         <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -35858,44 +36292,38 @@
         <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C24">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26">
-        <v>200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26">
-        <v>750</v>
-      </c>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27">
         <v>750</v>
@@ -35906,10 +36334,16 @@
         <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="C28">
         <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28">
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -35917,32 +36351,93 @@
         <v>233</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C29">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C30" s="2">
-        <f>SUM(C9:C29)</f>
+      <c r="A30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="2">
+        <f>SUM(C10:C30)</f>
         <v>4450</v>
       </c>
-      <c r="F30" s="2">
-        <f>SUM(F9:F29)</f>
+      <c r="F31" s="2">
+        <f>SUM(F10:F30)</f>
         <v>6200</v>
       </c>
-      <c r="I30" s="2">
-        <f>SUM(I9:I29)</f>
+      <c r="I31" s="2">
+        <f>SUM(I10:I30)</f>
         <v>25983</v>
       </c>
-      <c r="J30" s="2">
-        <f>(C30+F30+I30)</f>
+      <c r="J31" s="2">
+        <f>(C31+F31+I31)</f>
         <v>36633</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
+    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF11AA-2303-49F5-9C82-80D204606329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D5035-F0A0-4E2E-B5C4-849DE436B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="277">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -813,9 +813,6 @@
     <t>HÜSEYİN ADSIZ</t>
   </si>
   <si>
-    <t>GÜLTEKİN EKİNCİ</t>
-  </si>
-  <si>
     <t>ŞABAN OK</t>
   </si>
   <si>
@@ -856,6 +853,27 @@
   </si>
   <si>
     <t>HAFTALIK TOPLAM</t>
+  </si>
+  <si>
+    <t>GÜLTEKİN ÖZDEMİR</t>
+  </si>
+  <si>
+    <t>26.7.2021/PAZARTESİ</t>
+  </si>
+  <si>
+    <t>Sıtkı Adsız</t>
+  </si>
+  <si>
+    <t>CEMAL ŞİMŞEK</t>
+  </si>
+  <si>
+    <t>BAHATTİN ADSIZ</t>
+  </si>
+  <si>
+    <t>SALİH ELDEN</t>
+  </si>
+  <si>
+    <t>27.7.2021/SALI</t>
   </si>
 </sst>
 </file>
@@ -1059,22 +1077,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1089,22 +1101,28 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1427,13 +1445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BQ419"/>
+  <dimension ref="A1:BQ435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B395" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP418" sqref="BP418"/>
+      <selection pane="bottomRight" activeCell="J439" sqref="J439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,90 +1521,90 @@
         <v>171</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="36" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="40" t="s">
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="35" t="s">
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="34" t="s">
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="33" t="s">
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="37" t="s">
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="31" t="s">
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
@@ -32548,10 +32566,10 @@
     </row>
     <row r="411" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B411" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D411">
         <v>486</v>
@@ -32582,10 +32600,10 @@
     </row>
     <row r="412" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B412" t="s">
         <v>265</v>
-      </c>
-      <c r="B412" t="s">
-        <v>266</v>
       </c>
       <c r="D412">
         <v>48</v>
@@ -32610,7 +32628,7 @@
     </row>
     <row r="413" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B413" t="s">
         <v>14</v>
@@ -32638,10 +32656,10 @@
     </row>
     <row r="414" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B414" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D414">
         <v>759</v>
@@ -32666,7 +32684,7 @@
     </row>
     <row r="415" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B415" t="s">
         <v>124</v>
@@ -32694,7 +32712,7 @@
     </row>
     <row r="416" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B416" t="s">
         <v>124</v>
@@ -32722,7 +32740,7 @@
     </row>
     <row r="417" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B417" t="s">
         <v>8</v>
@@ -32793,8 +32811,463 @@
         <v>7.1128571428571421</v>
       </c>
     </row>
+    <row r="420" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="10"/>
+    </row>
+    <row r="422" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A422" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B422" t="s">
+        <v>149</v>
+      </c>
+      <c r="C422" t="s">
+        <v>9</v>
+      </c>
+      <c r="D422">
+        <v>430</v>
+      </c>
+      <c r="E422">
+        <v>1520</v>
+      </c>
+      <c r="F422">
+        <v>180</v>
+      </c>
+      <c r="G422">
+        <f t="shared" ref="G422:G433" si="92">(E422-F422)</f>
+        <v>1340</v>
+      </c>
+      <c r="H422">
+        <v>6.71</v>
+      </c>
+      <c r="I422">
+        <f t="shared" ref="I422:I433" si="93">(G422*H422)</f>
+        <v>8991.4</v>
+      </c>
+      <c r="BD422">
+        <v>578</v>
+      </c>
+      <c r="BF422" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH422">
+        <v>2784</v>
+      </c>
+      <c r="BJ422" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A423" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B423" t="s">
+        <v>28</v>
+      </c>
+      <c r="C423" t="s">
+        <v>9</v>
+      </c>
+      <c r="D423">
+        <v>1062</v>
+      </c>
+      <c r="E423">
+        <v>4280</v>
+      </c>
+      <c r="F423">
+        <v>430</v>
+      </c>
+      <c r="G423">
+        <f t="shared" si="92"/>
+        <v>3850</v>
+      </c>
+      <c r="H423">
+        <v>7.3</v>
+      </c>
+      <c r="I423">
+        <f t="shared" si="93"/>
+        <v>28105</v>
+      </c>
+      <c r="BD423">
+        <v>1048</v>
+      </c>
+      <c r="BF423" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH423">
+        <v>288</v>
+      </c>
+      <c r="BJ423" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="424" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A424" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424">
+        <v>40</v>
+      </c>
+      <c r="E424">
+        <v>140</v>
+      </c>
+      <c r="F424">
+        <v>20</v>
+      </c>
+      <c r="G424">
+        <f t="shared" si="92"/>
+        <v>120</v>
+      </c>
+      <c r="H424">
+        <v>4</v>
+      </c>
+      <c r="I424">
+        <f t="shared" si="93"/>
+        <v>480</v>
+      </c>
+      <c r="BH424" s="2"/>
+    </row>
+    <row r="425" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A425" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B425" t="s">
+        <v>26</v>
+      </c>
+      <c r="C425" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425">
+        <v>345</v>
+      </c>
+      <c r="E425">
+        <v>2220</v>
+      </c>
+      <c r="F425">
+        <v>320</v>
+      </c>
+      <c r="G425">
+        <f t="shared" si="92"/>
+        <v>1900</v>
+      </c>
+      <c r="H425">
+        <v>7.36</v>
+      </c>
+      <c r="I425">
+        <f t="shared" si="93"/>
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="426" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A426" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B426" t="s">
+        <v>124</v>
+      </c>
+      <c r="C426" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426">
+        <v>114</v>
+      </c>
+      <c r="E426">
+        <v>440</v>
+      </c>
+      <c r="F426">
+        <v>50</v>
+      </c>
+      <c r="G426">
+        <f t="shared" si="92"/>
+        <v>390</v>
+      </c>
+      <c r="H426">
+        <v>5</v>
+      </c>
+      <c r="I426">
+        <f t="shared" si="93"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="427" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A427" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B427" t="s">
+        <v>229</v>
+      </c>
+      <c r="C427" t="s">
+        <v>36</v>
+      </c>
+      <c r="D427">
+        <v>640</v>
+      </c>
+      <c r="E427">
+        <v>2680</v>
+      </c>
+      <c r="F427">
+        <v>256</v>
+      </c>
+      <c r="G427">
+        <f t="shared" si="92"/>
+        <v>2424</v>
+      </c>
+      <c r="H427">
+        <v>8.83</v>
+      </c>
+      <c r="I427">
+        <f t="shared" si="93"/>
+        <v>21403.920000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A428" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B428" t="s">
+        <v>272</v>
+      </c>
+      <c r="C428" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428">
+        <v>440</v>
+      </c>
+      <c r="E428">
+        <v>1620</v>
+      </c>
+      <c r="F428">
+        <v>220</v>
+      </c>
+      <c r="G428">
+        <f t="shared" si="92"/>
+        <v>1400</v>
+      </c>
+      <c r="H428">
+        <v>6.75</v>
+      </c>
+      <c r="I428">
+        <f t="shared" si="93"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="429" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A429" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B429" t="s">
+        <v>266</v>
+      </c>
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429">
+        <v>722</v>
+      </c>
+      <c r="E429">
+        <v>2980</v>
+      </c>
+      <c r="F429">
+        <v>290</v>
+      </c>
+      <c r="G429">
+        <f t="shared" si="92"/>
+        <v>2690</v>
+      </c>
+      <c r="H429">
+        <v>7.35</v>
+      </c>
+      <c r="I429">
+        <f t="shared" si="93"/>
+        <v>19771.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A430" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B430" t="s">
+        <v>14</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430">
+        <v>112</v>
+      </c>
+      <c r="E430">
+        <v>600</v>
+      </c>
+      <c r="F430">
+        <v>112</v>
+      </c>
+      <c r="G430">
+        <f t="shared" si="92"/>
+        <v>488</v>
+      </c>
+      <c r="H430">
+        <v>6.75</v>
+      </c>
+      <c r="I430">
+        <f t="shared" si="93"/>
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="431" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A431" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B431" t="s">
+        <v>22</v>
+      </c>
+      <c r="C431" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431">
+        <v>57</v>
+      </c>
+      <c r="E431">
+        <v>240</v>
+      </c>
+      <c r="F431">
+        <v>30</v>
+      </c>
+      <c r="G431">
+        <f t="shared" si="92"/>
+        <v>210</v>
+      </c>
+      <c r="H431">
+        <v>5</v>
+      </c>
+      <c r="I431">
+        <f t="shared" si="93"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="432" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A432" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B432" t="s">
+        <v>15</v>
+      </c>
+      <c r="C432" t="s">
+        <v>9</v>
+      </c>
+      <c r="D432">
+        <v>510</v>
+      </c>
+      <c r="E432">
+        <v>2522</v>
+      </c>
+      <c r="F432">
+        <v>204</v>
+      </c>
+      <c r="G432">
+        <f t="shared" si="92"/>
+        <v>2318</v>
+      </c>
+      <c r="H432">
+        <v>7.5</v>
+      </c>
+      <c r="I432">
+        <f t="shared" si="93"/>
+        <v>17385</v>
+      </c>
+    </row>
+    <row r="433" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A433" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B433" t="s">
+        <v>15</v>
+      </c>
+      <c r="C433" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433">
+        <v>226</v>
+      </c>
+      <c r="E433">
+        <v>1117</v>
+      </c>
+      <c r="F433">
+        <v>90</v>
+      </c>
+      <c r="G433">
+        <f t="shared" si="92"/>
+        <v>1027</v>
+      </c>
+      <c r="H433">
+        <v>9</v>
+      </c>
+      <c r="I433">
+        <f t="shared" si="93"/>
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="434" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A434" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434" s="2">
+        <f t="shared" ref="D434:I434" si="94">SUM(D422:D433)</f>
+        <v>4698</v>
+      </c>
+      <c r="E434" s="2">
+        <f t="shared" si="94"/>
+        <v>20359</v>
+      </c>
+      <c r="F434" s="2">
+        <f t="shared" si="94"/>
+        <v>2202</v>
+      </c>
+      <c r="G434" s="2">
+        <f t="shared" si="94"/>
+        <v>18157</v>
+      </c>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2">
+        <f t="shared" si="94"/>
+        <v>135107.82</v>
+      </c>
+      <c r="BD434" s="2">
+        <f>SUM(BD422:BD433)</f>
+        <v>1626</v>
+      </c>
+      <c r="BH434" s="2">
+        <f>SUM(BH422:BH433)</f>
+        <v>3072</v>
+      </c>
+      <c r="BP434">
+        <f>(BD434+BH434)</f>
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="435" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="B435" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="2">
+        <f>AVERAGE(H422:H433)</f>
+        <v>6.7958333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -32804,11 +33277,6 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32891,10 +33359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:BQ6"/>
+  <dimension ref="A1:CF8"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="AE1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32905,112 +33373,134 @@
     <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="27"/>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="U1" s="40" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="U1" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="32" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AE1" s="44" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AE1" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AO1" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AT1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AY1" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AY1" s="42" t="s">
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BD1" s="43" t="s">
         <v>260</v>
-      </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BD1" s="43" t="s">
-        <v>261</v>
       </c>
       <c r="BE1" s="43"/>
       <c r="BF1" s="43"/>
       <c r="BG1" s="43"/>
-      <c r="BI1" s="34" t="s">
+      <c r="BI1" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BN1" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BN1" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-    </row>
-    <row r="2" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="31"/>
+      <c r="BQ1" s="31"/>
+      <c r="BS1" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BX1" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CC1" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+    </row>
+    <row r="2" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>234</v>
@@ -33019,10 +33509,10 @@
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>234</v>
@@ -33031,10 +33521,10 @@
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>234</v>
@@ -33043,10 +33533,10 @@
         <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>234</v>
@@ -33055,10 +33545,10 @@
         <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>234</v>
@@ -33067,10 +33557,10 @@
         <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>234</v>
@@ -33079,10 +33569,10 @@
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>234</v>
@@ -33091,10 +33581,10 @@
         <v>59</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>234</v>
@@ -33103,10 +33593,10 @@
         <v>59</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>234</v>
@@ -33115,10 +33605,10 @@
         <v>59</v>
       </c>
       <c r="AU2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>234</v>
@@ -33127,10 +33617,10 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>234</v>
@@ -33139,10 +33629,10 @@
         <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>234</v>
@@ -33151,10 +33641,10 @@
         <v>59</v>
       </c>
       <c r="BJ2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>234</v>
@@ -33163,16 +33653,52 @@
         <v>59</v>
       </c>
       <c r="BO2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BS2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>38000</v>
       </c>
@@ -33317,8 +33843,38 @@
         <f>(BO3-BP3)</f>
         <v>21925</v>
       </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BS3" s="1">
+        <v>44403</v>
+      </c>
+      <c r="BT3">
+        <v>1050</v>
+      </c>
+      <c r="BV3">
+        <f>(BT3-BU3)</f>
+        <v>1050</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>44403</v>
+      </c>
+      <c r="BY3">
+        <v>21396</v>
+      </c>
+      <c r="CA3">
+        <f>(BY3-BZ3)</f>
+        <v>21396</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>44403</v>
+      </c>
+      <c r="CD3">
+        <v>9000</v>
+      </c>
+      <c r="CF3">
+        <f>(CD3-CE3)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44402</v>
       </c>
@@ -33352,6 +33908,16 @@
         <f>(L4-M4+N3)</f>
         <v>34758</v>
       </c>
+      <c r="AJ4" s="1">
+        <v>44403</v>
+      </c>
+      <c r="AK4">
+        <v>26628</v>
+      </c>
+      <c r="AM4">
+        <f>(AK4-AL4+AM3)</f>
+        <v>55575</v>
+      </c>
       <c r="AV4">
         <v>10000</v>
       </c>
@@ -33360,8 +33926,31 @@
         <v>15737</v>
       </c>
       <c r="AY4" s="1"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BN4" s="1">
+        <v>44403</v>
+      </c>
+      <c r="BO4">
+        <v>19775</v>
+      </c>
+      <c r="BP4">
+        <v>18500</v>
+      </c>
+      <c r="BQ4">
+        <f>(BO4-BP4+BQ3)</f>
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <f>(B5-C5+D4)</f>
+        <v>20880</v>
+      </c>
       <c r="F5" s="1">
         <v>44400</v>
       </c>
@@ -33386,8 +33975,18 @@
         <v>41758</v>
       </c>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="AT5" s="1">
+        <v>44403</v>
+      </c>
+      <c r="AU5">
+        <v>28100</v>
+      </c>
+      <c r="AW5">
+        <f>(AW4+AU5-AV5)</f>
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.35">
       <c r="F6" s="1">
         <v>44402</v>
       </c>
@@ -33412,8 +34011,49 @@
         <v>31093</v>
       </c>
     </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <v>44403</v>
+      </c>
+      <c r="G7">
+        <v>3290</v>
+      </c>
+      <c r="H7">
+        <v>1400</v>
+      </c>
+      <c r="I7">
+        <f>(G7-H7+I6)</f>
+        <v>89682</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44403</v>
+      </c>
+      <c r="L7">
+        <v>14000</v>
+      </c>
+      <c r="N7">
+        <f>(L7-M7+N6)</f>
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.35">
+      <c r="K8" s="1">
+        <v>44403</v>
+      </c>
+      <c r="L8">
+        <v>1950</v>
+      </c>
+      <c r="N8">
+        <f>(L8-M8+N7)</f>
+        <v>47043</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="U1:X1"/>
@@ -33427,7 +34067,6 @@
     <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33435,10 +34074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781AA57-6247-4A4F-9752-70CC607DC978}">
-  <dimension ref="A1:AK98"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView topLeftCell="A67" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35875,7 +36514,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B98">
         <v>2427</v>
@@ -35896,8 +36535,52 @@
         <v>1940</v>
       </c>
     </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99">
+        <v>4698</v>
+      </c>
+      <c r="C99">
+        <v>20359</v>
+      </c>
+      <c r="D99">
+        <v>18157</v>
+      </c>
+      <c r="E99">
+        <v>135107.79999999999</v>
+      </c>
+      <c r="H99">
+        <v>1626</v>
+      </c>
+      <c r="K99">
+        <v>6144</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="K96:M96"/>
     <mergeCell ref="Z24:AB24"/>
@@ -35914,27 +36597,6 @@
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="T24:V24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="Q84:S84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35943,11 +36605,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36012,7 +36674,7 @@
         <v>247</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -36391,7 +37053,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -36408,7 +37070,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>130</v>
@@ -36419,7 +37081,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
         <v>249</v>
@@ -36430,13 +37092,74 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
         <v>251</v>
       </c>
       <c r="C36">
         <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -36450,7 +37173,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D5035-F0A0-4E2E-B5C4-849DE436B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520EBBBD-55B3-4E84-B1A8-163778D6E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
@@ -17,13 +17,16 @@
     <sheet name="CARİ" sheetId="21" r:id="rId2"/>
     <sheet name="BİLANÇOLAR" sheetId="20" r:id="rId3"/>
     <sheet name="PERSONEL_GİDER" sheetId="19" r:id="rId4"/>
-    <sheet name="KASA_ALIM" sheetId="2" r:id="rId5"/>
-    <sheet name="NOT" sheetId="16" r:id="rId6"/>
-    <sheet name="EGE_LİDER" sheetId="3" r:id="rId7"/>
-    <sheet name="ŞEKEROĞLU" sheetId="14" r:id="rId8"/>
-    <sheet name="SARIOĞLU" sheetId="15" r:id="rId9"/>
-    <sheet name="NOTLAR" sheetId="6" r:id="rId10"/>
+    <sheet name="ELDORADO" sheetId="22" r:id="rId5"/>
+    <sheet name="KASA_ALIM" sheetId="2" r:id="rId6"/>
+    <sheet name="NOT" sheetId="16" r:id="rId7"/>
+    <sheet name="EGE_LİDER" sheetId="3" r:id="rId8"/>
+    <sheet name="ŞEKEROĞLU" sheetId="14" r:id="rId9"/>
+    <sheet name="SARIOĞLU" sheetId="15" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GÜNLÜK_GELEN_GİDEN_MAL!$A$1:$D$436</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="313">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -292,27 +295,6 @@
   </si>
   <si>
     <t>Toplam_Adet</t>
-  </si>
-  <si>
-    <t>Müstahsiller belirlendi.</t>
-  </si>
-  <si>
-    <t>Veri doğrulama ile hareketli müstahsil sekmesi oluşturuldu.</t>
-  </si>
-  <si>
-    <t>filtre özelliğinde; ekle=hareketli_müstahsiller_sekmesi olarak ayarlandı.</t>
-  </si>
-  <si>
-    <t>Böylece haftalık totali ve her bir müstahsilin totalini çekebiliyorum.</t>
-  </si>
-  <si>
-    <t>Pivot ile her bir müstahsilin totalini tek kalem elde edebiliyorum</t>
-  </si>
-  <si>
-    <t>Genel toplamı hızlıca görebilmek için Pivot kullanışlı</t>
-  </si>
-  <si>
-    <t>Haftalık totalleri hesaplamak için de Pivot kullanışlı</t>
   </si>
   <si>
     <t>Veli Aşan</t>
@@ -783,9 +765,6 @@
     <t>16.7.2021/HAFTALIK</t>
   </si>
   <si>
-    <t xml:space="preserve"> KOMİSYON GİDERİ/HAFTALIK</t>
-  </si>
-  <si>
     <t>KOMİSYON_GİDERİ/HAFTALIK</t>
   </si>
   <si>
@@ -799,9 +778,6 @@
   </si>
   <si>
     <t>Süleyman Küçük</t>
-  </si>
-  <si>
-    <t>HAFTALIK_TOPLAM</t>
   </si>
   <si>
     <t>HAYRİ KANAT</t>
@@ -852,9 +828,6 @@
     <t>SEDAT EKTİREN</t>
   </si>
   <si>
-    <t>HAFTALIK TOPLAM</t>
-  </si>
-  <si>
     <t>GÜLTEKİN ÖZDEMİR</t>
   </si>
   <si>
@@ -874,6 +847,144 @@
   </si>
   <si>
     <t>27.7.2021/SALI</t>
+  </si>
+  <si>
+    <t>HAFTALIK_TOPLAM_BORÇ</t>
+  </si>
+  <si>
+    <t>PLAKA NO</t>
+  </si>
+  <si>
+    <t>BİRİM FİYAT</t>
+  </si>
+  <si>
+    <t>NAKLİYE</t>
+  </si>
+  <si>
+    <t>35 VU 344</t>
+  </si>
+  <si>
+    <t>20 D 2711</t>
+  </si>
+  <si>
+    <t>AÇIKLAMA</t>
+  </si>
+  <si>
+    <t>YAPIKREDİ ŞAİR EŞREF ŞUBESİ</t>
+  </si>
+  <si>
+    <t>12 7 2021</t>
+  </si>
+  <si>
+    <t>35 LGC 17</t>
+  </si>
+  <si>
+    <t>35 EEC 09</t>
+  </si>
+  <si>
+    <t>35 LEE 17</t>
+  </si>
+  <si>
+    <t>45 NV 574</t>
+  </si>
+  <si>
+    <t>HAVALE</t>
+  </si>
+  <si>
+    <t>YAPIKREDİ ÇEŞME</t>
+  </si>
+  <si>
+    <t>35 LEC 21</t>
+  </si>
+  <si>
+    <t>9 TL FARKLI</t>
+  </si>
+  <si>
+    <t>35 AUD 236</t>
+  </si>
+  <si>
+    <t>35 ACT 720</t>
+  </si>
+  <si>
+    <t>35 UC 344</t>
+  </si>
+  <si>
+    <t>35 LDE 06</t>
+  </si>
+  <si>
+    <t>35 ASS 039</t>
+  </si>
+  <si>
+    <t>35 AJS 224</t>
+  </si>
+  <si>
+    <t>35 LEJ 78</t>
+  </si>
+  <si>
+    <t>35 LCM 05</t>
+  </si>
+  <si>
+    <t>35 LEL 57</t>
+  </si>
+  <si>
+    <t>35 LDL 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.7.2021</t>
+  </si>
+  <si>
+    <t>35 LEE 28</t>
+  </si>
+  <si>
+    <t>35 KA 4224</t>
+  </si>
+  <si>
+    <t>35 KV 344</t>
+  </si>
+  <si>
+    <t>35 LCN 74</t>
+  </si>
+  <si>
+    <t>35 LHH 51</t>
+  </si>
+  <si>
+    <t>ELDEN ÖDEME</t>
+  </si>
+  <si>
+    <t>20 SY 301</t>
+  </si>
+  <si>
+    <t>35 LCZ 39</t>
+  </si>
+  <si>
+    <t>YUSUF_AKINCI</t>
+  </si>
+  <si>
+    <t>35 LDR 01</t>
+  </si>
+  <si>
+    <t>35 LER 57</t>
+  </si>
+  <si>
+    <t>TEB PINARBAŞI</t>
+  </si>
+  <si>
+    <t>OSMAN_ELDEM</t>
+  </si>
+  <si>
+    <t>FERHAT_ADSIZ</t>
+  </si>
+  <si>
+    <t>YUSUF ADSIZ</t>
+  </si>
+  <si>
+    <t>SITKI_ADSIZ</t>
+  </si>
+  <si>
+    <t>SAİT_ADSIZ</t>
+  </si>
+  <si>
+    <t>FERİT _ADSIZ</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,16 +1188,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1101,19 +1218,13 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1131,6 +1242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,13 +1557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BQ435"/>
+  <dimension ref="A1:BQ436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B421" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J439" sqref="J439"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1518,98 +1630,98 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="31" t="s">
+      <c r="L1" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="32" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="34" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="35" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="39" t="s">
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="40" t="s">
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
@@ -1627,145 +1739,145 @@
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AJ2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AR2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AV2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AZ2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BH2" s="7" t="s">
         <v>2</v>
@@ -1777,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BL2" s="7" t="s">
         <v>2</v>
@@ -1789,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="BO2" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="BP2" s="2"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1885,10 +1997,10 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2186,13 +2298,13 @@
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D8">
         <v>166</v>
@@ -2273,13 +2385,13 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>138</v>
@@ -2571,13 +2683,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I13">
         <v>7480</v>
@@ -2644,10 +2756,10 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2734,10 +2846,10 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2824,13 +2936,13 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -3139,7 +3251,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>22</v>
@@ -3227,10 +3339,10 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
@@ -3315,10 +3427,10 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
@@ -3403,10 +3515,10 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
@@ -3493,10 +3605,10 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>9</v>
@@ -3581,7 +3693,7 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -3900,10 +4012,10 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
@@ -3990,10 +4102,10 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>9</v>
@@ -4080,10 +4192,10 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -4490,10 +4602,10 @@
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>9</v>
@@ -4580,10 +4692,10 @@
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>9</v>
@@ -4670,10 +4782,10 @@
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -4760,10 +4872,10 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>9</v>
@@ -4850,10 +4962,10 @@
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>9</v>
@@ -4940,7 +5052,7 @@
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>22</v>
@@ -5030,10 +5142,10 @@
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>9</v>
@@ -5356,10 +5468,10 @@
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>9</v>
@@ -5454,10 +5566,10 @@
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>9</v>
@@ -5552,10 +5664,10 @@
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>9</v>
@@ -5642,7 +5754,7 @@
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>12</v>
@@ -5732,10 +5844,10 @@
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>9</v>
@@ -5822,10 +5934,10 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>9</v>
@@ -5912,7 +6024,7 @@
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>22</v>
@@ -6240,10 +6352,10 @@
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>9</v>
@@ -6346,10 +6458,10 @@
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>9</v>
@@ -6446,7 +6558,7 @@
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>31</v>
@@ -6536,10 +6648,10 @@
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>9</v>
@@ -6626,10 +6738,10 @@
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>9</v>
@@ -6716,10 +6828,10 @@
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>9</v>
@@ -6806,10 +6918,10 @@
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>36</v>
@@ -7137,10 +7249,10 @@
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>9</v>
@@ -7241,10 +7353,10 @@
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>9</v>
@@ -7331,7 +7443,7 @@
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>31</v>
@@ -7421,7 +7533,7 @@
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>31</v>
@@ -7511,10 +7623,10 @@
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>9</v>
@@ -7601,10 +7713,10 @@
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>9</v>
@@ -7691,10 +7803,10 @@
     </row>
     <row r="72" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>9</v>
@@ -7781,10 +7893,10 @@
     </row>
     <row r="73" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>9</v>
@@ -7871,7 +7983,7 @@
     </row>
     <row r="74" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>15</v>
@@ -7961,7 +8073,7 @@
     </row>
     <row r="75" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>28</v>
@@ -8291,7 +8403,7 @@
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>15</v>
@@ -8393,10 +8505,10 @@
     </row>
     <row r="80" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>36</v>
@@ -8495,10 +8607,10 @@
     </row>
     <row r="81" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>9</v>
@@ -8585,10 +8697,10 @@
     </row>
     <row r="82" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>9</v>
@@ -8675,7 +8787,7 @@
     </row>
     <row r="83" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>28</v>
@@ -8765,7 +8877,7 @@
     </row>
     <row r="84" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>31</v>
@@ -8855,10 +8967,10 @@
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>36</v>
@@ -8945,7 +9057,7 @@
     </row>
     <row r="86" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>32</v>
@@ -9276,7 +9388,7 @@
     </row>
     <row r="90" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>32</v>
@@ -9368,10 +9480,10 @@
     </row>
     <row r="91" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>9</v>
@@ -9458,10 +9570,10 @@
     </row>
     <row r="92" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>9</v>
@@ -9548,7 +9660,7 @@
     </row>
     <row r="93" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>12</v>
@@ -9638,10 +9750,10 @@
     </row>
     <row r="94" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>9</v>
@@ -9728,10 +9840,10 @@
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>9</v>
@@ -10053,7 +10165,7 @@
     </row>
     <row r="99" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>31</v>
@@ -10151,7 +10263,7 @@
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>12</v>
@@ -10241,10 +10353,10 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>9</v>
@@ -10331,10 +10443,10 @@
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>9</v>
@@ -10421,7 +10533,7 @@
     </row>
     <row r="103" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>32</v>
@@ -10511,7 +10623,7 @@
     </row>
     <row r="104" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>32</v>
@@ -10843,7 +10955,7 @@
     </row>
     <row r="108" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>12</v>
@@ -10945,10 +11057,10 @@
     </row>
     <row r="109" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>9</v>
@@ -11035,10 +11147,10 @@
     </row>
     <row r="110" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>9</v>
@@ -11125,10 +11237,10 @@
     </row>
     <row r="111" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>9</v>
@@ -11215,7 +11327,7 @@
     </row>
     <row r="112" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>32</v>
@@ -11305,7 +11417,7 @@
     </row>
     <row r="113" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>32</v>
@@ -11635,10 +11747,10 @@
     </row>
     <row r="117" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>9</v>
@@ -11719,7 +11831,7 @@
         <v>74</v>
       </c>
       <c r="BE117" s="23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="BF117" s="23"/>
       <c r="BG117" s="11"/>
@@ -11735,7 +11847,7 @@
     </row>
     <row r="118" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>32</v>
@@ -11831,7 +11943,7 @@
     </row>
     <row r="119" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>32</v>
@@ -11921,7 +12033,7 @@
     </row>
     <row r="120" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>31</v>
@@ -12011,7 +12123,7 @@
     </row>
     <row r="121" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>15</v>
@@ -12338,7 +12450,7 @@
     </row>
     <row r="125" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>12</v>
@@ -12436,10 +12548,10 @@
     </row>
     <row r="126" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>9</v>
@@ -12526,10 +12638,10 @@
     </row>
     <row r="127" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>9</v>
@@ -12616,7 +12728,7 @@
     </row>
     <row r="128" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>32</v>
@@ -12706,10 +12818,10 @@
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>9</v>
@@ -13040,7 +13152,7 @@
     </row>
     <row r="133" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>8</v>
@@ -13140,10 +13252,10 @@
     </row>
     <row r="134" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>9</v>
@@ -13230,7 +13342,7 @@
     </row>
     <row r="135" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>31</v>
@@ -13320,7 +13432,7 @@
     </row>
     <row r="136" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>12</v>
@@ -13410,7 +13522,7 @@
     </row>
     <row r="137" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>12</v>
@@ -13500,10 +13612,10 @@
     </row>
     <row r="138" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>9</v>
@@ -13590,7 +13702,7 @@
     </row>
     <row r="139" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>15</v>
@@ -13926,7 +14038,7 @@
     </row>
     <row r="143" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>8</v>
@@ -14026,7 +14138,7 @@
     </row>
     <row r="144" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>14</v>
@@ -14116,7 +14228,7 @@
     </row>
     <row r="145" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>15</v>
@@ -14206,10 +14318,10 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>9</v>
@@ -14296,7 +14408,7 @@
     </row>
     <row r="147" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>12</v>
@@ -14386,7 +14498,7 @@
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>12</v>
@@ -14476,10 +14588,10 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>9</v>
@@ -14566,10 +14678,10 @@
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>9</v>
@@ -14656,10 +14768,10 @@
     </row>
     <row r="151" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>9</v>
@@ -14746,10 +14858,10 @@
     </row>
     <row r="152" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>9</v>
@@ -14836,7 +14948,7 @@
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>13</v>
@@ -15170,7 +15282,7 @@
     </row>
     <row r="157" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>8</v>
@@ -15270,7 +15382,7 @@
     </row>
     <row r="158" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>8</v>
@@ -15368,7 +15480,7 @@
     </row>
     <row r="159" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>31</v>
@@ -15458,7 +15570,7 @@
     </row>
     <row r="160" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>26</v>
@@ -15548,10 +15660,10 @@
     </row>
     <row r="161" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>9</v>
@@ -15638,7 +15750,7 @@
     </row>
     <row r="162" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>14</v>
@@ -15728,7 +15840,7 @@
     </row>
     <row r="163" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>12</v>
@@ -15818,7 +15930,7 @@
     </row>
     <row r="164" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>12</v>
@@ -16148,7 +16260,7 @@
     </row>
     <row r="168" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>26</v>
@@ -16246,7 +16358,7 @@
     </row>
     <row r="169" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
@@ -16344,7 +16456,7 @@
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>32</v>
@@ -16434,7 +16546,7 @@
     </row>
     <row r="171" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>8</v>
@@ -16524,7 +16636,7 @@
     </row>
     <row r="172" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>22</v>
@@ -16614,7 +16726,7 @@
     </row>
     <row r="173" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>22</v>
@@ -16938,7 +17050,7 @@
     </row>
     <row r="177" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>22</v>
@@ -17029,7 +17141,7 @@
       </c>
       <c r="BI177" s="23"/>
       <c r="BJ177" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="BK177" s="11"/>
       <c r="BL177" s="11"/>
@@ -17040,7 +17152,7 @@
     </row>
     <row r="178" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
@@ -17138,10 +17250,10 @@
     </row>
     <row r="179" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>9</v>
@@ -17232,7 +17344,7 @@
     </row>
     <row r="180" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>8</v>
@@ -17315,7 +17427,7 @@
       </c>
       <c r="BI180" s="23"/>
       <c r="BJ180" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="BK180" s="11"/>
       <c r="BL180" s="11"/>
@@ -17326,10 +17438,10 @@
     </row>
     <row r="181" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>9</v>
@@ -17416,10 +17528,10 @@
     </row>
     <row r="182" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>9</v>
@@ -17506,7 +17618,7 @@
     </row>
     <row r="183" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>13</v>
@@ -17596,13 +17708,13 @@
     </row>
     <row r="184" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D184" s="8">
         <v>724</v>
@@ -17927,10 +18039,10 @@
     </row>
     <row r="188" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>9</v>
@@ -18021,7 +18133,7 @@
     </row>
     <row r="189" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
@@ -18115,7 +18227,7 @@
     </row>
     <row r="190" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>13</v>
@@ -18205,10 +18317,10 @@
     </row>
     <row r="191" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>36</v>
@@ -18295,7 +18407,7 @@
     </row>
     <row r="192" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>13</v>
@@ -18385,10 +18497,10 @@
     </row>
     <row r="193" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>9</v>
@@ -18709,7 +18821,7 @@
     </row>
     <row r="197" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>12</v>
@@ -18803,7 +18915,7 @@
     </row>
     <row r="198" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>14</v>
@@ -18893,10 +19005,10 @@
     </row>
     <row r="199" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>9</v>
@@ -18983,10 +19095,10 @@
     </row>
     <row r="200" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>9</v>
@@ -19073,7 +19185,7 @@
     </row>
     <row r="201" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>15</v>
@@ -19401,7 +19513,7 @@
     </row>
     <row r="205" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>22</v>
@@ -19495,7 +19607,7 @@
     </row>
     <row r="206" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>26</v>
@@ -19585,10 +19697,10 @@
     </row>
     <row r="207" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>9</v>
@@ -19675,10 +19787,10 @@
     </row>
     <row r="208" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>9</v>
@@ -20005,10 +20117,10 @@
     </row>
     <row r="212" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>9</v>
@@ -20099,7 +20211,7 @@
     </row>
     <row r="213" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>8</v>
@@ -20189,10 +20301,10 @@
     </row>
     <row r="214" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>9</v>
@@ -20279,7 +20391,7 @@
     </row>
     <row r="215" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>26</v>
@@ -20369,7 +20481,7 @@
     </row>
     <row r="216" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>26</v>
@@ -20459,7 +20571,7 @@
     </row>
     <row r="217" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>14</v>
@@ -20785,7 +20897,7 @@
     </row>
     <row r="221" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>12</v>
@@ -20883,7 +20995,7 @@
     </row>
     <row r="222" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>13</v>
@@ -20973,7 +21085,7 @@
     </row>
     <row r="223" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>22</v>
@@ -21063,7 +21175,7 @@
     </row>
     <row r="224" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>26</v>
@@ -21153,10 +21265,10 @@
     </row>
     <row r="225" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>9</v>
@@ -21479,7 +21591,7 @@
     </row>
     <row r="229" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>12</v>
@@ -21577,10 +21689,10 @@
     </row>
     <row r="230" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>9</v>
@@ -21667,10 +21779,10 @@
     </row>
     <row r="231" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>9</v>
@@ -21757,7 +21869,7 @@
     </row>
     <row r="232" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>14</v>
@@ -21847,7 +21959,7 @@
     </row>
     <row r="233" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>26</v>
@@ -21937,7 +22049,7 @@
     </row>
     <row r="234" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>15</v>
@@ -22027,7 +22139,7 @@
     </row>
     <row r="235" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>32</v>
@@ -22117,10 +22229,10 @@
     </row>
     <row r="236" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>9</v>
@@ -22443,7 +22555,7 @@
     </row>
     <row r="240" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
@@ -22541,7 +22653,7 @@
     </row>
     <row r="241" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>8</v>
@@ -22631,7 +22743,7 @@
     </row>
     <row r="242" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>32</v>
@@ -22721,7 +22833,7 @@
     </row>
     <row r="243" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>32</v>
@@ -23047,7 +23159,7 @@
     </row>
     <row r="247" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>28</v>
@@ -23145,10 +23257,10 @@
     </row>
     <row r="248" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>9</v>
@@ -23235,7 +23347,7 @@
     </row>
     <row r="249" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>32</v>
@@ -23325,10 +23437,10 @@
     </row>
     <row r="250" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>9</v>
@@ -23651,10 +23763,10 @@
     </row>
     <row r="254" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>9</v>
@@ -23749,7 +23861,7 @@
     </row>
     <row r="255" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>13</v>
@@ -23839,7 +23951,7 @@
     </row>
     <row r="256" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>14</v>
@@ -24163,7 +24275,7 @@
     </row>
     <row r="260" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>8</v>
@@ -24263,7 +24375,7 @@
     </row>
     <row r="261" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>26</v>
@@ -24353,10 +24465,10 @@
     </row>
     <row r="262" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>9</v>
@@ -24443,10 +24555,10 @@
     </row>
     <row r="263" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>9</v>
@@ -24533,7 +24645,7 @@
     </row>
     <row r="264" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>12</v>
@@ -24623,7 +24735,7 @@
     </row>
     <row r="265" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>15</v>
@@ -24713,7 +24825,7 @@
     </row>
     <row r="266" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>21</v>
@@ -24803,7 +24915,7 @@
     </row>
     <row r="267" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
@@ -25129,7 +25241,7 @@
     </row>
     <row r="271" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>26</v>
@@ -25229,7 +25341,7 @@
     </row>
     <row r="272" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>22</v>
@@ -25319,10 +25431,10 @@
     </row>
     <row r="273" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>9</v>
@@ -25409,7 +25521,7 @@
     </row>
     <row r="274" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>12</v>
@@ -25735,7 +25847,7 @@
     </row>
     <row r="278" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>8</v>
@@ -25813,7 +25925,7 @@
         <v>276</v>
       </c>
       <c r="BE278" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="BF278" s="23"/>
       <c r="BG278" s="23"/>
@@ -25833,7 +25945,7 @@
     </row>
     <row r="279" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>22</v>
@@ -25929,7 +26041,7 @@
     </row>
     <row r="280" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>23</v>
@@ -26019,7 +26131,7 @@
     </row>
     <row r="281" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>12</v>
@@ -26109,10 +26221,10 @@
     </row>
     <row r="282" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>9</v>
@@ -26199,7 +26311,7 @@
     </row>
     <row r="283" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>26</v>
@@ -26526,7 +26638,7 @@
     </row>
     <row r="287" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>32</v>
@@ -26604,7 +26716,7 @@
         <v>907</v>
       </c>
       <c r="BE287" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="BF287" s="23" t="s">
         <v>9</v>
@@ -26630,10 +26742,10 @@
     </row>
     <row r="288" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>9</v>
@@ -26720,7 +26832,7 @@
     </row>
     <row r="289" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>8</v>
@@ -26810,7 +26922,7 @@
     </row>
     <row r="290" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>23</v>
@@ -26900,7 +27012,7 @@
     </row>
     <row r="291" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>13</v>
@@ -27228,7 +27340,7 @@
     </row>
     <row r="295" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>14</v>
@@ -27309,7 +27421,7 @@
         <v>35</v>
       </c>
       <c r="BF295" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="BG295" s="23"/>
       <c r="BH295" s="23">
@@ -27319,7 +27431,7 @@
         <v>35</v>
       </c>
       <c r="BJ295" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="BK295" s="11"/>
       <c r="BL295" s="11"/>
@@ -27330,7 +27442,7 @@
     </row>
     <row r="296" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>23</v>
@@ -27408,7 +27520,7 @@
         <v>378</v>
       </c>
       <c r="BE296" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="BF296" s="23"/>
       <c r="BG296" s="23"/>
@@ -27416,10 +27528,10 @@
         <v>70</v>
       </c>
       <c r="BI296" s="23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="BJ296" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="BK296" s="11"/>
       <c r="BL296" s="11"/>
@@ -27430,7 +27542,7 @@
     </row>
     <row r="297" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>31</v>
@@ -27530,7 +27642,7 @@
     </row>
     <row r="298" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>32</v>
@@ -27620,10 +27732,10 @@
     </row>
     <row r="299" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>9</v>
@@ -27710,13 +27822,13 @@
     </row>
     <row r="300" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D300" s="8">
         <v>282</v>
@@ -27800,13 +27912,13 @@
     </row>
     <row r="301" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D301" s="8">
         <v>26</v>
@@ -27888,13 +28000,13 @@
     </row>
     <row r="302" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D302" s="8">
         <v>136</v>
@@ -27976,7 +28088,7 @@
     </row>
     <row r="303" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>15</v>
@@ -28304,7 +28416,7 @@
     </row>
     <row r="307" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>23</v>
@@ -28404,7 +28516,7 @@
     </row>
     <row r="308" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>26</v>
@@ -28500,7 +28612,7 @@
     </row>
     <row r="309" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>26</v>
@@ -28590,10 +28702,10 @@
     </row>
     <row r="310" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>36</v>
@@ -28680,7 +28792,7 @@
     </row>
     <row r="311" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>15</v>
@@ -28770,7 +28882,7 @@
     </row>
     <row r="312" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>14</v>
@@ -30541,7 +30653,7 @@
         <v>34</v>
       </c>
       <c r="BF344" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="BH344">
         <v>564</v>
@@ -31126,7 +31238,7 @@
         <v>38</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
@@ -31188,7 +31300,7 @@
         <v>38</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C363" t="s">
         <v>9</v>
@@ -31486,7 +31598,7 @@
     </row>
     <row r="371" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B371" t="s">
         <v>25</v>
@@ -31529,7 +31641,7 @@
     </row>
     <row r="372" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B372" t="s">
         <v>23</v>
@@ -31560,7 +31672,7 @@
     </row>
     <row r="373" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B373" t="s">
         <v>22</v>
@@ -31591,7 +31703,7 @@
     </row>
     <row r="374" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B374" t="s">
         <v>8</v>
@@ -31622,10 +31734,10 @@
     </row>
     <row r="375" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B375" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C375" t="s">
         <v>9</v>
@@ -31653,7 +31765,7 @@
     </row>
     <row r="376" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B376" t="s">
         <v>15</v>
@@ -31684,10 +31796,10 @@
     </row>
     <row r="377" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B377" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C377" t="s">
         <v>9</v>
@@ -31715,7 +31827,7 @@
     </row>
     <row r="378" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B378" t="s">
         <v>26</v>
@@ -31746,7 +31858,7 @@
     </row>
     <row r="379" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B379" t="s">
         <v>21</v>
@@ -31777,7 +31889,7 @@
     </row>
     <row r="380" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B380" t="s">
         <v>14</v>
@@ -31863,7 +31975,7 @@
     </row>
     <row r="384" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B384" t="s">
         <v>8</v>
@@ -31912,10 +32024,10 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B385" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C385" t="s">
         <v>9</v>
@@ -31961,10 +32073,10 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B386" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -31992,10 +32104,10 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B387" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C387" t="s">
         <v>9</v>
@@ -32023,7 +32135,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B388" t="s">
         <v>28</v>
@@ -32054,10 +32166,10 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B389" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -32085,7 +32197,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B390" t="s">
         <v>14</v>
@@ -32116,10 +32228,10 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B391" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -32147,7 +32259,7 @@
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
@@ -32178,10 +32290,10 @@
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B393" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C393" t="s">
         <v>9</v>
@@ -32209,10 +32321,10 @@
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B394" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C394" t="s">
         <v>36</v>
@@ -32240,10 +32352,10 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B395" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C395" t="s">
         <v>36</v>
@@ -32271,10 +32383,10 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B396" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C396" t="s">
         <v>36</v>
@@ -32329,7 +32441,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B400" t="s">
         <v>28</v>
@@ -32357,7 +32469,7 @@
     </row>
     <row r="401" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B401" t="s">
         <v>26</v>
@@ -32385,7 +32497,7 @@
     </row>
     <row r="402" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B402" t="s">
         <v>14</v>
@@ -32413,7 +32525,7 @@
     </row>
     <row r="403" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B403" t="s">
         <v>14</v>
@@ -32441,10 +32553,10 @@
     </row>
     <row r="404" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B404" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C404" t="s">
         <v>36</v>
@@ -32472,7 +32584,7 @@
     </row>
     <row r="405" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B405" t="s">
         <v>8</v>
@@ -32500,7 +32612,7 @@
     </row>
     <row r="406" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B406" t="s">
         <v>8</v>
@@ -32566,10 +32678,10 @@
     </row>
     <row r="411" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B411" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D411">
         <v>486</v>
@@ -32600,10 +32712,10 @@
     </row>
     <row r="412" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B412" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D412">
         <v>48</v>
@@ -32628,7 +32740,7 @@
     </row>
     <row r="413" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B413" t="s">
         <v>14</v>
@@ -32656,10 +32768,10 @@
     </row>
     <row r="414" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B414" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D414">
         <v>759</v>
@@ -32684,10 +32796,10 @@
     </row>
     <row r="415" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B415" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D415">
         <v>172</v>
@@ -32712,10 +32824,10 @@
     </row>
     <row r="416" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B416" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D416">
         <v>90</v>
@@ -32740,7 +32852,7 @@
     </row>
     <row r="417" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B417" t="s">
         <v>8</v>
@@ -32811,463 +32923,463 @@
         <v>7.1128571428571421</v>
       </c>
     </row>
-    <row r="420" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="10"/>
+    <row r="420" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A421" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B421" t="s">
+        <v>142</v>
+      </c>
+      <c r="C421" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421">
+        <v>430</v>
+      </c>
+      <c r="E421">
+        <v>1520</v>
+      </c>
+      <c r="F421">
+        <v>180</v>
+      </c>
+      <c r="G421">
+        <f t="shared" ref="G421:G432" si="92">(E421-F421)</f>
+        <v>1340</v>
+      </c>
+      <c r="H421">
+        <v>6.71</v>
+      </c>
+      <c r="I421">
+        <f t="shared" ref="I421:I432" si="93">(G421*H421)</f>
+        <v>8991.4</v>
+      </c>
+      <c r="BD421">
+        <v>578</v>
+      </c>
+      <c r="BF421" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH421">
+        <v>2784</v>
+      </c>
+      <c r="BJ421" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="422" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B422" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="C422" t="s">
         <v>9</v>
       </c>
       <c r="D422">
+        <v>1062</v>
+      </c>
+      <c r="E422">
+        <v>4280</v>
+      </c>
+      <c r="F422">
         <v>430</v>
       </c>
-      <c r="E422">
-        <v>1520</v>
-      </c>
-      <c r="F422">
-        <v>180</v>
-      </c>
       <c r="G422">
-        <f t="shared" ref="G422:G433" si="92">(E422-F422)</f>
-        <v>1340</v>
+        <f t="shared" si="92"/>
+        <v>3850</v>
       </c>
       <c r="H422">
-        <v>6.71</v>
+        <v>7.3</v>
       </c>
       <c r="I422">
-        <f t="shared" ref="I422:I433" si="93">(G422*H422)</f>
-        <v>8991.4</v>
+        <f t="shared" si="93"/>
+        <v>28105</v>
       </c>
       <c r="BD422">
-        <v>578</v>
+        <v>1048</v>
       </c>
       <c r="BF422" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH422">
+        <v>288</v>
+      </c>
+      <c r="BJ422" t="s">
         <v>36</v>
-      </c>
-      <c r="BH422">
-        <v>2784</v>
-      </c>
-      <c r="BJ422" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B423" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C423" t="s">
         <v>9</v>
       </c>
       <c r="D423">
-        <v>1062</v>
+        <v>40</v>
       </c>
       <c r="E423">
-        <v>4280</v>
+        <v>140</v>
       </c>
       <c r="F423">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="G423">
         <f t="shared" si="92"/>
-        <v>3850</v>
+        <v>120</v>
       </c>
       <c r="H423">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="I423">
         <f t="shared" si="93"/>
-        <v>28105</v>
-      </c>
-      <c r="BD423">
-        <v>1048</v>
-      </c>
-      <c r="BF423" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH423">
-        <v>288</v>
-      </c>
-      <c r="BJ423" t="s">
-        <v>36</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="BH423" s="2"/>
     </row>
     <row r="424" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B424" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C424" t="s">
         <v>9</v>
       </c>
       <c r="D424">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="E424">
-        <v>140</v>
+        <v>2220</v>
       </c>
       <c r="F424">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="G424">
         <f t="shared" si="92"/>
-        <v>120</v>
+        <v>1900</v>
       </c>
       <c r="H424">
-        <v>4</v>
+        <v>7.36</v>
       </c>
       <c r="I424">
         <f t="shared" si="93"/>
-        <v>480</v>
-      </c>
-      <c r="BH424" s="2"/>
+        <v>13984</v>
+      </c>
     </row>
     <row r="425" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B425" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C425" t="s">
         <v>9</v>
       </c>
       <c r="D425">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E425">
-        <v>2220</v>
+        <v>440</v>
       </c>
       <c r="F425">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="G425">
         <f t="shared" si="92"/>
-        <v>1900</v>
+        <v>390</v>
       </c>
       <c r="H425">
-        <v>7.36</v>
+        <v>5</v>
       </c>
       <c r="I425">
         <f t="shared" si="93"/>
-        <v>13984</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="426" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B426" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="C426" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D426">
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="E426">
-        <v>440</v>
+        <v>2680</v>
       </c>
       <c r="F426">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="G426">
         <f t="shared" si="92"/>
-        <v>390</v>
+        <v>2424</v>
       </c>
       <c r="H426">
-        <v>5</v>
+        <v>8.83</v>
       </c>
       <c r="I426">
         <f t="shared" si="93"/>
-        <v>1950</v>
+        <v>21403.920000000002</v>
       </c>
     </row>
     <row r="427" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B427" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="C427" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D427">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="E427">
-        <v>2680</v>
+        <v>1620</v>
       </c>
       <c r="F427">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G427">
         <f t="shared" si="92"/>
-        <v>2424</v>
+        <v>1400</v>
       </c>
       <c r="H427">
-        <v>8.83</v>
+        <v>6.75</v>
       </c>
       <c r="I427">
         <f t="shared" si="93"/>
-        <v>21403.920000000002</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="428" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B428" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C428" t="s">
         <v>9</v>
       </c>
       <c r="D428">
-        <v>440</v>
+        <v>722</v>
       </c>
       <c r="E428">
-        <v>1620</v>
+        <v>2980</v>
       </c>
       <c r="F428">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="G428">
         <f t="shared" si="92"/>
-        <v>1400</v>
+        <v>2690</v>
       </c>
       <c r="H428">
-        <v>6.75</v>
+        <v>7.35</v>
       </c>
       <c r="I428">
         <f t="shared" si="93"/>
-        <v>9450</v>
+        <v>19771.5</v>
       </c>
     </row>
     <row r="429" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B429" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
       </c>
       <c r="D429">
-        <v>722</v>
+        <v>112</v>
       </c>
       <c r="E429">
-        <v>2980</v>
+        <v>600</v>
       </c>
       <c r="F429">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="G429">
         <f t="shared" si="92"/>
-        <v>2690</v>
+        <v>488</v>
       </c>
       <c r="H429">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="I429">
         <f t="shared" si="93"/>
-        <v>19771.5</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="430" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B430" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C430" t="s">
         <v>9</v>
       </c>
       <c r="D430">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E430">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="F430">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="G430">
         <f t="shared" si="92"/>
-        <v>488</v>
+        <v>210</v>
       </c>
       <c r="H430">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="I430">
         <f t="shared" si="93"/>
-        <v>3294</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="431" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B431" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C431" t="s">
         <v>9</v>
       </c>
       <c r="D431">
-        <v>57</v>
+        <v>510</v>
       </c>
       <c r="E431">
-        <v>240</v>
+        <v>2522</v>
       </c>
       <c r="F431">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="G431">
         <f t="shared" si="92"/>
-        <v>210</v>
+        <v>2318</v>
       </c>
       <c r="H431">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I431">
         <f t="shared" si="93"/>
-        <v>1050</v>
+        <v>17385</v>
       </c>
     </row>
     <row r="432" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B432" t="s">
         <v>15</v>
       </c>
       <c r="C432" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D432">
-        <v>510</v>
+        <v>226</v>
       </c>
       <c r="E432">
-        <v>2522</v>
+        <v>1117</v>
       </c>
       <c r="F432">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="G432">
         <f t="shared" si="92"/>
-        <v>2318</v>
+        <v>1027</v>
       </c>
       <c r="H432">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I432">
         <f t="shared" si="93"/>
-        <v>17385</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="433" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B433" t="s">
-        <v>15</v>
-      </c>
-      <c r="C433" t="s">
-        <v>36</v>
-      </c>
-      <c r="D433">
-        <v>226</v>
-      </c>
-      <c r="E433">
-        <v>1117</v>
-      </c>
-      <c r="F433">
-        <v>90</v>
-      </c>
-      <c r="G433">
-        <f t="shared" si="92"/>
-        <v>1027</v>
-      </c>
-      <c r="H433">
-        <v>9</v>
-      </c>
-      <c r="I433">
-        <f t="shared" si="93"/>
-        <v>9243</v>
-      </c>
-    </row>
-    <row r="434" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A434" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D434" s="2">
-        <f t="shared" ref="D434:I434" si="94">SUM(D422:D433)</f>
+      <c r="D433" s="2">
+        <f t="shared" ref="D433:I433" si="94">SUM(D421:D432)</f>
         <v>4698</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E433" s="2">
         <f t="shared" si="94"/>
         <v>20359</v>
       </c>
-      <c r="F434" s="2">
+      <c r="F433" s="2">
         <f t="shared" si="94"/>
         <v>2202</v>
       </c>
-      <c r="G434" s="2">
+      <c r="G433" s="2">
         <f t="shared" si="94"/>
         <v>18157</v>
       </c>
-      <c r="H434" s="2"/>
-      <c r="I434" s="2">
+      <c r="H433" s="2"/>
+      <c r="I433" s="2">
         <f t="shared" si="94"/>
         <v>135107.82</v>
       </c>
-      <c r="BD434" s="2">
-        <f>SUM(BD422:BD433)</f>
+      <c r="BD433" s="2">
+        <f>SUM(BD421:BD432)</f>
         <v>1626</v>
       </c>
-      <c r="BH434" s="2">
-        <f>SUM(BH422:BH433)</f>
+      <c r="BH433" s="2">
+        <f>SUM(BH421:BH432)</f>
         <v>3072</v>
       </c>
-      <c r="BP434">
-        <f>(BD434+BH434)</f>
+      <c r="BP433">
+        <f>(BD433+BH433)</f>
         <v>4698</v>
       </c>
     </row>
-    <row r="435" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="B435" s="2" t="s">
+    <row r="434" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="B434" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H435" s="2">
-        <f>AVERAGE(H422:H433)</f>
+      <c r="H434" s="2">
+        <f>AVERAGE(H421:H432)</f>
         <v>6.7958333333333334</v>
+      </c>
+    </row>
+    <row r="436" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A436" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -33277,6 +33389,11 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33284,73 +33401,206 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE6509-1AE9-4C25-8320-0FF3A534E871}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D277C11-66A6-460E-A32C-33352BFB7673}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="60.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44333</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44336</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>29657.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44336</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44351</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44354</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44357</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>52540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>26910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33361,7 +33611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
   <dimension ref="A1:CF8"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
@@ -33386,316 +33636,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="28"/>
-      <c r="F1" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="F1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="K1" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="27"/>
       <c r="P1" s="45" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="45"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
-      <c r="U1" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AE1" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AJ1" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
+      <c r="U1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Z1" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AE1" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AJ1" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
       <c r="AO1" s="44" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AP1" s="44"/>
       <c r="AQ1" s="44"/>
       <c r="AR1" s="44"/>
-      <c r="AT1" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
+      <c r="AT1" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
       <c r="AY1" s="46" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AZ1" s="46"/>
       <c r="BA1" s="46"/>
       <c r="BB1" s="46"/>
-      <c r="BD1" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BI1" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BN1" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31"/>
-      <c r="BQ1" s="31"/>
-      <c r="BS1" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BX1" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CC1" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="CD1" s="43"/>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
+      <c r="BD1" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BI1" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BN1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BS1" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BX1" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CC1" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD1" s="41"/>
+      <c r="CE1" s="41"/>
+      <c r="CF1" s="41"/>
     </row>
     <row r="2" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BD2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BI2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="CC2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.35">
@@ -34050,6 +34300,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -34066,7 +34317,6 @@
     <mergeCell ref="BI1:BL1"/>
     <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34107,7 +34357,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -34131,19 +34381,19 @@
         <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>42</v>
@@ -34152,7 +34402,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>42</v>
@@ -34161,7 +34411,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>42</v>
@@ -34170,7 +34420,7 @@
         <v>40</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>42</v>
@@ -34179,7 +34429,7 @@
         <v>40</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V3" s="25" t="s">
         <v>42</v>
@@ -34188,7 +34438,7 @@
         <v>40</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="25" t="s">
         <v>42</v>
@@ -34197,15 +34447,15 @@
         <v>82</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" s="6">
         <v>511</v>
@@ -34223,7 +34473,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6">
         <v>304</v>
@@ -34241,7 +34491,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" s="6">
         <v>685</v>
@@ -34259,7 +34509,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B7" s="6">
         <v>1892</v>
@@ -34277,7 +34527,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6">
         <v>1264</v>
@@ -34293,12 +34543,12 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9:E9" si="0">SUM(B4:B8)</f>
@@ -34318,7 +34568,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -34329,38 +34579,38 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H12" s="47" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
       <c r="K12" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O12" s="47"/>
       <c r="P12" s="47"/>
       <c r="Q12" s="47" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="U12" s="47"/>
       <c r="V12" s="47"/>
       <c r="W12" s="47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="X12" s="47"/>
       <c r="Y12" s="47"/>
@@ -34368,10 +34618,10 @@
         <v>82</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -34379,7 +34629,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>42</v>
@@ -34388,7 +34638,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>42</v>
@@ -34397,7 +34647,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>42</v>
@@ -34406,7 +34656,7 @@
         <v>40</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>42</v>
@@ -34415,7 +34665,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>42</v>
@@ -34424,7 +34674,7 @@
         <v>40</v>
       </c>
       <c r="X13" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="25" t="s">
         <v>42</v>
@@ -34432,7 +34682,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6">
         <v>2808</v>
@@ -34456,7 +34706,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6">
         <v>2264</v>
@@ -34480,7 +34730,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B16" s="6">
         <v>3201</v>
@@ -34507,7 +34757,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B17" s="6">
         <v>4823</v>
@@ -34537,7 +34787,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B18" s="6">
         <v>4813</v>
@@ -34564,7 +34814,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B19" s="6">
         <v>2606</v>
@@ -34585,7 +34835,7 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ref="B20:E20" si="1">SUM(B14:B19)</f>
@@ -34605,7 +34855,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H20" s="2">
         <f>SUM(H14:H19)</f>
@@ -34636,58 +34886,58 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H24" s="48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
       <c r="N24" s="48" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="U24" s="48"/>
       <c r="V24" s="48"/>
       <c r="W24" s="48" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="X24" s="48"/>
       <c r="Y24" s="48"/>
       <c r="Z24" s="48" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AA24" s="48"/>
       <c r="AB24" s="48"/>
       <c r="AC24" s="48" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AD24" s="48"/>
       <c r="AE24" s="48"/>
       <c r="AF24" s="48" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG24" s="48"/>
       <c r="AH24" s="48"/>
@@ -34697,7 +34947,7 @@
         <v>40</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>42</v>
@@ -34706,7 +34956,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>42</v>
@@ -34715,7 +34965,7 @@
         <v>40</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>42</v>
@@ -34724,7 +34974,7 @@
         <v>40</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="S25" s="13" t="s">
         <v>42</v>
@@ -34733,7 +34983,7 @@
         <v>40</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V25" s="13" t="s">
         <v>42</v>
@@ -34742,7 +34992,7 @@
         <v>40</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y25" s="13" t="s">
         <v>42</v>
@@ -34751,7 +35001,7 @@
         <v>40</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AB25" s="13" t="s">
         <v>42</v>
@@ -34760,7 +35010,7 @@
         <v>40</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AE25" s="13" t="s">
         <v>42</v>
@@ -34769,7 +35019,7 @@
         <v>40</v>
       </c>
       <c r="AG25" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH25" s="13" t="s">
         <v>42</v>
@@ -34778,15 +35028,15 @@
         <v>82</v>
       </c>
       <c r="AJ25" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AK25" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B26" s="6">
         <v>4494</v>
@@ -34816,7 +35066,7 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" s="6">
         <v>2446</v>
@@ -34843,7 +35093,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B28" s="6">
         <v>2109</v>
@@ -34870,7 +35120,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B29" s="6">
         <v>1900</v>
@@ -34900,7 +35150,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B30" s="6">
         <v>2804</v>
@@ -34933,7 +35183,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B31" s="6">
         <v>3193</v>
@@ -34966,7 +35216,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ref="B32:E32" si="2">SUM(B26:B31)</f>
@@ -34986,7 +35236,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2">
         <v>275</v>
@@ -35025,43 +35275,43 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H36" s="48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="48"/>
       <c r="K36" s="48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L36" s="48"/>
       <c r="M36" s="48"/>
       <c r="N36" s="48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
       <c r="Q36" s="48" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="R36" s="48"/>
       <c r="S36" s="48"/>
       <c r="T36" s="48" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
       <c r="W36" s="48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="X36" s="48"/>
       <c r="Y36" s="48"/>
@@ -35071,7 +35321,7 @@
         <v>40</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>42</v>
@@ -35080,7 +35330,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>42</v>
@@ -35089,7 +35339,7 @@
         <v>40</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>42</v>
@@ -35098,7 +35348,7 @@
         <v>40</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>42</v>
@@ -35107,7 +35357,7 @@
         <v>40</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V37" s="13" t="s">
         <v>42</v>
@@ -35116,7 +35366,7 @@
         <v>40</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y37" s="13" t="s">
         <v>42</v>
@@ -35125,15 +35375,15 @@
         <v>82</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B38" s="6">
         <v>3121</v>
@@ -35160,7 +35410,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B39" s="6">
         <v>2291</v>
@@ -35184,7 +35434,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B40" s="6">
         <v>5027</v>
@@ -35211,7 +35461,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6">
         <v>834</v>
@@ -35238,7 +35488,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B42" s="6">
         <v>1544</v>
@@ -35262,7 +35512,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B43" s="6">
         <v>1827</v>
@@ -35286,7 +35536,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ref="B44:E44" si="3">SUM(B38:B43)</f>
@@ -35306,7 +35556,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H44" s="2">
         <v>375</v>
@@ -35335,23 +35585,23 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G46" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H48" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
       <c r="K48" s="47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
@@ -35361,7 +35611,7 @@
         <v>40</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>42</v>
@@ -35370,7 +35620,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>42</v>
@@ -35379,15 +35629,15 @@
         <v>82</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B50" s="6">
         <v>3859</v>
@@ -35411,7 +35661,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B51" s="6">
         <v>1909</v>
@@ -35435,7 +35685,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B52" s="6">
         <v>2981</v>
@@ -35459,7 +35709,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B53" s="6">
         <v>1829</v>
@@ -35483,7 +35733,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B54" s="6">
         <v>2560</v>
@@ -35507,7 +35757,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B55" s="6">
         <v>902</v>
@@ -35531,7 +35781,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" ref="B56:E56" si="4">SUM(B50:B55)</f>
@@ -35551,7 +35801,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H56" s="2">
         <f>SUM(H50:H55)</f>
@@ -35568,28 +35818,28 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H60" s="48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I60" s="48"/>
       <c r="J60" s="48"/>
       <c r="K60" s="48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L60" s="48"/>
       <c r="M60" s="48"/>
       <c r="N60" s="48" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O60" s="48"/>
       <c r="P60" s="48"/>
@@ -35599,7 +35849,7 @@
         <v>40</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -35608,7 +35858,7 @@
         <v>40</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>42</v>
@@ -35617,7 +35867,7 @@
         <v>40</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>42</v>
@@ -35626,15 +35876,15 @@
         <v>82</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B62" s="6">
         <v>4038</v>
@@ -35658,7 +35908,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B63" s="6">
         <v>2394</v>
@@ -35682,7 +35932,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B64" s="6">
         <v>2329</v>
@@ -35706,7 +35956,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B65" s="6">
         <v>2979</v>
@@ -35733,7 +35983,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B66" s="6">
         <v>3283</v>
@@ -35757,7 +36007,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B67" s="6">
         <v>1253</v>
@@ -35781,7 +36031,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" ref="B68:E68" si="5">SUM(B62:B67)</f>
@@ -35801,7 +36051,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H68" s="2">
         <f>SUM(H62:H67)</f>
@@ -35821,28 +36071,28 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H72" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I72" s="47"/>
       <c r="J72" s="47"/>
       <c r="K72" s="47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L72" s="47"/>
       <c r="M72" s="47"/>
       <c r="N72" s="47" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O72" s="47"/>
       <c r="P72" s="47"/>
@@ -35852,7 +36102,7 @@
         <v>40</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>42</v>
@@ -35861,7 +36111,7 @@
         <v>40</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>42</v>
@@ -35870,7 +36120,7 @@
         <v>40</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>42</v>
@@ -35879,10 +36129,10 @@
         <v>82</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -36058,7 +36308,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" ref="B80:E80" si="6">SUM(B74:B79)</f>
@@ -36078,7 +36328,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H80" s="2">
         <f>SUM(H74:H79)</f>
@@ -36105,7 +36355,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H81" s="6">
         <v>3340</v>
@@ -36149,7 +36399,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H82">
         <f>($H$80-$H$81)</f>
@@ -36179,22 +36429,22 @@
     <row r="83" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H84" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I84" s="47"/>
       <c r="J84" s="47"/>
       <c r="K84" s="47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L84" s="47"/>
       <c r="M84" s="47"/>
       <c r="N84" s="47" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O84" s="47"/>
       <c r="P84" s="47"/>
       <c r="Q84" s="47" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="R84" s="47"/>
       <c r="S84" s="47"/>
@@ -36204,7 +36454,7 @@
         <v>40</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>42</v>
@@ -36213,7 +36463,7 @@
         <v>40</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>42</v>
@@ -36222,7 +36472,7 @@
         <v>40</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>42</v>
@@ -36231,7 +36481,7 @@
         <v>40</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>42</v>
@@ -36240,15 +36490,15 @@
         <v>82</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B86" s="8">
         <v>6202</v>
@@ -36265,7 +36515,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B87">
         <v>6901</v>
@@ -36300,7 +36550,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N88">
         <v>867</v>
@@ -36323,7 +36573,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B89">
         <v>4037</v>
@@ -36340,7 +36590,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G90" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
@@ -36382,7 +36632,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B93" s="2">
         <f>SUM(B86:B89)</f>
@@ -36482,12 +36732,12 @@
     <row r="95" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H96" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I96" s="47"/>
       <c r="J96" s="47"/>
       <c r="K96" s="47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L96" s="47"/>
       <c r="M96" s="47"/>
@@ -36497,7 +36747,7 @@
         <v>40</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>42</v>
@@ -36506,7 +36756,7 @@
         <v>40</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>42</v>
@@ -36514,7 +36764,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B98">
         <v>2427</v>
@@ -36537,7 +36787,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B99">
         <v>4698</v>
@@ -36560,6 +36810,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="Q12:S12"/>
@@ -36576,27 +36847,6 @@
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="N84:P84"/>
     <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36605,11 +36855,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36619,7 +36869,7 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -36627,59 +36877,74 @@
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44393</v>
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>4500</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2">
+        <v>9350</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>1200</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F3">
         <v>4500</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>269</v>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3">
+        <v>14407</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -36687,51 +36952,33 @@
       <c r="C4">
         <v>1200</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4">
-        <v>4500</v>
-      </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I4">
-        <v>9350</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>1200</v>
       </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5">
-        <v>14407</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C6">
         <v>1200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6">
-        <v>4405</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -36741,11 +36988,11 @@
         <v>4800</v>
       </c>
       <c r="F7" s="2">
-        <f>SUM(F3:F6)</f>
+        <f>SUM($F$2:$F$6)</f>
         <v>9000</v>
       </c>
       <c r="I7" s="2">
-        <f>SUM(I4:I6)</f>
+        <f>SUM($I$2:$I$4)</f>
         <v>28162</v>
       </c>
       <c r="J7" s="2">
@@ -36757,34 +37004,26 @@
       <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="4">
-        <v>44400</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>750</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="I10">
         <v>14260</v>
@@ -36792,22 +37031,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F11">
         <v>750</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I11">
         <v>11723</v>
@@ -36815,7 +37054,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36832,10 +37071,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -36850,7 +37089,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C14" s="8">
         <v>950</v>
@@ -36863,10 +37102,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -36875,10 +37114,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C17" s="8">
         <v>200</v>
@@ -36895,16 +37134,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>750</v>
@@ -36912,16 +37151,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C21">
         <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F21">
         <v>750</v>
@@ -36929,7 +37168,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -36940,10 +37179,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -36951,10 +37190,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C24">
         <v>250</v>
@@ -36962,10 +37201,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C25">
         <v>250</v>
@@ -36976,7 +37215,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -36985,7 +37224,7 @@
         <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>750</v>
@@ -36993,16 +37232,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C28">
         <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F28">
         <v>750</v>
@@ -37010,10 +37249,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C29">
         <v>200</v>
@@ -37021,10 +37260,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C30">
         <v>200</v>
@@ -37051,40 +37290,32 @@
     <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <v>250</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33">
-        <v>1000</v>
-      </c>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>250</v>
       </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="C35">
         <v>250</v>
@@ -37092,74 +37323,85 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C36">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37">
         <v>250</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38">
-        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>250</v>
       </c>
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40">
+        <v>750</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C41">
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>276</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -37169,6 +37411,1518 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F519C0-9E9A-4E41-AA7E-8A963A2671DA}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2">
+        <v>850</v>
+      </c>
+      <c r="E2">
+        <v>2.35</v>
+      </c>
+      <c r="F2">
+        <f>($D$2*$E$2)</f>
+        <v>1997.5</v>
+      </c>
+      <c r="H2">
+        <f>($F$2)</f>
+        <v>1997.5</v>
+      </c>
+      <c r="J2">
+        <f>($H$2-$I$2)</f>
+        <v>1997.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3">
+        <v>714</v>
+      </c>
+      <c r="E3">
+        <v>2.35</v>
+      </c>
+      <c r="F3">
+        <f>(D3*E3)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="H3">
+        <f>(F3)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="J3">
+        <f>(H3-I3+J2)</f>
+        <v>3675.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4">
+        <v>2720</v>
+      </c>
+      <c r="E4">
+        <v>2.35</v>
+      </c>
+      <c r="F4">
+        <f>(D4*E4)</f>
+        <v>6392</v>
+      </c>
+      <c r="H4">
+        <f>(F4)</f>
+        <v>6392</v>
+      </c>
+      <c r="J4">
+        <f>(H4-I4+J3)</f>
+        <v>10067.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44385</v>
+      </c>
+      <c r="I5">
+        <v>9000</v>
+      </c>
+      <c r="J5">
+        <f>($H$5-$I$5+$J$4)</f>
+        <v>1067.3999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44388</v>
+      </c>
+      <c r="I6">
+        <f>($H$5-$I$5+$J$4)</f>
+        <v>1067.3999999999996</v>
+      </c>
+      <c r="J6">
+        <f>($H$6-$I$6+$J$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7">
+        <v>2720</v>
+      </c>
+      <c r="E7">
+        <v>2.35</v>
+      </c>
+      <c r="F7">
+        <f>(D7*E7)</f>
+        <v>6392</v>
+      </c>
+      <c r="H7">
+        <f>(F7)</f>
+        <v>6392</v>
+      </c>
+      <c r="J7">
+        <f>($H$7-$I$7+$J$6)</f>
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44388</v>
+      </c>
+      <c r="I8">
+        <f>($H$7-$I$7+$J$6)</f>
+        <v>6392</v>
+      </c>
+      <c r="J8">
+        <f>(H8-I8+J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44389</v>
+      </c>
+      <c r="I9">
+        <v>5289.15</v>
+      </c>
+      <c r="J9">
+        <f>(H9-I9+J8)</f>
+        <v>-5289.15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10">
+        <v>1003</v>
+      </c>
+      <c r="E10">
+        <v>2.35</v>
+      </c>
+      <c r="F10">
+        <f>(D10*E10)</f>
+        <v>2357.0500000000002</v>
+      </c>
+      <c r="H10">
+        <f>(F10)</f>
+        <v>2357.0500000000002</v>
+      </c>
+      <c r="J10" s="49">
+        <f>(H10-I10+J9)</f>
+        <v>-2932.0999999999995</v>
+      </c>
+      <c r="K10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11">
+        <v>340</v>
+      </c>
+      <c r="E11">
+        <v>2.35</v>
+      </c>
+      <c r="F11">
+        <f>(D11*E11)</f>
+        <v>799</v>
+      </c>
+      <c r="H11">
+        <f>(F11)</f>
+        <v>799</v>
+      </c>
+      <c r="J11">
+        <f>(H11-I11+J10)</f>
+        <v>-2133.0999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12">
+        <v>510</v>
+      </c>
+      <c r="E12">
+        <v>2.35</v>
+      </c>
+      <c r="F12">
+        <f>(D12*E12)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H12">
+        <f>(F12)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J12">
+        <f>(H12-I12+J11)</f>
+        <v>-934.59999999999945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13">
+        <v>612</v>
+      </c>
+      <c r="E13">
+        <v>2.35</v>
+      </c>
+      <c r="F13">
+        <f>(D13*E13)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="H13">
+        <f>(F13)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="J13">
+        <f>(H13-I13+J12)</f>
+        <v>503.60000000000059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14">
+        <v>510</v>
+      </c>
+      <c r="E14">
+        <v>2.35</v>
+      </c>
+      <c r="F14">
+        <f>(D14*E14)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H14">
+        <f>(F14)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J14">
+        <f>(H14-I14+J13)</f>
+        <v>1702.1000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>1377</v>
+      </c>
+      <c r="E15">
+        <v>2.35</v>
+      </c>
+      <c r="F15">
+        <f>(D15*E15)</f>
+        <v>3235.9500000000003</v>
+      </c>
+      <c r="H15">
+        <f>(F15)</f>
+        <v>3235.9500000000003</v>
+      </c>
+      <c r="J15">
+        <f>(H15-I15+J14)</f>
+        <v>4938.0500000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16">
+        <v>306</v>
+      </c>
+      <c r="E16">
+        <v>2.35</v>
+      </c>
+      <c r="F16">
+        <f>(D16*E16)</f>
+        <v>719.1</v>
+      </c>
+      <c r="H16">
+        <f>(F16)</f>
+        <v>719.1</v>
+      </c>
+      <c r="J16">
+        <f>(H16-I16+J15)</f>
+        <v>5657.1500000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44393</v>
+      </c>
+      <c r="I17">
+        <v>4000</v>
+      </c>
+      <c r="J17">
+        <f>(H17-I17+J16)</f>
+        <v>1657.1500000000015</v>
+      </c>
+      <c r="K17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18">
+        <v>1360</v>
+      </c>
+      <c r="E18">
+        <v>2.35</v>
+      </c>
+      <c r="F18">
+        <f>(D18*E18)</f>
+        <v>3196</v>
+      </c>
+      <c r="H18">
+        <f>(F18)</f>
+        <v>3196</v>
+      </c>
+      <c r="J18">
+        <f>(H18-I18+J17)</f>
+        <v>4853.1500000000015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44394</v>
+      </c>
+      <c r="I19">
+        <v>20000</v>
+      </c>
+      <c r="J19">
+        <f>(H19-I19+J18)</f>
+        <v>-15146.849999999999</v>
+      </c>
+      <c r="K19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20">
+        <v>510</v>
+      </c>
+      <c r="E20">
+        <v>2.35</v>
+      </c>
+      <c r="F20">
+        <f>(D20*E20)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H20">
+        <f>(F20)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J20">
+        <f>(H20-I20+J19)</f>
+        <v>-13948.349999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21">
+        <v>714</v>
+      </c>
+      <c r="E21">
+        <v>2.35</v>
+      </c>
+      <c r="F21">
+        <f>(D21*E21)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="H21">
+        <f>(F21)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="J21">
+        <f>(H21-I21+J20)</f>
+        <v>-12270.449999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22">
+        <v>510</v>
+      </c>
+      <c r="E22">
+        <v>2.35</v>
+      </c>
+      <c r="F22">
+        <f>(D22*E22)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H22">
+        <f>(F22)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J22">
+        <f>(H22-I22+J21)</f>
+        <v>-11071.949999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23">
+        <v>731</v>
+      </c>
+      <c r="E23">
+        <v>2.35</v>
+      </c>
+      <c r="F23">
+        <f>(D23*E23)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="H23">
+        <f>(F23)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="J23">
+        <f>(H23-I23+J22)</f>
+        <v>-9354.0999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24">
+        <v>561</v>
+      </c>
+      <c r="E24">
+        <v>2.35</v>
+      </c>
+      <c r="F24">
+        <f>(D24*E24)</f>
+        <v>1318.3500000000001</v>
+      </c>
+      <c r="H24">
+        <f>(F24)</f>
+        <v>1318.3500000000001</v>
+      </c>
+      <c r="J24">
+        <f>(H24-I24+J23)</f>
+        <v>-8035.7499999999982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25">
+        <v>910</v>
+      </c>
+      <c r="E25">
+        <v>2.35</v>
+      </c>
+      <c r="F25">
+        <f>(D25*E25)</f>
+        <v>2138.5</v>
+      </c>
+      <c r="H25">
+        <f>(F25)</f>
+        <v>2138.5</v>
+      </c>
+      <c r="J25">
+        <f>(H25-I25+J24)</f>
+        <v>-5897.2499999999982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26">
+        <v>731</v>
+      </c>
+      <c r="E26">
+        <v>2.35</v>
+      </c>
+      <c r="F26">
+        <f>(D26*E26)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="H26">
+        <f>(F26)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="J26">
+        <f>(H26-I26+J25)</f>
+        <v>-4179.3999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27">
+        <v>680</v>
+      </c>
+      <c r="E27">
+        <v>2.35</v>
+      </c>
+      <c r="F27">
+        <f>(D27*E27)</f>
+        <v>1598</v>
+      </c>
+      <c r="H27">
+        <f>(F27)</f>
+        <v>1598</v>
+      </c>
+      <c r="J27">
+        <f>(H27-I27+J26)</f>
+        <v>-2581.3999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28">
+        <v>425</v>
+      </c>
+      <c r="E28">
+        <v>2.35</v>
+      </c>
+      <c r="F28">
+        <f>(D28*E28)</f>
+        <v>998.75</v>
+      </c>
+      <c r="H28">
+        <f>(F28)</f>
+        <v>998.75</v>
+      </c>
+      <c r="J28">
+        <f>(H28-I28+J27)</f>
+        <v>-1582.6499999999978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29">
+        <v>1020</v>
+      </c>
+      <c r="E29">
+        <v>2.35</v>
+      </c>
+      <c r="F29">
+        <f>(D29*E29)</f>
+        <v>2397</v>
+      </c>
+      <c r="H29">
+        <f>(F29)</f>
+        <v>2397</v>
+      </c>
+      <c r="J29">
+        <f>(H29-I29+J28)</f>
+        <v>814.35000000000218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30">
+        <v>731</v>
+      </c>
+      <c r="E30">
+        <v>2.35</v>
+      </c>
+      <c r="F30">
+        <f>(D30*E30)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="H30">
+        <f>(F30)</f>
+        <v>1717.8500000000001</v>
+      </c>
+      <c r="J30">
+        <f>(H30-I30+J29)</f>
+        <v>2532.2000000000025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31">
+        <v>561</v>
+      </c>
+      <c r="E31">
+        <v>2.35</v>
+      </c>
+      <c r="F31">
+        <f>(D31*E31)</f>
+        <v>1318.3500000000001</v>
+      </c>
+      <c r="H31">
+        <f>(F31)</f>
+        <v>1318.3500000000001</v>
+      </c>
+      <c r="J31">
+        <f>(H31-I31+J30)</f>
+        <v>3850.5500000000029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32">
+        <v>306</v>
+      </c>
+      <c r="E32">
+        <v>2.35</v>
+      </c>
+      <c r="F32">
+        <f>(D32*E32)</f>
+        <v>719.1</v>
+      </c>
+      <c r="H32">
+        <f>(F32)</f>
+        <v>719.1</v>
+      </c>
+      <c r="J32">
+        <f>(H32-I32+J31)</f>
+        <v>4569.6500000000033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33">
+        <v>408</v>
+      </c>
+      <c r="E33">
+        <v>2.35</v>
+      </c>
+      <c r="F33">
+        <f>(D33*E33)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="H33">
+        <f>(F33)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="J33">
+        <f>(H33-I33+J32)</f>
+        <v>5528.4500000000035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34">
+        <v>1156</v>
+      </c>
+      <c r="E34">
+        <v>2.35</v>
+      </c>
+      <c r="F34">
+        <f>(D34*E34)</f>
+        <v>2716.6</v>
+      </c>
+      <c r="H34">
+        <f>(F34)</f>
+        <v>2716.6</v>
+      </c>
+      <c r="J34">
+        <f>(H34-I34+J33)</f>
+        <v>8245.0500000000029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35">
+        <v>510</v>
+      </c>
+      <c r="E35">
+        <v>2.35</v>
+      </c>
+      <c r="F35">
+        <f>(D35*E35)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H35">
+        <f>(F35)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J35">
+        <f>(H35-I35+J34)</f>
+        <v>9443.5500000000029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36">
+        <v>204</v>
+      </c>
+      <c r="E36">
+        <v>2.35</v>
+      </c>
+      <c r="F36">
+        <f>(D36*E36)</f>
+        <v>479.40000000000003</v>
+      </c>
+      <c r="H36">
+        <f>(F36)</f>
+        <v>479.40000000000003</v>
+      </c>
+      <c r="J36">
+        <f>(H36-I36+J35)</f>
+        <v>9922.9500000000025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37">
+        <v>340</v>
+      </c>
+      <c r="E37">
+        <v>2.35</v>
+      </c>
+      <c r="F37">
+        <f>(D37*E37)</f>
+        <v>799</v>
+      </c>
+      <c r="H37">
+        <f>(F37)</f>
+        <v>799</v>
+      </c>
+      <c r="J37">
+        <f>(H37-I37+J36)</f>
+        <v>10721.950000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>2.35</v>
+      </c>
+      <c r="F38">
+        <f>(D38*E38)</f>
+        <v>199.75</v>
+      </c>
+      <c r="H38">
+        <f>(F38)</f>
+        <v>199.75</v>
+      </c>
+      <c r="J38">
+        <f>(H38-I38+J37)</f>
+        <v>10921.700000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39">
+        <v>221</v>
+      </c>
+      <c r="E39">
+        <v>2.35</v>
+      </c>
+      <c r="F39">
+        <f>(D39*E39)</f>
+        <v>519.35</v>
+      </c>
+      <c r="H39">
+        <f>(F39)</f>
+        <v>519.35</v>
+      </c>
+      <c r="J39">
+        <f>(H39-I39+J38)</f>
+        <v>11441.050000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40">
+        <v>680</v>
+      </c>
+      <c r="E40">
+        <v>2.35</v>
+      </c>
+      <c r="F40">
+        <f>(D40*E40)</f>
+        <v>1598</v>
+      </c>
+      <c r="H40">
+        <f>(F40)</f>
+        <v>1598</v>
+      </c>
+      <c r="J40">
+        <f>(H40-I40+J39)</f>
+        <v>13039.050000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41">
+        <v>408</v>
+      </c>
+      <c r="E41">
+        <v>2.35</v>
+      </c>
+      <c r="F41">
+        <f>(D41*E41)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="H41">
+        <f>(F41)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="J41">
+        <f>(H41-I41+J40)</f>
+        <v>13997.850000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42">
+        <v>748</v>
+      </c>
+      <c r="E42">
+        <v>2.35</v>
+      </c>
+      <c r="F42">
+        <f>(D42*E42)</f>
+        <v>1757.8</v>
+      </c>
+      <c r="H42">
+        <f>(F42)</f>
+        <v>1757.8</v>
+      </c>
+      <c r="J42">
+        <f>(H42-I42+J41)</f>
+        <v>15755.650000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43">
+        <v>629</v>
+      </c>
+      <c r="E43">
+        <v>2.35</v>
+      </c>
+      <c r="F43">
+        <f>(D43*E43)</f>
+        <v>1478.15</v>
+      </c>
+      <c r="H43">
+        <f>(F43)</f>
+        <v>1478.15</v>
+      </c>
+      <c r="J43">
+        <f>(H43-I43+J42)</f>
+        <v>17233.800000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44">
+        <v>799</v>
+      </c>
+      <c r="E44">
+        <v>2.35</v>
+      </c>
+      <c r="F44">
+        <f>(D44*E44)</f>
+        <v>1877.65</v>
+      </c>
+      <c r="H44">
+        <f>(F44)</f>
+        <v>1877.65</v>
+      </c>
+      <c r="J44">
+        <f>(H44-I44+J43)</f>
+        <v>19111.450000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>2.35</v>
+      </c>
+      <c r="F45">
+        <f>(D45*E45)</f>
+        <v>599.25</v>
+      </c>
+      <c r="H45">
+        <f>(F45)</f>
+        <v>599.25</v>
+      </c>
+      <c r="J45">
+        <f>(H45-I45+J44)</f>
+        <v>19710.700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>2.35</v>
+      </c>
+      <c r="F46">
+        <f>(D46*E46)</f>
+        <v>599.25</v>
+      </c>
+      <c r="H46">
+        <f>(F46)</f>
+        <v>599.25</v>
+      </c>
+      <c r="J46">
+        <f>(H46-I46+J45)</f>
+        <v>20309.950000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47">
+        <v>748</v>
+      </c>
+      <c r="E47">
+        <v>2.35</v>
+      </c>
+      <c r="F47">
+        <f>(D47*E47)</f>
+        <v>1757.8</v>
+      </c>
+      <c r="H47">
+        <f>(F47)</f>
+        <v>1757.8</v>
+      </c>
+      <c r="J47">
+        <f>(H47-I47+J46)</f>
+        <v>22067.750000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44400</v>
+      </c>
+      <c r="I48">
+        <v>10000</v>
+      </c>
+      <c r="J48">
+        <f>(H48-I48+J47)</f>
+        <v>12067.750000000004</v>
+      </c>
+      <c r="K48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49">
+        <v>408</v>
+      </c>
+      <c r="E49">
+        <v>2.35</v>
+      </c>
+      <c r="F49">
+        <f>(D49*E49)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="H49">
+        <f>(F49)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="J49">
+        <f>(H49-I49+J48)</f>
+        <v>13026.550000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50">
+        <v>459</v>
+      </c>
+      <c r="E50">
+        <v>2.35</v>
+      </c>
+      <c r="F50">
+        <f>(D50*E50)</f>
+        <v>1078.6500000000001</v>
+      </c>
+      <c r="H50">
+        <f>(F50)</f>
+        <v>1078.6500000000001</v>
+      </c>
+      <c r="J50">
+        <f>(H50-I50+J49)</f>
+        <v>14105.200000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51">
+        <v>799</v>
+      </c>
+      <c r="E51">
+        <v>2.35</v>
+      </c>
+      <c r="F51">
+        <f>(D51*E51)</f>
+        <v>1877.65</v>
+      </c>
+      <c r="H51">
+        <f>(F51)</f>
+        <v>1877.65</v>
+      </c>
+      <c r="J51">
+        <f>(H51-I51+J50)</f>
+        <v>15982.850000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52">
+        <v>1020</v>
+      </c>
+      <c r="E52">
+        <v>2.35</v>
+      </c>
+      <c r="F52">
+        <f>(D52*E52)</f>
+        <v>2397</v>
+      </c>
+      <c r="H52">
+        <f>(F52)</f>
+        <v>2397</v>
+      </c>
+      <c r="J52">
+        <f>(H52-I52+J51)</f>
+        <v>18379.850000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53">
+        <v>119</v>
+      </c>
+      <c r="E53">
+        <v>2.35</v>
+      </c>
+      <c r="F53">
+        <f>(D53*E53)</f>
+        <v>279.65000000000003</v>
+      </c>
+      <c r="H53">
+        <f>(F53)</f>
+        <v>279.65000000000003</v>
+      </c>
+      <c r="J53">
+        <f>(H53-I53+J52)</f>
+        <v>18659.500000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B54" t="s">
+        <v>296</v>
+      </c>
+      <c r="C54" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54">
+        <v>272</v>
+      </c>
+      <c r="E54">
+        <v>2.35</v>
+      </c>
+      <c r="F54">
+        <f>(D54*E54)</f>
+        <v>639.20000000000005</v>
+      </c>
+      <c r="H54">
+        <f>(F54)</f>
+        <v>639.20000000000005</v>
+      </c>
+      <c r="J54">
+        <f>(H54-I54+J53)</f>
+        <v>19298.700000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55">
+        <v>612</v>
+      </c>
+      <c r="E55">
+        <v>2.35</v>
+      </c>
+      <c r="F55">
+        <f>(D55*E55)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="H55">
+        <f>(F55)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="J55">
+        <f>(H55-I55+J54)</f>
+        <v>20736.900000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56">
+        <v>714</v>
+      </c>
+      <c r="E56">
+        <v>2.35</v>
+      </c>
+      <c r="F56">
+        <f>(D56*E56)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="H56">
+        <f>(F56)</f>
+        <v>1677.9</v>
+      </c>
+      <c r="J56">
+        <f>(H56-I56+J55)</f>
+        <v>22414.800000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57">
+        <v>901</v>
+      </c>
+      <c r="E57">
+        <v>2.35</v>
+      </c>
+      <c r="F57">
+        <f>(D57*E57)</f>
+        <v>2117.35</v>
+      </c>
+      <c r="H57">
+        <f>(F57)</f>
+        <v>2117.35</v>
+      </c>
+      <c r="J57">
+        <f>(H57-I57+J56)</f>
+        <v>24532.150000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58">
+        <v>204</v>
+      </c>
+      <c r="E58">
+        <v>2.35</v>
+      </c>
+      <c r="F58">
+        <f>(D58*E58)</f>
+        <v>479.40000000000003</v>
+      </c>
+      <c r="H58">
+        <f>(F58)</f>
+        <v>479.40000000000003</v>
+      </c>
+      <c r="J58">
+        <f>(H58-I58+J57)</f>
+        <v>25011.550000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44403</v>
+      </c>
+      <c r="I59">
+        <v>41545</v>
+      </c>
+      <c r="J59">
+        <f>(H59-I59+J58)</f>
+        <v>-16533.449999999993</v>
+      </c>
+      <c r="K59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J5" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F270D6F7-0D6A-4A75-AA4F-0021C3FDDED5}">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -37905,7 +39659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC8C8AC-A6EE-446F-B4F8-1534444C3A46}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -37924,10 +39678,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -37935,7 +39689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C3A4D-AFBD-4AD5-B2DB-741DA471BB89}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -38387,7 +40141,7 @@
         <v>44384</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -38477,7 +40231,7 @@
         <v>44387</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -38533,7 +40287,7 @@
         <v>44390</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -38547,7 +40301,7 @@
         <v>44391</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
@@ -38592,7 +40346,7 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>70000</v>
@@ -38645,7 +40399,7 @@
         <v>44394</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -38659,7 +40413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601663CF-CCB7-4C86-A880-A44006FEDBE7}">
   <dimension ref="A1:E52"/>
   <sheetViews>
@@ -38703,7 +40457,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -38720,7 +40474,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -38796,7 +40550,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>5000</v>
@@ -38875,7 +40629,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>5000</v>
@@ -38906,7 +40660,7 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -39402,7 +41156,7 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E50">
         <v>12000</v>
@@ -39435,213 +41189,6 @@
       <c r="E52">
         <v>15000</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D277C11-66A6-460E-A32C-33352BFB7673}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>44333</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3">
-        <v>29657.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>44344</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>44351</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44354</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>44357</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>44362</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <v>52540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>44372</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13">
-        <v>26910</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2B7B8-C73B-431B-8BEB-686D10201D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A943CEE-0781-4B7D-9983-D46A1F620777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="321">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -777,9 +777,6 @@
     <t>OSMAN ALKAN</t>
   </si>
   <si>
-    <t>KURTULUŞ DİNÇ</t>
-  </si>
-  <si>
     <t>BORÇ</t>
   </si>
   <si>
@@ -999,12 +996,6 @@
     <t>BAHATTİN ADSIZ</t>
   </si>
   <si>
-    <t>Değişen Toplam</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
     <t>GENEL_TOPLAM</t>
   </si>
   <si>
@@ -1221,16 +1212,23 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1245,10 +1243,13 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,22 +1261,12 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,11 +1583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
   <dimension ref="A1:BQ502"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B488" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D499" sqref="D499"/>
+      <selection pane="bottomRight" activeCell="M492" sqref="M492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,90 +1657,90 @@
         <v>159</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="35" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
       <c r="T1" s="38" t="s">
         <v>213</v>
       </c>
       <c r="U1" s="38"/>
       <c r="V1" s="38"/>
       <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="42" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="40" t="s">
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="35" t="s">
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="36" t="s">
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
       <c r="AZ1" s="38" t="s">
         <v>203</v>
       </c>
       <c r="BA1" s="38"/>
       <c r="BB1" s="38"/>
       <c r="BC1" s="38"/>
-      <c r="BD1" s="39" t="s">
+      <c r="BD1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="43" t="s">
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="44" t="s">
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +2112,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I5">
         <v>3500.85</v>
@@ -2579,7 +2570,7 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I11">
         <v>3014.4</v>
@@ -3205,7 +3196,7 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I19">
         <v>3909.75</v>
@@ -4036,7 +4027,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4611,7 +4602,7 @@
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5637,7 +5628,7 @@
         <v>138</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -6595,7 +6586,7 @@
         <v>142</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -7565,7 +7556,7 @@
         <v>145</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -8796,7 +8787,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -9856,7 +9847,7 @@
         <v>153</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -10715,7 +10706,7 @@
         <v>156</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="15"/>
@@ -11574,7 +11565,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -12447,7 +12438,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -13224,7 +13215,7 @@
         <v>162</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -13997,7 +13988,7 @@
         <v>163</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -14957,7 +14948,7 @@
         <v>165</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -16279,7 +16270,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -17337,7 +17328,7 @@
         <v>169</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -18209,7 +18200,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -19268,7 +19259,7 @@
         <v>171</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -20131,7 +20122,7 @@
         <v>175</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -20900,7 +20891,7 @@
         <v>180</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -21578,7 +21569,7 @@
         <v>181</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -22438,7 +22429,7 @@
         <v>183</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -23208,7 +23199,7 @@
         <v>185</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -24248,7 +24239,7 @@
         <v>186</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -24928,7 +24919,7 @@
         <v>187</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -25608,7 +25599,7 @@
         <v>188</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -26198,7 +26189,7 @@
         <v>190</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -27238,7 +27229,7 @@
         <v>191</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -27920,7 +27911,7 @@
         <v>192</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -28786,7 +28777,7 @@
         <v>193</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -29563,7 +29554,7 @@
         <v>194</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -30715,7 +30706,7 @@
         <v>195</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -31585,7 +31576,7 @@
         <v>199</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -32278,7 +32269,7 @@
         <v>19</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I360">
         <v>8774.25</v>
@@ -32671,7 +32662,7 @@
         <v>20</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I368">
         <v>7451.2</v>
@@ -33112,7 +33103,7 @@
         <v>24</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I378">
         <v>10113.75</v>
@@ -33477,7 +33468,7 @@
         <v>27</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I386">
         <v>5961.3</v>
@@ -33818,7 +33809,7 @@
         <v>29</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I396">
         <v>9131.4500000000007</v>
@@ -34199,7 +34190,7 @@
         <v>38</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I408" s="7">
         <v>8358.2999999999993</v>
@@ -34678,7 +34669,7 @@
         <v>90</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I422">
         <v>19524.7</v>
@@ -35175,7 +35166,7 @@
         <v>177</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I439">
         <v>19217.349999999999</v>
@@ -35420,7 +35411,7 @@
         <v>220</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I450">
         <v>11786.95</v>
@@ -35466,10 +35457,10 @@
     </row>
     <row r="455" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B455" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D455">
         <v>486</v>
@@ -35500,10 +35491,10 @@
     </row>
     <row r="456" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B456" t="s">
         <v>247</v>
-      </c>
-      <c r="B456" t="s">
-        <v>248</v>
       </c>
       <c r="D456">
         <v>48</v>
@@ -35528,7 +35519,7 @@
     </row>
     <row r="457" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B457" t="s">
         <v>14</v>
@@ -35556,10 +35547,10 @@
     </row>
     <row r="458" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B458" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D458">
         <v>759</v>
@@ -35584,7 +35575,7 @@
     </row>
     <row r="459" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B459" t="s">
         <v>117</v>
@@ -35612,7 +35603,7 @@
     </row>
     <row r="460" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B460" t="s">
         <v>117</v>
@@ -35640,7 +35631,7 @@
     </row>
     <row r="461" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -35668,10 +35659,10 @@
     </row>
     <row r="462" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B462" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H462" s="6"/>
       <c r="I462">
@@ -35728,7 +35719,7 @@
     </row>
     <row r="466" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B466" t="s">
         <v>140</v>
@@ -35771,7 +35762,7 @@
     </row>
     <row r="467" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B467" t="s">
         <v>28</v>
@@ -35814,7 +35805,7 @@
     </row>
     <row r="468" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B468" t="s">
         <v>8</v>
@@ -35846,7 +35837,7 @@
     </row>
     <row r="469" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B469" t="s">
         <v>26</v>
@@ -35877,7 +35868,7 @@
     </row>
     <row r="470" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B470" t="s">
         <v>117</v>
@@ -35908,7 +35899,7 @@
     </row>
     <row r="471" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B471" t="s">
         <v>217</v>
@@ -35939,10 +35930,10 @@
     </row>
     <row r="472" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B472" t="s">
         <v>251</v>
-      </c>
-      <c r="B472" t="s">
-        <v>252</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -35970,10 +35961,10 @@
     </row>
     <row r="473" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B473" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
@@ -36001,7 +35992,7 @@
     </row>
     <row r="474" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B474" t="s">
         <v>14</v>
@@ -36032,7 +36023,7 @@
     </row>
     <row r="475" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B475" t="s">
         <v>22</v>
@@ -36063,7 +36054,7 @@
     </row>
     <row r="476" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B476" t="s">
         <v>15</v>
@@ -36094,7 +36085,7 @@
     </row>
     <row r="477" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B477" t="s">
         <v>15</v>
@@ -36125,10 +36116,10 @@
     </row>
     <row r="478" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B478" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I478">
         <v>13790.3</v>
@@ -36183,7 +36174,7 @@
     </row>
     <row r="482" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B482" t="s">
         <v>22</v>
@@ -36214,7 +36205,7 @@
     </row>
     <row r="483" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
@@ -36245,7 +36236,7 @@
     </row>
     <row r="484" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B484" t="s">
         <v>31</v>
@@ -36276,10 +36267,10 @@
     </row>
     <row r="485" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B485" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -36307,7 +36298,7 @@
     </row>
     <row r="486" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B486" t="s">
         <v>26</v>
@@ -36338,7 +36329,7 @@
     </row>
     <row r="487" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B487" t="s">
         <v>215</v>
@@ -36369,7 +36360,7 @@
     </row>
     <row r="488" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B488" t="s">
         <v>28</v>
@@ -36400,7 +36391,7 @@
     </row>
     <row r="489" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B489" t="s">
         <v>15</v>
@@ -36431,10 +36422,10 @@
     </row>
     <row r="490" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B490" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I490">
         <v>17450</v>
@@ -36477,7 +36468,7 @@
     <row r="493" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="494" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B494" t="s">
         <v>8</v>
@@ -36511,7 +36502,7 @@
     </row>
     <row r="495" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>14</v>
@@ -36542,15 +36533,38 @@
     </row>
     <row r="496" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="C496" t="s">
+        <v>9</v>
+      </c>
+      <c r="D496">
+        <v>779</v>
+      </c>
+      <c r="E496">
+        <v>3220</v>
+      </c>
+      <c r="F496">
+        <v>320</v>
+      </c>
+      <c r="G496">
+        <f>(E496-F496)</f>
+        <v>2900</v>
+      </c>
+      <c r="H496">
+        <v>7.5</v>
+      </c>
+      <c r="I496">
+        <f>(G496*H496)</f>
+        <v>21750</v>
+      </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B497" s="8" t="s">
         <v>26</v>
@@ -36581,12 +36595,14 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B498" t="s">
-        <v>307</v>
-      </c>
-      <c r="I498" s="14"/>
+        <v>306</v>
+      </c>
+      <c r="I498" s="14">
+        <v>8253.15</v>
+      </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B499" s="2" t="s">
@@ -36594,24 +36610,24 @@
       </c>
       <c r="D499" s="2">
         <f t="shared" ref="D499:I499" si="114">SUM(D494:D498)</f>
-        <v>1350</v>
+        <v>2129</v>
       </c>
       <c r="E499" s="2">
         <f t="shared" si="114"/>
-        <v>8562</v>
+        <v>11782</v>
       </c>
       <c r="F499" s="2">
         <f t="shared" si="114"/>
-        <v>1278</v>
+        <v>1598</v>
       </c>
       <c r="G499" s="2">
         <f t="shared" si="114"/>
-        <v>7284</v>
+        <v>10184</v>
       </c>
       <c r="H499" s="2"/>
       <c r="I499" s="2">
         <f t="shared" si="114"/>
-        <v>46026</v>
+        <v>76029.149999999994</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.35">
@@ -36620,12 +36636,12 @@
       </c>
       <c r="H500" s="2">
         <f>(I499/G499)</f>
-        <v>6.3187808896210873</v>
+        <v>7.465548900235663</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B502" t="s">
         <v>14</v>
@@ -36656,11 +36672,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -36670,6 +36681,11 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36681,8 +36697,8 @@
   <dimension ref="A1:M353"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D358" sqref="D358"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L350" sqref="L350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36712,7 +36728,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -36722,7 +36738,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>129</v>
@@ -36731,7 +36747,7 @@
         <v>232</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -36739,7 +36755,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="8">
         <v>200</v>
@@ -36827,7 +36843,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="8">
         <f>(D6*E6)</f>
@@ -36849,7 +36865,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -36891,7 +36907,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="8">
         <v>200</v>
@@ -36979,7 +36995,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="8">
         <f>(D13*E13)</f>
@@ -37001,7 +37017,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
@@ -37043,7 +37059,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -37131,7 +37147,7 @@
         <v>113</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="8">
         <f>(D20*E20)</f>
@@ -37153,7 +37169,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -37195,7 +37211,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="8">
         <v>200</v>
@@ -37283,7 +37299,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="8">
         <f>(D27*E27)</f>
@@ -37305,7 +37321,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -37347,7 +37363,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" s="8">
         <v>200</v>
@@ -37435,7 +37451,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" s="8">
         <f>(D34*E34)</f>
@@ -37457,7 +37473,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -37513,7 +37529,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C38" s="8">
         <v>200</v>
@@ -37601,7 +37617,7 @@
         <v>138</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C42" s="8">
         <f>(D42*E42)</f>
@@ -37623,7 +37639,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -37665,7 +37681,7 @@
         <v>142</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="8">
         <v>200</v>
@@ -37753,7 +37769,7 @@
         <v>142</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C49" s="8">
         <f>(D49*E49)</f>
@@ -37775,7 +37791,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -37817,7 +37833,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C52" s="8">
         <v>200</v>
@@ -37905,7 +37921,7 @@
         <v>145</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C56" s="8">
         <f>(D56*E56)</f>
@@ -37927,7 +37943,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -37969,7 +37985,7 @@
         <v>149</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C59" s="8">
         <v>200</v>
@@ -38057,7 +38073,7 @@
         <v>149</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C63" s="8">
         <f>(D63*E63)</f>
@@ -38079,7 +38095,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2">
@@ -38121,7 +38137,7 @@
         <v>153</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C66" s="8">
         <v>200</v>
@@ -38209,7 +38225,7 @@
         <v>153</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C70" s="8">
         <f>(D70*E70)</f>
@@ -38231,7 +38247,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2">
@@ -38273,7 +38289,7 @@
         <v>156</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C73" s="8">
         <v>200</v>
@@ -38361,7 +38377,7 @@
         <v>156</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C77" s="8">
         <f>(D77*E77)</f>
@@ -38383,7 +38399,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2">
@@ -38439,7 +38455,7 @@
         <v>158</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C81" s="8">
         <v>200</v>
@@ -38527,7 +38543,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C85" s="8">
         <f>(D85*E85)</f>
@@ -38549,7 +38565,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="2">
@@ -38591,7 +38607,7 @@
         <v>160</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C88" s="8">
         <v>200</v>
@@ -38679,7 +38695,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C92" s="8">
         <f>(D92*E92)</f>
@@ -38701,7 +38717,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="2">
@@ -38743,7 +38759,7 @@
         <v>162</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C95" s="8">
         <v>200</v>
@@ -38831,7 +38847,7 @@
         <v>162</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C99" s="8">
         <f>(D99*E99)</f>
@@ -38853,7 +38869,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="2">
@@ -38895,7 +38911,7 @@
         <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="8">
         <v>200</v>
@@ -38983,7 +38999,7 @@
         <v>163</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C106" s="8">
         <f>(D106*E106)</f>
@@ -39005,7 +39021,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="2">
@@ -39047,7 +39063,7 @@
         <v>165</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C109" s="8">
         <v>200</v>
@@ -39135,7 +39151,7 @@
         <v>165</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C113" s="8">
         <f>(D113*E113)</f>
@@ -39157,7 +39173,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="2">
@@ -39199,7 +39215,7 @@
         <v>167</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C116" s="8">
         <v>200</v>
@@ -39287,7 +39303,7 @@
         <v>167</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C120" s="8">
         <f>(D120*E120)</f>
@@ -39309,7 +39325,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="2">
@@ -39365,7 +39381,7 @@
         <v>169</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C124" s="8">
         <v>200</v>
@@ -39453,7 +39469,7 @@
         <v>169</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C128" s="8">
         <f>(D128*E128)</f>
@@ -39475,7 +39491,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="2">
@@ -39517,7 +39533,7 @@
         <v>170</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C131" s="8">
         <v>200</v>
@@ -39605,7 +39621,7 @@
         <v>170</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C135" s="8">
         <f>(D135*E135)</f>
@@ -39627,7 +39643,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="2">
@@ -39669,7 +39685,7 @@
         <v>171</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C138" s="8">
         <v>200</v>
@@ -39757,7 +39773,7 @@
         <v>171</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" s="8">
         <f>(D142*E142)</f>
@@ -39779,7 +39795,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="2">
@@ -39821,7 +39837,7 @@
         <v>175</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C145" s="8">
         <v>200</v>
@@ -39909,7 +39925,7 @@
         <v>175</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C149" s="8">
         <f>(D149*E149)</f>
@@ -39931,7 +39947,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="2">
@@ -39973,7 +39989,7 @@
         <v>180</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C152" s="8">
         <v>200</v>
@@ -40061,7 +40077,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C156" s="8">
         <f>(D156*E156)</f>
@@ -40083,7 +40099,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="2">
@@ -40125,7 +40141,7 @@
         <v>181</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C159" s="8">
         <v>200</v>
@@ -40213,7 +40229,7 @@
         <v>181</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C163" s="8">
         <f>(D163*E163)</f>
@@ -40235,7 +40251,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="2">
@@ -40291,7 +40307,7 @@
         <v>183</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C167" s="8">
         <v>200</v>
@@ -40379,7 +40395,7 @@
         <v>183</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C171" s="8">
         <f>(D171*E171)</f>
@@ -40401,7 +40417,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="2">
@@ -40443,7 +40459,7 @@
         <v>185</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C174" s="8">
         <v>200</v>
@@ -40531,7 +40547,7 @@
         <v>185</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C178" s="8">
         <f>(D178*E178)</f>
@@ -40553,7 +40569,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="2">
@@ -40595,7 +40611,7 @@
         <v>186</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C181" s="8">
         <v>200</v>
@@ -40683,7 +40699,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C185" s="8">
         <f>(D185*E185)</f>
@@ -40705,7 +40721,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="2">
@@ -40747,7 +40763,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C188" s="8">
         <v>200</v>
@@ -40835,7 +40851,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C192" s="8">
         <f>(D192*E192)</f>
@@ -40857,7 +40873,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="2">
@@ -40899,7 +40915,7 @@
         <v>188</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C195" s="8">
         <v>200</v>
@@ -40987,7 +41003,7 @@
         <v>188</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C199" s="8">
         <f>(D199*E199)</f>
@@ -41009,7 +41025,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="2">
@@ -41051,7 +41067,7 @@
         <v>190</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C202" s="8">
         <v>200</v>
@@ -41139,7 +41155,7 @@
         <v>190</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C206" s="8">
         <f>(D206*E206)</f>
@@ -41161,7 +41177,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="2">
@@ -41217,7 +41233,7 @@
         <v>191</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C210" s="8">
         <v>200</v>
@@ -41305,7 +41321,7 @@
         <v>191</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" s="8">
         <f>(D214*E214)</f>
@@ -41327,7 +41343,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="2">
@@ -41369,7 +41385,7 @@
         <v>192</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="8">
         <v>200</v>
@@ -41457,7 +41473,7 @@
         <v>192</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C221" s="8">
         <f>(D221*E221)</f>
@@ -41479,7 +41495,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="2">
@@ -41521,7 +41537,7 @@
         <v>193</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C224" s="8">
         <v>200</v>
@@ -41609,7 +41625,7 @@
         <v>193</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C228" s="8">
         <f>(D228*E228)</f>
@@ -41631,7 +41647,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="2">
@@ -41673,7 +41689,7 @@
         <v>194</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C231" s="8">
         <v>200</v>
@@ -41761,7 +41777,7 @@
         <v>194</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C235" s="8">
         <f>(D235*E235)</f>
@@ -41783,7 +41799,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="2">
@@ -41825,7 +41841,7 @@
         <v>195</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C238" s="8">
         <v>200</v>
@@ -41913,7 +41929,7 @@
         <v>195</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C242" s="8">
         <f>(D242*E242)</f>
@@ -41935,7 +41951,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="2">
@@ -41977,7 +41993,7 @@
         <v>199</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C245" s="8">
         <v>200</v>
@@ -42065,7 +42081,7 @@
         <v>199</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C249" s="8">
         <f>(D249*E249)</f>
@@ -42087,7 +42103,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="2">
@@ -42143,7 +42159,7 @@
         <v>19</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C253" s="8">
         <v>200</v>
@@ -42231,7 +42247,7 @@
         <v>19</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C257" s="8">
         <f>(D257*E257)</f>
@@ -42253,7 +42269,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="2">
@@ -42295,7 +42311,7 @@
         <v>20</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C260" s="8">
         <v>200</v>
@@ -42383,7 +42399,7 @@
         <v>20</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C264" s="8">
         <f>(D264*E264)</f>
@@ -42405,7 +42421,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="2">
@@ -42444,10 +42460,10 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C267" s="8">
         <v>200</v>
@@ -42468,7 +42484,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>121</v>
@@ -42492,7 +42508,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>73</v>
@@ -42512,7 +42528,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>122</v>
@@ -42532,10 +42548,10 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C271" s="8">
         <f>(D271*E271)</f>
@@ -42557,7 +42573,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="2">
@@ -42596,10 +42612,10 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C274" s="8">
         <v>200</v>
@@ -42620,7 +42636,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>121</v>
@@ -42644,7 +42660,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>73</v>
@@ -42664,7 +42680,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>122</v>
@@ -42684,10 +42700,10 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C278" s="8">
         <f>(D278*E278)</f>
@@ -42709,7 +42725,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="2">
@@ -42748,10 +42764,10 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C281" s="8">
         <v>200</v>
@@ -42772,7 +42788,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>121</v>
@@ -42796,7 +42812,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>73</v>
@@ -42816,7 +42832,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>122</v>
@@ -42836,10 +42852,10 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C285" s="8">
         <f>(D285*E285)</f>
@@ -42861,7 +42877,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="2">
@@ -42899,10 +42915,10 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C288" s="8">
         <v>200</v>
@@ -42927,7 +42943,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>121</v>
@@ -42955,7 +42971,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>73</v>
@@ -42979,7 +42995,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>122</v>
@@ -42999,10 +43015,10 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C292" s="8">
         <f>(D292*E292)</f>
@@ -43024,7 +43040,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="2">
@@ -43049,7 +43065,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="2"/>
@@ -43092,7 +43108,7 @@
         <v>176</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C296" s="8">
         <v>200</v>
@@ -43208,7 +43224,7 @@
         <v>176</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C301" s="8">
         <f>(D301*E301)</f>
@@ -43230,7 +43246,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="2">
@@ -43309,7 +43325,7 @@
     </row>
     <row r="306" spans="1:13" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B306" s="15"/>
       <c r="C306" s="13">
@@ -43471,7 +43487,7 @@
         <v>177</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" s="8">
         <f>(D314*E314)</f>
@@ -43493,7 +43509,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="2">
@@ -43631,7 +43647,7 @@
         <v>220</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" s="8">
         <f>(D321*E321)</f>
@@ -43653,7 +43669,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="2">
@@ -43715,7 +43731,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B325" t="s">
         <v>73</v>
@@ -43732,7 +43748,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B326" t="s">
         <v>122</v>
@@ -43743,7 +43759,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B327" t="s">
         <v>234</v>
@@ -43754,7 +43770,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B328" t="s">
         <v>236</v>
@@ -43765,10 +43781,10 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B329" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C329">
         <f>(D329*E329)</f>
@@ -43783,7 +43799,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C330" s="2">
         <f>SUM(C325:C329)</f>
@@ -43800,18 +43816,18 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="30"/>
-      <c r="B331" s="53"/>
-      <c r="C331" s="53"/>
-      <c r="D331" s="53"/>
-      <c r="E331" s="53"/>
-      <c r="F331" s="53"/>
-      <c r="G331" s="53"/>
-      <c r="H331" s="53"/>
-      <c r="I331" s="53"/>
+      <c r="B331" s="35"/>
+      <c r="C331" s="35"/>
+      <c r="D331" s="35"/>
+      <c r="E331" s="35"/>
+      <c r="F331" s="35"/>
+      <c r="G331" s="35"/>
+      <c r="H331" s="35"/>
+      <c r="I331" s="35"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B332" t="s">
         <v>73</v>
@@ -43828,7 +43844,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B333" t="s">
         <v>122</v>
@@ -43845,7 +43861,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B334" t="s">
         <v>234</v>
@@ -43856,7 +43872,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B335" t="s">
         <v>236</v>
@@ -43867,10 +43883,10 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C336">
         <f>(D336*E336)</f>
@@ -43885,7 +43901,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C337" s="2">
         <f>SUM(C332:C336)</f>
@@ -43903,18 +43919,18 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="30"/>
-      <c r="B338" s="53"/>
-      <c r="C338" s="53"/>
-      <c r="D338" s="53"/>
-      <c r="E338" s="53"/>
-      <c r="F338" s="53"/>
-      <c r="G338" s="53"/>
-      <c r="H338" s="53"/>
-      <c r="I338" s="53"/>
+      <c r="B338" s="35"/>
+      <c r="C338" s="35"/>
+      <c r="D338" s="35"/>
+      <c r="E338" s="35"/>
+      <c r="F338" s="35"/>
+      <c r="G338" s="35"/>
+      <c r="H338" s="35"/>
+      <c r="I338" s="35"/>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B339" t="s">
         <v>73</v>
@@ -43931,7 +43947,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B340" t="s">
         <v>122</v>
@@ -43940,7 +43956,7 @@
         <v>250</v>
       </c>
       <c r="G340" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H340">
         <v>2000</v>
@@ -43948,7 +43964,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B341" t="s">
         <v>234</v>
@@ -43957,7 +43973,7 @@
         <v>250</v>
       </c>
       <c r="G341" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H341">
         <v>350</v>
@@ -43965,7 +43981,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B342" t="s">
         <v>236</v>
@@ -43982,10 +43998,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B343" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C343" s="8">
         <f>(D343*E343)</f>
@@ -44006,7 +44022,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C344" s="2">
         <f>SUM(C339:C343)</f>
@@ -44024,18 +44040,18 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="30"/>
-      <c r="B345" s="53"/>
+      <c r="B345" s="35"/>
       <c r="C345" s="30"/>
       <c r="D345" s="30"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="53"/>
-      <c r="G345" s="53"/>
+      <c r="E345" s="35"/>
+      <c r="F345" s="35"/>
+      <c r="G345" s="35"/>
       <c r="H345" s="30"/>
       <c r="I345" s="30"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B346" t="s">
         <v>73</v>
@@ -44052,7 +44068,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B347" t="s">
         <v>122</v>
@@ -44069,7 +44085,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B348" t="s">
         <v>234</v>
@@ -44086,7 +44102,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B349" t="s">
         <v>236</v>
@@ -44097,15 +44113,29 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B350" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="C350">
+        <f>(D350*E350)</f>
+        <v>5003.1500000000005</v>
+      </c>
+      <c r="D350">
+        <v>2129</v>
+      </c>
+      <c r="E350">
+        <v>2.35</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="C351" s="2">
+        <f>SUM(C346:C350)</f>
+        <v>6003.1500000000005</v>
       </c>
       <c r="H351" s="2">
         <f>SUM(H346:H350)</f>
@@ -44113,23 +44143,23 @@
       </c>
       <c r="I351" s="2">
         <f>(C351+H351)</f>
-        <v>2250</v>
+        <v>8253.1500000000015</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="30"/>
       <c r="B352" s="30"/>
-      <c r="C352" s="53"/>
-      <c r="D352" s="53"/>
-      <c r="E352" s="53"/>
-      <c r="F352" s="53"/>
-      <c r="G352" s="53"/>
-      <c r="H352" s="53"/>
+      <c r="C352" s="35"/>
+      <c r="D352" s="35"/>
+      <c r="E352" s="35"/>
+      <c r="F352" s="35"/>
+      <c r="G352" s="35"/>
+      <c r="H352" s="35"/>
       <c r="I352" s="30"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B353" s="2"/>
     </row>
@@ -44141,10 +44171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:CA11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44164,119 +44194,112 @@
     <col min="61" max="61" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="U1" s="42" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="U1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Z1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AE1" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AO1" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AT1" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AY1" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BD1" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BI1" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Z1" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AE1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AJ1" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AO1" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AT1" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AY1" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BD1" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BI1" s="48" t="s">
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BN1" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BN1" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BS1" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BX1" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-    </row>
-    <row r="2" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BS1" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+    </row>
+    <row r="2" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>221</v>
@@ -44285,10 +44308,10 @@
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>221</v>
@@ -44297,10 +44320,10 @@
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>221</v>
@@ -44309,10 +44332,10 @@
         <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>221</v>
@@ -44321,10 +44344,10 @@
         <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>221</v>
@@ -44333,10 +44356,10 @@
         <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>221</v>
@@ -44345,10 +44368,10 @@
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>221</v>
@@ -44357,10 +44380,10 @@
         <v>59</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>221</v>
@@ -44369,10 +44392,10 @@
         <v>59</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>221</v>
@@ -44381,10 +44404,10 @@
         <v>59</v>
       </c>
       <c r="AU2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>221</v>
@@ -44393,10 +44416,10 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>221</v>
@@ -44405,10 +44428,10 @@
         <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>221</v>
@@ -44417,10 +44440,10 @@
         <v>59</v>
       </c>
       <c r="BJ2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>221</v>
@@ -44429,10 +44452,10 @@
         <v>59</v>
       </c>
       <c r="BO2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>221</v>
@@ -44441,28 +44464,16 @@
         <v>59</v>
       </c>
       <c r="BT2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="BX2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>38000</v>
       </c>
@@ -44567,68 +44578,58 @@
         <f>(AU3-AV3)</f>
         <v>23310</v>
       </c>
+      <c r="AY3" s="1">
+        <v>44402</v>
+      </c>
       <c r="AZ3">
-        <v>8110</v>
-      </c>
-      <c r="BA3">
-        <v>1000</v>
+        <v>1624</v>
       </c>
       <c r="BB3">
         <f>(AZ3-BA3)</f>
-        <v>7110</v>
+        <v>1624</v>
       </c>
       <c r="BD3" s="1">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="BE3">
-        <v>1624</v>
+        <v>1050</v>
       </c>
       <c r="BG3">
         <f>(BE3-BF3)</f>
-        <v>1624</v>
+        <v>1050</v>
       </c>
       <c r="BI3" s="1">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="BJ3">
-        <v>1050</v>
+        <v>9200</v>
       </c>
       <c r="BL3">
         <f>(BJ3-BK3)</f>
-        <v>1050</v>
+        <v>9200</v>
       </c>
       <c r="BN3" s="1">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="BO3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="BQ3">
         <f>(BO3-BP3)</f>
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="BS3" s="1">
         <v>44403</v>
       </c>
       <c r="BT3">
-        <v>9000</v>
+        <v>21404</v>
       </c>
       <c r="BV3">
         <f>(BT3-BU3)</f>
-        <v>9000</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>44403</v>
-      </c>
-      <c r="BY3">
         <v>21404</v>
       </c>
-      <c r="CA3">
-        <f>(BY3-BZ3)</f>
-        <v>21404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44402</v>
       </c>
@@ -44649,7 +44650,7 @@
         <v>28512</v>
       </c>
       <c r="I4">
-        <f>(G4-H4+I3)</f>
+        <f t="shared" ref="I4:I9" si="0">(G4-H4+I3)</f>
         <v>57162</v>
       </c>
       <c r="K4" s="1">
@@ -44659,7 +44660,7 @@
         <v>18461</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N9" si="0">(L4-M4+N3)</f>
+        <f t="shared" ref="N4:N9" si="1">(L4-M4+N3)</f>
         <v>34758</v>
       </c>
       <c r="P4" s="1">
@@ -44702,38 +44703,38 @@
         <f>(AU4-AV4+AW3)</f>
         <v>17185</v>
       </c>
-      <c r="AY4" s="1">
-        <v>44406</v>
-      </c>
-      <c r="BA4">
-        <v>7110</v>
-      </c>
-      <c r="BB4">
-        <f>(AZ4-BA4+BB3)</f>
-        <v>0</v>
+      <c r="BD4" s="1">
+        <v>44404</v>
+      </c>
+      <c r="BE4">
+        <v>10950</v>
+      </c>
+      <c r="BG4">
+        <f>(BE4-BF4+BG3)</f>
+        <v>12000</v>
       </c>
       <c r="BI4" s="1">
-        <v>44404</v>
-      </c>
-      <c r="BJ4">
-        <v>10950</v>
+        <v>44407</v>
+      </c>
+      <c r="BK4">
+        <v>8000</v>
       </c>
       <c r="BL4">
         <f>(BJ4-BK4+BL3)</f>
-        <v>12000</v>
-      </c>
-      <c r="BX4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="BS4" s="1">
         <v>44405</v>
       </c>
-      <c r="BZ4">
+      <c r="BU4">
         <v>10000</v>
       </c>
-      <c r="CA4">
-        <f>(BY4-BZ4+CA3)</f>
+      <c r="BV4">
+        <f>(BT4-BU4+BV3)</f>
         <v>11404</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44403</v>
       </c>
@@ -44751,7 +44752,7 @@
         <v>18790</v>
       </c>
       <c r="I5">
-        <f>(G5-H5+I4)</f>
+        <f t="shared" si="0"/>
         <v>75952</v>
       </c>
       <c r="K5" s="1">
@@ -44764,7 +44765,7 @@
         <v>15000</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41758</v>
       </c>
       <c r="P5" s="1">
@@ -44798,7 +44799,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44404</v>
       </c>
@@ -44816,7 +44817,7 @@
         <v>11840</v>
       </c>
       <c r="I6">
-        <f>(G6-H6+I5)</f>
+        <f t="shared" si="0"/>
         <v>87792</v>
       </c>
       <c r="K6" s="1">
@@ -44829,8 +44830,31 @@
         <v>19500</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31093</v>
+      </c>
+      <c r="P6" s="1">
+        <v>44407</v>
+      </c>
+      <c r="R6">
+        <v>12000</v>
+      </c>
+      <c r="S6">
+        <f>(Q6-R6+S5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>44405</v>
+      </c>
+      <c r="AF6">
+        <v>21750</v>
+      </c>
+      <c r="AG6">
+        <v>20000</v>
+      </c>
+      <c r="AH6">
+        <f>(AF6-AG6+AH5)</f>
+        <v>75364</v>
       </c>
       <c r="AO6" s="1">
         <v>44404</v>
@@ -44846,7 +44870,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44405</v>
       </c>
@@ -44867,7 +44891,7 @@
         <v>1400</v>
       </c>
       <c r="I7">
-        <f>(G7-H7+I6)</f>
+        <f t="shared" si="0"/>
         <v>89682</v>
       </c>
       <c r="K7" s="1">
@@ -44877,11 +44901,11 @@
         <v>14000</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45093</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="F8" s="1">
         <v>44405</v>
       </c>
@@ -44892,7 +44916,7 @@
         <v>30000</v>
       </c>
       <c r="I8">
-        <f>(G8-H8+I7)</f>
+        <f t="shared" si="0"/>
         <v>80406</v>
       </c>
       <c r="K8" s="1">
@@ -44902,11 +44926,11 @@
         <v>1950</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47043</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="F9" s="1">
         <v>44406</v>
       </c>
@@ -44914,7 +44938,7 @@
         <v>2560</v>
       </c>
       <c r="I9">
-        <f>(G9-H9+I8)</f>
+        <f t="shared" si="0"/>
         <v>82966</v>
       </c>
       <c r="K9" s="1">
@@ -44927,11 +44951,11 @@
         <v>30000</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46093</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="F10" s="1"/>
       <c r="K10" s="1">
         <v>44405</v>
@@ -44944,7 +44968,7 @@
         <v>70093</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="K11" s="1">
         <v>44406</v>
       </c>
@@ -44957,7 +44981,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="U1:X1"/>
@@ -44967,13 +44997,6 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BD1:BG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44981,10 +45004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781AA57-6247-4A4F-9752-70CC607DC978}">
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A73" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45013,21 +45036,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -45241,36 +45264,36 @@
     </row>
     <row r="11" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51" t="s">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51" t="s">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51" t="s">
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
       <c r="Z12" s="23" t="s">
         <v>82</v>
       </c>
@@ -45553,51 +45576,51 @@
     </row>
     <row r="23" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52" t="s">
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52" t="s">
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52" t="s">
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52" t="s">
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52" t="s">
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52" t="s">
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52" t="s">
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52" t="s">
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
     </row>
     <row r="25" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="13" t="s">
@@ -45942,36 +45965,36 @@
     </row>
     <row r="35" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52" t="s">
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52" t="s">
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52" t="s">
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52" t="s">
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52" t="s">
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
     </row>
     <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H37" s="13" t="s">
@@ -46252,16 +46275,16 @@
     </row>
     <row r="47" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51" t="s">
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H49" s="2" t="s">
@@ -46485,21 +46508,21 @@
     </row>
     <row r="59" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="52" t="s">
+      <c r="H60" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52" t="s">
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52" t="s">
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H61" s="2" t="s">
@@ -46738,21 +46761,21 @@
     </row>
     <row r="71" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H72" s="51" t="s">
+      <c r="H72" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51" t="s">
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51" t="s">
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
     </row>
     <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
@@ -47085,26 +47108,26 @@
     </row>
     <row r="83" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H84" s="51" t="s">
+      <c r="H84" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51" t="s">
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51" t="s">
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51" t="s">
+      <c r="O84" s="52"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
+      <c r="R84" s="52"/>
+      <c r="S84" s="52"/>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
@@ -47388,16 +47411,16 @@
     </row>
     <row r="95" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51" t="s">
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
     </row>
     <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
@@ -47421,7 +47444,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B98">
         <v>2427</v>
@@ -47444,7 +47467,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B99">
         <v>4698</v>
@@ -47467,7 +47490,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100">
         <v>4057</v>
@@ -47482,8 +47505,49 @@
         <v>102596.3</v>
       </c>
     </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101">
+        <v>2129</v>
+      </c>
+      <c r="C101">
+        <v>11782</v>
+      </c>
+      <c r="D101">
+        <v>10184</v>
+      </c>
+      <c r="E101">
+        <v>76029.149999999994</v>
+      </c>
+      <c r="K101">
+        <v>893</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="Q12:S12"/>
@@ -47500,27 +47564,6 @@
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="N84:P84"/>
     <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47551,7 +47594,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>120</v>
@@ -47560,25 +47603,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -47612,10 +47655,10 @@
         <v>44385</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3">
         <v>714</v>
@@ -47641,7 +47684,7 @@
         <v>44385</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4">
         <v>2720</v>
@@ -47692,7 +47735,7 @@
         <v>44388</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7">
         <v>2720</v>
@@ -47738,12 +47781,12 @@
         <v>-5289.15</v>
       </c>
       <c r="K9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
@@ -47767,7 +47810,7 @@
         <v>-2932.0999999999995</v>
       </c>
       <c r="K10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -47775,7 +47818,7 @@
         <v>44390</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11">
         <v>340</v>
@@ -47801,7 +47844,7 @@
         <v>44390</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>510</v>
@@ -47827,7 +47870,7 @@
         <v>44391</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13">
         <v>612</v>
@@ -47853,7 +47896,7 @@
         <v>44391</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14">
         <v>510</v>
@@ -47905,7 +47948,7 @@
         <v>44392</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16">
         <v>306</v>
@@ -47938,7 +47981,7 @@
         <v>1657.1500000000015</v>
       </c>
       <c r="K17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -47979,7 +48022,7 @@
         <v>-15146.849999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -47987,7 +48030,7 @@
         <v>44394</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20">
         <v>510</v>
@@ -48013,7 +48056,7 @@
         <v>44394</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21">
         <v>714</v>
@@ -48039,7 +48082,7 @@
         <v>44394</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22">
         <v>510</v>
@@ -48065,7 +48108,7 @@
         <v>44394</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23">
         <v>731</v>
@@ -48091,7 +48134,7 @@
         <v>44395</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24">
         <v>561</v>
@@ -48117,7 +48160,7 @@
         <v>44395</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25">
         <v>910</v>
@@ -48143,7 +48186,7 @@
         <v>44395</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26">
         <v>731</v>
@@ -48169,7 +48212,7 @@
         <v>44398</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27">
         <v>680</v>
@@ -48195,7 +48238,7 @@
         <v>44398</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D28">
         <v>425</v>
@@ -48221,7 +48264,7 @@
         <v>44398</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29">
         <v>1020</v>
@@ -48247,7 +48290,7 @@
         <v>44398</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D30">
         <v>731</v>
@@ -48273,7 +48316,7 @@
         <v>44398</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D31">
         <v>561</v>
@@ -48299,7 +48342,7 @@
         <v>44398</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D32">
         <v>306</v>
@@ -48325,7 +48368,7 @@
         <v>44398</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D33">
         <v>408</v>
@@ -48351,7 +48394,7 @@
         <v>44398</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D34">
         <v>1156</v>
@@ -48377,10 +48420,10 @@
         <v>44399</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D35">
         <v>510</v>
@@ -48406,7 +48449,7 @@
         <v>44399</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36">
         <v>204</v>
@@ -48429,13 +48472,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" t="s">
         <v>281</v>
       </c>
-      <c r="B37" t="s">
-        <v>282</v>
-      </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37">
         <v>340</v>
@@ -48461,10 +48504,10 @@
         <v>44399</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D38">
         <v>85</v>
@@ -48490,10 +48533,10 @@
         <v>44399</v>
       </c>
       <c r="B39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D39">
         <v>221</v>
@@ -48519,7 +48562,7 @@
         <v>44399</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40">
         <v>680</v>
@@ -48545,10 +48588,10 @@
         <v>44399</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41">
         <v>408</v>
@@ -48574,7 +48617,7 @@
         <v>44399</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42">
         <v>748</v>
@@ -48600,7 +48643,7 @@
         <v>44399</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43">
         <v>629</v>
@@ -48626,7 +48669,7 @@
         <v>44399</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D44">
         <v>799</v>
@@ -48652,10 +48695,10 @@
         <v>44400</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45">
         <v>255</v>
@@ -48681,7 +48724,7 @@
         <v>44400</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
         <v>223</v>
@@ -48710,10 +48753,10 @@
         <v>44400</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47">
         <v>748</v>
@@ -48746,7 +48789,7 @@
         <v>12067.750000000004</v>
       </c>
       <c r="K48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -48754,10 +48797,10 @@
         <v>44401</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D49">
         <v>408</v>
@@ -48783,7 +48826,7 @@
         <v>44401</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D50">
         <v>459</v>
@@ -48809,10 +48852,10 @@
         <v>44401</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51">
         <v>799</v>
@@ -48838,7 +48881,7 @@
         <v>44401</v>
       </c>
       <c r="B52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52">
         <v>1020</v>
@@ -48864,7 +48907,7 @@
         <v>44402</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D53">
         <v>119</v>
@@ -48890,10 +48933,10 @@
         <v>44402</v>
       </c>
       <c r="B54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D54">
         <v>272</v>
@@ -48919,7 +48962,7 @@
         <v>44402</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D55">
         <v>612</v>
@@ -48945,10 +48988,10 @@
         <v>44402</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D56">
         <v>714</v>
@@ -48974,7 +49017,7 @@
         <v>44402</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D57">
         <v>901</v>
@@ -49000,7 +49043,7 @@
         <v>44402</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58">
         <v>204</v>
@@ -49033,7 +49076,7 @@
         <v>-16533.449999999993</v>
       </c>
       <c r="K59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A943CEE-0781-4B7D-9983-D46A1F620777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439F91A-2725-4F85-9668-DE9B2CF1EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
@@ -1213,22 +1213,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1243,13 +1237,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1258,7 +1249,16 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:BQ502"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M492" sqref="M492"/>
@@ -1657,90 +1657,90 @@
         <v>159</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="41" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="43" t="s">
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="40" t="s">
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="39" t="s">
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="42" t="s">
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="36" t="s">
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="37" t="s">
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="45"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
@@ -36672,6 +36672,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -36681,11 +36686,6 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44173,8 +44173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
   <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44197,99 +44197,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="U1" s="45" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Z1" s="37" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Z1" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AE1" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AJ1" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AO1" s="47" t="s">
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AO1" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AT1" s="50" t="s">
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AT1" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AY1" s="39" t="s">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AY1" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BD1" s="47" t="s">
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BD1" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BI1" s="46" t="s">
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BI1" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BN1" s="51" t="s">
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BN1" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BS1" s="49" t="s">
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BS1" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
+      <c r="BT1" s="46"/>
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46"/>
     </row>
     <row r="2" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -44673,6 +44673,16 @@
         <f>(Q4-R4+S3)</f>
         <v>37000</v>
       </c>
+      <c r="U4" s="1">
+        <v>44408</v>
+      </c>
+      <c r="W4">
+        <v>10000</v>
+      </c>
+      <c r="X4">
+        <f>(V4-W4+X3)</f>
+        <v>10300</v>
+      </c>
       <c r="AE4" s="1">
         <v>44403</v>
       </c>
@@ -44797,6 +44807,26 @@
       <c r="AR5">
         <f>(AR4+AP5-AQ5)</f>
         <v>43837</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>44408</v>
+      </c>
+      <c r="AV5">
+        <v>10000</v>
+      </c>
+      <c r="AW5">
+        <f>(AU5-AV5+AW4)</f>
+        <v>7185</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>44408</v>
+      </c>
+      <c r="BF5">
+        <v>5000</v>
+      </c>
+      <c r="BG5">
+        <f>(BE5-BF5+BG4)</f>
+        <v>7000</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.35">
@@ -44982,12 +45012,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="U1:X1"/>
@@ -44997,6 +45021,12 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="P1:S1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47527,6 +47557,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="K96:M96"/>
     <mergeCell ref="Z24:AB24"/>
@@ -47543,27 +47594,6 @@
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="T24:V24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="Q84:S84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439F91A-2725-4F85-9668-DE9B2CF1EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FC769-E470-4A65-9F9A-016E006D77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="321">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -855,9 +855,6 @@
     <t>35 LEC 21</t>
   </si>
   <si>
-    <t>9 TL FARKLI</t>
-  </si>
-  <si>
     <t>35 AUD 236</t>
   </si>
   <si>
@@ -1010,6 +1007,9 @@
   <si>
     <t xml:space="preserve">BAYRAM ADSIZ </t>
   </si>
+  <si>
+    <t>1.8.2021/PAZAR</t>
+  </si>
 </sst>
 </file>
 
@@ -1156,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1213,16 +1213,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1237,10 +1246,13 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1249,16 +1261,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1581,13 +1584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BQ502"/>
+  <dimension ref="A1:BQ506"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B491" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B488" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M492" sqref="M492"/>
+      <selection pane="bottomRight" activeCell="A506" sqref="A506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,90 +1660,90 @@
         <v>159</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="36" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
       <c r="T1" s="39" t="s">
         <v>213</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
       <c r="W1" s="39"/>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="43" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="42" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="41" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="36" t="s">
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
       <c r="AZ1" s="39" t="s">
         <v>203</v>
       </c>
       <c r="BA1" s="39"/>
       <c r="BB1" s="39"/>
       <c r="BC1" s="39"/>
-      <c r="BD1" s="40" t="s">
+      <c r="BD1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="44" t="s">
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="45" t="s">
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
       <c r="BP1" s="2" t="s">
         <v>82</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I5">
         <v>3500.85</v>
@@ -2570,7 +2573,7 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11">
         <v>3014.4</v>
@@ -3196,7 +3199,7 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I19">
         <v>3909.75</v>
@@ -4027,7 +4030,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4327,7 +4330,7 @@
       <c r="BO32" s="11"/>
       <c r="BP32" s="2"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>134</v>
       </c>
@@ -4417,7 +4420,7 @@
       <c r="BO33" s="11"/>
       <c r="BP33" s="2"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>134</v>
       </c>
@@ -4507,7 +4510,7 @@
       <c r="BO34" s="11"/>
       <c r="BP34" s="2"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
@@ -4597,12 +4600,12 @@
       <c r="BO35" s="11"/>
       <c r="BP35" s="2"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4673,7 +4676,7 @@
       <c r="BO36" s="29"/>
       <c r="BP36" s="2"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="BO37" s="11"/>
       <c r="BP37" s="2"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
@@ -4833,78 +4836,77 @@
       <c r="BO38" s="11"/>
       <c r="BP38" s="2"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="18"/>
-      <c r="BE39" s="18"/>
-      <c r="BF39" s="18"/>
-      <c r="BG39" s="18"/>
-      <c r="BH39" s="18"/>
-      <c r="BI39" s="18"/>
-      <c r="BJ39" s="18"/>
-      <c r="BK39" s="18"/>
-      <c r="BL39" s="18"/>
-      <c r="BM39" s="18"/>
-      <c r="BN39" s="18"/>
-      <c r="BO39" s="18"/>
-      <c r="BP39" s="10"/>
-      <c r="BQ39" s="9"/>
-    </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39" s="36"/>
+      <c r="BF39" s="36"/>
+      <c r="BG39" s="36"/>
+      <c r="BH39" s="36"/>
+      <c r="BI39" s="36"/>
+      <c r="BJ39" s="36"/>
+      <c r="BK39" s="36"/>
+      <c r="BL39" s="36"/>
+      <c r="BM39" s="36"/>
+      <c r="BN39" s="36"/>
+      <c r="BO39" s="36"/>
+      <c r="BP39" s="31"/>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="8" t="s">
         <v>9</v>
@@ -4993,7 +4995,7 @@
       <c r="BO40" s="11"/>
       <c r="BP40" s="2"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -5083,7 +5085,7 @@
       <c r="BO41" s="11"/>
       <c r="BP41" s="2"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -5173,7 +5175,7 @@
       <c r="BO42" s="11"/>
       <c r="BP42" s="2"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>138</v>
       </c>
@@ -5263,7 +5265,7 @@
       <c r="BO43" s="11"/>
       <c r="BP43" s="2"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>138</v>
       </c>
@@ -5353,7 +5355,7 @@
       <c r="BO44" s="11"/>
       <c r="BP44" s="2"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
@@ -5443,7 +5445,7 @@
       <c r="BO45" s="11"/>
       <c r="BP45" s="2"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>138</v>
       </c>
@@ -5533,7 +5535,7 @@
       <c r="BO46" s="11"/>
       <c r="BP46" s="2"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -5623,12 +5625,12 @@
       <c r="BO47" s="11"/>
       <c r="BP47" s="2"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -6586,7 +6588,7 @@
         <v>142</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -7556,7 +7558,7 @@
         <v>145</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -8787,7 +8789,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -9847,7 +9849,7 @@
         <v>153</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -9918,7 +9920,7 @@
       <c r="BO96" s="29"/>
       <c r="BP96" s="2"/>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B97" s="2" t="s">
         <v>17</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B98" s="2" t="s">
         <v>18</v>
       </c>
@@ -10090,7 +10092,7 @@
       <c r="BO98" s="11"/>
       <c r="BP98" s="2"/>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -10159,7 +10161,7 @@
       <c r="BO99" s="11"/>
       <c r="BP99" s="2"/>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>156</v>
       </c>
@@ -10251,7 +10253,7 @@
       <c r="BO100" s="11"/>
       <c r="BP100" s="2"/>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>156</v>
       </c>
@@ -10341,7 +10343,7 @@
       <c r="BO101" s="11"/>
       <c r="BP101" s="2"/>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>156</v>
       </c>
@@ -10431,7 +10433,7 @@
       <c r="BO102" s="11"/>
       <c r="BP102" s="2"/>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>156</v>
       </c>
@@ -10521,7 +10523,7 @@
       <c r="BO103" s="11"/>
       <c r="BP103" s="2"/>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>156</v>
       </c>
@@ -10611,7 +10613,7 @@
       <c r="BO104" s="11"/>
       <c r="BP104" s="2"/>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>156</v>
       </c>
@@ -10701,12 +10703,12 @@
       <c r="BO105" s="11"/>
       <c r="BP105" s="2"/>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="15"/>
@@ -10777,7 +10779,7 @@
       <c r="BO106" s="29"/>
       <c r="BP106" s="2"/>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B108" s="2" t="s">
         <v>18</v>
       </c>
@@ -10941,78 +10943,77 @@
       <c r="BO108" s="11"/>
       <c r="BP108" s="2"/>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-      <c r="AM109" s="10"/>
-      <c r="AN109" s="10"/>
-      <c r="AO109" s="10"/>
-      <c r="AP109" s="10"/>
-      <c r="AQ109" s="10"/>
-      <c r="AR109" s="10"/>
-      <c r="AS109" s="10"/>
-      <c r="AT109" s="10"/>
-      <c r="AU109" s="10"/>
-      <c r="AV109" s="10"/>
-      <c r="AW109" s="10"/>
-      <c r="AX109" s="10"/>
-      <c r="AY109" s="10"/>
-      <c r="AZ109" s="10"/>
-      <c r="BA109" s="10"/>
-      <c r="BB109" s="10"/>
-      <c r="BC109" s="10"/>
-      <c r="BD109" s="18"/>
-      <c r="BE109" s="18"/>
-      <c r="BF109" s="18"/>
-      <c r="BG109" s="18"/>
-      <c r="BH109" s="18"/>
-      <c r="BI109" s="18"/>
-      <c r="BJ109" s="18"/>
-      <c r="BK109" s="18"/>
-      <c r="BL109" s="18"/>
-      <c r="BM109" s="18"/>
-      <c r="BN109" s="18"/>
-      <c r="BO109" s="18"/>
-      <c r="BP109" s="10"/>
-      <c r="BQ109" s="9"/>
-    </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:68" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
+      <c r="R109" s="31"/>
+      <c r="S109" s="31"/>
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
+      <c r="V109" s="31"/>
+      <c r="W109" s="31"/>
+      <c r="X109" s="31"/>
+      <c r="Y109" s="31"/>
+      <c r="Z109" s="31"/>
+      <c r="AA109" s="31"/>
+      <c r="AB109" s="31"/>
+      <c r="AC109" s="31"/>
+      <c r="AD109" s="31"/>
+      <c r="AE109" s="31"/>
+      <c r="AF109" s="31"/>
+      <c r="AG109" s="31"/>
+      <c r="AH109" s="31"/>
+      <c r="AI109" s="31"/>
+      <c r="AJ109" s="31"/>
+      <c r="AK109" s="31"/>
+      <c r="AL109" s="31"/>
+      <c r="AM109" s="31"/>
+      <c r="AN109" s="31"/>
+      <c r="AO109" s="31"/>
+      <c r="AP109" s="31"/>
+      <c r="AQ109" s="31"/>
+      <c r="AR109" s="31"/>
+      <c r="AS109" s="31"/>
+      <c r="AT109" s="31"/>
+      <c r="AU109" s="31"/>
+      <c r="AV109" s="31"/>
+      <c r="AW109" s="31"/>
+      <c r="AX109" s="31"/>
+      <c r="AY109" s="31"/>
+      <c r="AZ109" s="31"/>
+      <c r="BA109" s="31"/>
+      <c r="BB109" s="31"/>
+      <c r="BC109" s="31"/>
+      <c r="BD109" s="36"/>
+      <c r="BE109" s="36"/>
+      <c r="BF109" s="36"/>
+      <c r="BG109" s="36"/>
+      <c r="BH109" s="36"/>
+      <c r="BI109" s="36"/>
+      <c r="BJ109" s="36"/>
+      <c r="BK109" s="36"/>
+      <c r="BL109" s="36"/>
+      <c r="BM109" s="36"/>
+      <c r="BN109" s="36"/>
+      <c r="BO109" s="36"/>
+      <c r="BP109" s="31"/>
+    </row>
+    <row r="110" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>158</v>
       </c>
@@ -11110,7 +11111,7 @@
       <c r="BO110" s="11"/>
       <c r="BP110" s="2"/>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>158</v>
       </c>
@@ -11200,7 +11201,7 @@
       <c r="BO111" s="11"/>
       <c r="BP111" s="2"/>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>158</v>
       </c>
@@ -11565,7 +11566,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -12438,7 +12439,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -13215,7 +13216,7 @@
         <v>162</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -13988,7 +13989,7 @@
         <v>163</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -14948,7 +14949,7 @@
         <v>165</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -15455,7 +15456,7 @@
       <c r="BO160" s="11"/>
       <c r="BP160" s="2"/>
     </row>
-    <row r="161" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>167</v>
       </c>
@@ -15545,7 +15546,7 @@
       <c r="BO161" s="11"/>
       <c r="BP161" s="2"/>
     </row>
-    <row r="162" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>167</v>
       </c>
@@ -15635,7 +15636,7 @@
       <c r="BO162" s="11"/>
       <c r="BP162" s="2"/>
     </row>
-    <row r="163" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>167</v>
       </c>
@@ -15725,7 +15726,7 @@
       <c r="BO163" s="11"/>
       <c r="BP163" s="2"/>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>167</v>
       </c>
@@ -15815,7 +15816,7 @@
       <c r="BO164" s="11"/>
       <c r="BP164" s="2"/>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -15905,7 +15906,7 @@
       <c r="BO165" s="11"/>
       <c r="BP165" s="2"/>
     </row>
-    <row r="166" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15996,7 @@
       <c r="BO166" s="11"/>
       <c r="BP166" s="2"/>
     </row>
-    <row r="167" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -16085,7 +16086,7 @@
       <c r="BO167" s="11"/>
       <c r="BP167" s="2"/>
     </row>
-    <row r="168" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -16175,7 +16176,7 @@
       <c r="BO168" s="11"/>
       <c r="BP168" s="2"/>
     </row>
-    <row r="169" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -16265,12 +16266,12 @@
       <c r="BO169" s="11"/>
       <c r="BP169" s="2"/>
     </row>
-    <row r="170" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -16341,7 +16342,7 @@
       <c r="BO170" s="29"/>
       <c r="BP170" s="2"/>
     </row>
-    <row r="171" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B171" s="2" t="s">
         <v>17</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="172" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B172" s="2" t="s">
         <v>18</v>
       </c>
@@ -16514,78 +16515,77 @@
       <c r="BO172" s="11"/>
       <c r="BP172" s="2"/>
     </row>
-    <row r="173" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
-      <c r="O173" s="10"/>
-      <c r="P173" s="10"/>
-      <c r="Q173" s="10"/>
-      <c r="R173" s="10"/>
-      <c r="S173" s="10"/>
-      <c r="T173" s="10"/>
-      <c r="U173" s="10"/>
-      <c r="V173" s="10"/>
-      <c r="W173" s="10"/>
-      <c r="X173" s="10"/>
-      <c r="Y173" s="10"/>
-      <c r="Z173" s="10"/>
-      <c r="AA173" s="10"/>
-      <c r="AB173" s="10"/>
-      <c r="AC173" s="10"/>
-      <c r="AD173" s="10"/>
-      <c r="AE173" s="10"/>
-      <c r="AF173" s="10"/>
-      <c r="AG173" s="10"/>
-      <c r="AH173" s="10"/>
-      <c r="AI173" s="10"/>
-      <c r="AJ173" s="10"/>
-      <c r="AK173" s="10"/>
-      <c r="AL173" s="10"/>
-      <c r="AM173" s="10"/>
-      <c r="AN173" s="10"/>
-      <c r="AO173" s="10"/>
-      <c r="AP173" s="10"/>
-      <c r="AQ173" s="10"/>
-      <c r="AR173" s="10"/>
-      <c r="AS173" s="10"/>
-      <c r="AT173" s="10"/>
-      <c r="AU173" s="10"/>
-      <c r="AV173" s="10"/>
-      <c r="AW173" s="10"/>
-      <c r="AX173" s="10"/>
-      <c r="AY173" s="10"/>
-      <c r="AZ173" s="10"/>
-      <c r="BA173" s="10"/>
-      <c r="BB173" s="10"/>
-      <c r="BC173" s="10"/>
-      <c r="BD173" s="18"/>
-      <c r="BE173" s="18"/>
-      <c r="BF173" s="18"/>
-      <c r="BG173" s="18"/>
-      <c r="BH173" s="18"/>
-      <c r="BI173" s="18"/>
-      <c r="BJ173" s="18"/>
-      <c r="BK173" s="18"/>
-      <c r="BL173" s="18"/>
-      <c r="BM173" s="18"/>
-      <c r="BN173" s="18"/>
-      <c r="BO173" s="18"/>
-      <c r="BP173" s="10"/>
-      <c r="BQ173" s="9"/>
-    </row>
-    <row r="174" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:68" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="31"/>
+      <c r="M173" s="31"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="31"/>
+      <c r="P173" s="31"/>
+      <c r="Q173" s="31"/>
+      <c r="R173" s="31"/>
+      <c r="S173" s="31"/>
+      <c r="T173" s="31"/>
+      <c r="U173" s="31"/>
+      <c r="V173" s="31"/>
+      <c r="W173" s="31"/>
+      <c r="X173" s="31"/>
+      <c r="Y173" s="31"/>
+      <c r="Z173" s="31"/>
+      <c r="AA173" s="31"/>
+      <c r="AB173" s="31"/>
+      <c r="AC173" s="31"/>
+      <c r="AD173" s="31"/>
+      <c r="AE173" s="31"/>
+      <c r="AF173" s="31"/>
+      <c r="AG173" s="31"/>
+      <c r="AH173" s="31"/>
+      <c r="AI173" s="31"/>
+      <c r="AJ173" s="31"/>
+      <c r="AK173" s="31"/>
+      <c r="AL173" s="31"/>
+      <c r="AM173" s="31"/>
+      <c r="AN173" s="31"/>
+      <c r="AO173" s="31"/>
+      <c r="AP173" s="31"/>
+      <c r="AQ173" s="31"/>
+      <c r="AR173" s="31"/>
+      <c r="AS173" s="31"/>
+      <c r="AT173" s="31"/>
+      <c r="AU173" s="31"/>
+      <c r="AV173" s="31"/>
+      <c r="AW173" s="31"/>
+      <c r="AX173" s="31"/>
+      <c r="AY173" s="31"/>
+      <c r="AZ173" s="31"/>
+      <c r="BA173" s="31"/>
+      <c r="BB173" s="31"/>
+      <c r="BC173" s="31"/>
+      <c r="BD173" s="36"/>
+      <c r="BE173" s="36"/>
+      <c r="BF173" s="36"/>
+      <c r="BG173" s="36"/>
+      <c r="BH173" s="36"/>
+      <c r="BI173" s="36"/>
+      <c r="BJ173" s="36"/>
+      <c r="BK173" s="36"/>
+      <c r="BL173" s="36"/>
+      <c r="BM173" s="36"/>
+      <c r="BN173" s="36"/>
+      <c r="BO173" s="36"/>
+      <c r="BP173" s="31"/>
+    </row>
+    <row r="174" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>169</v>
       </c>
@@ -16685,7 +16685,7 @@
       <c r="BO174" s="11"/>
       <c r="BP174" s="2"/>
     </row>
-    <row r="175" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>169</v>
       </c>
@@ -16783,7 +16783,7 @@
       <c r="BO175" s="11"/>
       <c r="BP175" s="2"/>
     </row>
-    <row r="176" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>169</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>169</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -18200,7 +18200,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -19259,7 +19259,7 @@
         <v>171</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -20122,7 +20122,7 @@
         <v>175</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -20891,7 +20891,7 @@
         <v>180</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -21569,7 +21569,7 @@
         <v>181</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -21809,76 +21809,75 @@
       <c r="BO233" s="11"/>
       <c r="BP233" s="2"/>
     </row>
-    <row r="234" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="A234" s="10"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-      <c r="K234" s="10"/>
-      <c r="L234" s="10"/>
-      <c r="M234" s="10"/>
-      <c r="N234" s="10"/>
-      <c r="O234" s="10"/>
-      <c r="P234" s="10"/>
-      <c r="Q234" s="10"/>
-      <c r="R234" s="10"/>
-      <c r="S234" s="10"/>
-      <c r="T234" s="10"/>
-      <c r="U234" s="10"/>
-      <c r="V234" s="10"/>
-      <c r="W234" s="10"/>
-      <c r="X234" s="10"/>
-      <c r="Y234" s="10"/>
-      <c r="Z234" s="10"/>
-      <c r="AA234" s="10"/>
-      <c r="AB234" s="10"/>
-      <c r="AC234" s="10"/>
-      <c r="AD234" s="10"/>
-      <c r="AE234" s="10"/>
-      <c r="AF234" s="10"/>
-      <c r="AG234" s="10"/>
-      <c r="AH234" s="10"/>
-      <c r="AI234" s="10"/>
-      <c r="AJ234" s="10"/>
-      <c r="AK234" s="10"/>
-      <c r="AL234" s="10"/>
-      <c r="AM234" s="10"/>
-      <c r="AN234" s="10"/>
-      <c r="AO234" s="10"/>
-      <c r="AP234" s="10"/>
-      <c r="AQ234" s="10"/>
-      <c r="AR234" s="10"/>
-      <c r="AS234" s="10"/>
-      <c r="AT234" s="10"/>
-      <c r="AU234" s="10"/>
-      <c r="AV234" s="10"/>
-      <c r="AW234" s="10"/>
-      <c r="AX234" s="10"/>
-      <c r="AY234" s="10"/>
-      <c r="AZ234" s="10"/>
-      <c r="BA234" s="10"/>
-      <c r="BB234" s="10"/>
-      <c r="BC234" s="10"/>
-      <c r="BD234" s="18"/>
-      <c r="BE234" s="18"/>
-      <c r="BF234" s="18"/>
-      <c r="BG234" s="18"/>
-      <c r="BH234" s="18"/>
-      <c r="BI234" s="18"/>
-      <c r="BJ234" s="18"/>
-      <c r="BK234" s="18"/>
-      <c r="BL234" s="18"/>
-      <c r="BM234" s="18"/>
-      <c r="BN234" s="18"/>
-      <c r="BO234" s="18"/>
-      <c r="BP234" s="10"/>
-      <c r="BQ234" s="9"/>
+    <row r="234" spans="1:69" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="31"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="31"/>
+      <c r="H234" s="31"/>
+      <c r="I234" s="31"/>
+      <c r="J234" s="31"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="31"/>
+      <c r="M234" s="31"/>
+      <c r="N234" s="31"/>
+      <c r="O234" s="31"/>
+      <c r="P234" s="31"/>
+      <c r="Q234" s="31"/>
+      <c r="R234" s="31"/>
+      <c r="S234" s="31"/>
+      <c r="T234" s="31"/>
+      <c r="U234" s="31"/>
+      <c r="V234" s="31"/>
+      <c r="W234" s="31"/>
+      <c r="X234" s="31"/>
+      <c r="Y234" s="31"/>
+      <c r="Z234" s="31"/>
+      <c r="AA234" s="31"/>
+      <c r="AB234" s="31"/>
+      <c r="AC234" s="31"/>
+      <c r="AD234" s="31"/>
+      <c r="AE234" s="31"/>
+      <c r="AF234" s="31"/>
+      <c r="AG234" s="31"/>
+      <c r="AH234" s="31"/>
+      <c r="AI234" s="31"/>
+      <c r="AJ234" s="31"/>
+      <c r="AK234" s="31"/>
+      <c r="AL234" s="31"/>
+      <c r="AM234" s="31"/>
+      <c r="AN234" s="31"/>
+      <c r="AO234" s="31"/>
+      <c r="AP234" s="31"/>
+      <c r="AQ234" s="31"/>
+      <c r="AR234" s="31"/>
+      <c r="AS234" s="31"/>
+      <c r="AT234" s="31"/>
+      <c r="AU234" s="31"/>
+      <c r="AV234" s="31"/>
+      <c r="AW234" s="31"/>
+      <c r="AX234" s="31"/>
+      <c r="AY234" s="31"/>
+      <c r="AZ234" s="31"/>
+      <c r="BA234" s="31"/>
+      <c r="BB234" s="31"/>
+      <c r="BC234" s="31"/>
+      <c r="BD234" s="36"/>
+      <c r="BE234" s="36"/>
+      <c r="BF234" s="36"/>
+      <c r="BG234" s="36"/>
+      <c r="BH234" s="36"/>
+      <c r="BI234" s="36"/>
+      <c r="BJ234" s="36"/>
+      <c r="BK234" s="36"/>
+      <c r="BL234" s="36"/>
+      <c r="BM234" s="36"/>
+      <c r="BN234" s="36"/>
+      <c r="BO234" s="36"/>
+      <c r="BP234" s="31"/>
     </row>
     <row r="235" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
@@ -22429,7 +22428,7 @@
         <v>183</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -23199,7 +23198,7 @@
         <v>185</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -24239,7 +24238,7 @@
         <v>186</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -24919,7 +24918,7 @@
         <v>187</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -25157,7 +25156,7 @@
       <c r="BO272" s="11"/>
       <c r="BP272" s="2"/>
     </row>
-    <row r="273" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -25226,7 +25225,7 @@
       <c r="BO273" s="11"/>
       <c r="BP273" s="2"/>
     </row>
-    <row r="274" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>188</v>
       </c>
@@ -25324,7 +25323,7 @@
       <c r="BO274" s="11"/>
       <c r="BP274" s="2"/>
     </row>
-    <row r="275" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>188</v>
       </c>
@@ -25414,7 +25413,7 @@
       <c r="BO275" s="11"/>
       <c r="BP275" s="2"/>
     </row>
-    <row r="276" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>188</v>
       </c>
@@ -25504,7 +25503,7 @@
       <c r="BO276" s="11"/>
       <c r="BP276" s="2"/>
     </row>
-    <row r="277" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>188</v>
       </c>
@@ -25594,12 +25593,12 @@
       <c r="BO277" s="11"/>
       <c r="BP277" s="2"/>
     </row>
-    <row r="278" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -25670,7 +25669,7 @@
       <c r="BO278" s="29"/>
       <c r="BP278" s="2"/>
     </row>
-    <row r="279" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B279" s="2" t="s">
         <v>17</v>
       </c>
@@ -25763,7 +25762,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="280" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B280" s="2" t="s">
         <v>18</v>
       </c>
@@ -25837,7 +25836,7 @@
       <c r="BO280" s="11"/>
       <c r="BP280" s="2"/>
     </row>
-    <row r="281" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -25906,7 +25905,7 @@
       <c r="BO281" s="11"/>
       <c r="BP281" s="2"/>
     </row>
-    <row r="282" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>190</v>
       </c>
@@ -26004,7 +26003,7 @@
       <c r="BO282" s="11"/>
       <c r="BP282" s="2"/>
     </row>
-    <row r="283" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>190</v>
       </c>
@@ -26094,7 +26093,7 @@
       <c r="BO283" s="11"/>
       <c r="BP283" s="2"/>
     </row>
-    <row r="284" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>190</v>
       </c>
@@ -26184,12 +26183,12 @@
       <c r="BO284" s="11"/>
       <c r="BP284" s="2"/>
     </row>
-    <row r="285" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -26260,7 +26259,7 @@
       <c r="BO285" s="29"/>
       <c r="BP285" s="2"/>
     </row>
-    <row r="286" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2">
@@ -26351,7 +26350,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="287" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -26423,76 +26422,75 @@
       <c r="BO287" s="11"/>
       <c r="BP287" s="2"/>
     </row>
-    <row r="288" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="A288" s="10"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="M288" s="10"/>
-      <c r="N288" s="10"/>
-      <c r="O288" s="10"/>
-      <c r="P288" s="10"/>
-      <c r="Q288" s="10"/>
-      <c r="R288" s="10"/>
-      <c r="S288" s="10"/>
-      <c r="T288" s="10"/>
-      <c r="U288" s="10"/>
-      <c r="V288" s="10"/>
-      <c r="W288" s="10"/>
-      <c r="X288" s="10"/>
-      <c r="Y288" s="10"/>
-      <c r="Z288" s="10"/>
-      <c r="AA288" s="10"/>
-      <c r="AB288" s="10"/>
-      <c r="AC288" s="10"/>
-      <c r="AD288" s="10"/>
-      <c r="AE288" s="10"/>
-      <c r="AF288" s="10"/>
-      <c r="AG288" s="10"/>
-      <c r="AH288" s="10"/>
-      <c r="AI288" s="10"/>
-      <c r="AJ288" s="10"/>
-      <c r="AK288" s="10"/>
-      <c r="AL288" s="10"/>
-      <c r="AM288" s="10"/>
-      <c r="AN288" s="10"/>
-      <c r="AO288" s="10"/>
-      <c r="AP288" s="10"/>
-      <c r="AQ288" s="10"/>
-      <c r="AR288" s="10"/>
-      <c r="AS288" s="10"/>
-      <c r="AT288" s="10"/>
-      <c r="AU288" s="10"/>
-      <c r="AV288" s="10"/>
-      <c r="AW288" s="10"/>
-      <c r="AX288" s="10"/>
-      <c r="AY288" s="10"/>
-      <c r="AZ288" s="10"/>
-      <c r="BA288" s="10"/>
-      <c r="BB288" s="10"/>
-      <c r="BC288" s="10"/>
-      <c r="BD288" s="18"/>
-      <c r="BE288" s="18"/>
-      <c r="BF288" s="18"/>
-      <c r="BG288" s="18"/>
-      <c r="BH288" s="18"/>
-      <c r="BI288" s="18"/>
-      <c r="BJ288" s="18"/>
-      <c r="BK288" s="18"/>
-      <c r="BL288" s="18"/>
-      <c r="BM288" s="18"/>
-      <c r="BN288" s="18"/>
-      <c r="BO288" s="18"/>
-      <c r="BP288" s="10"/>
-      <c r="BQ288" s="9"/>
+    <row r="288" spans="1:68" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="31"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="31"/>
+      <c r="D288" s="31"/>
+      <c r="E288" s="31"/>
+      <c r="F288" s="31"/>
+      <c r="G288" s="31"/>
+      <c r="H288" s="31"/>
+      <c r="I288" s="31"/>
+      <c r="J288" s="31"/>
+      <c r="K288" s="31"/>
+      <c r="L288" s="31"/>
+      <c r="M288" s="31"/>
+      <c r="N288" s="31"/>
+      <c r="O288" s="31"/>
+      <c r="P288" s="31"/>
+      <c r="Q288" s="31"/>
+      <c r="R288" s="31"/>
+      <c r="S288" s="31"/>
+      <c r="T288" s="31"/>
+      <c r="U288" s="31"/>
+      <c r="V288" s="31"/>
+      <c r="W288" s="31"/>
+      <c r="X288" s="31"/>
+      <c r="Y288" s="31"/>
+      <c r="Z288" s="31"/>
+      <c r="AA288" s="31"/>
+      <c r="AB288" s="31"/>
+      <c r="AC288" s="31"/>
+      <c r="AD288" s="31"/>
+      <c r="AE288" s="31"/>
+      <c r="AF288" s="31"/>
+      <c r="AG288" s="31"/>
+      <c r="AH288" s="31"/>
+      <c r="AI288" s="31"/>
+      <c r="AJ288" s="31"/>
+      <c r="AK288" s="31"/>
+      <c r="AL288" s="31"/>
+      <c r="AM288" s="31"/>
+      <c r="AN288" s="31"/>
+      <c r="AO288" s="31"/>
+      <c r="AP288" s="31"/>
+      <c r="AQ288" s="31"/>
+      <c r="AR288" s="31"/>
+      <c r="AS288" s="31"/>
+      <c r="AT288" s="31"/>
+      <c r="AU288" s="31"/>
+      <c r="AV288" s="31"/>
+      <c r="AW288" s="31"/>
+      <c r="AX288" s="31"/>
+      <c r="AY288" s="31"/>
+      <c r="AZ288" s="31"/>
+      <c r="BA288" s="31"/>
+      <c r="BB288" s="31"/>
+      <c r="BC288" s="31"/>
+      <c r="BD288" s="36"/>
+      <c r="BE288" s="36"/>
+      <c r="BF288" s="36"/>
+      <c r="BG288" s="36"/>
+      <c r="BH288" s="36"/>
+      <c r="BI288" s="36"/>
+      <c r="BJ288" s="36"/>
+      <c r="BK288" s="36"/>
+      <c r="BL288" s="36"/>
+      <c r="BM288" s="36"/>
+      <c r="BN288" s="36"/>
+      <c r="BO288" s="36"/>
+      <c r="BP288" s="31"/>
     </row>
     <row r="289" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
@@ -27229,7 +27227,7 @@
         <v>191</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -27911,7 +27909,7 @@
         <v>192</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -28777,7 +28775,7 @@
         <v>193</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -29554,7 +29552,7 @@
         <v>194</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -30706,7 +30704,7 @@
         <v>195</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -31576,7 +31574,7 @@
         <v>199</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -32269,7 +32267,7 @@
         <v>19</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I360">
         <v>8774.25</v>
@@ -32662,7 +32660,7 @@
         <v>20</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I368">
         <v>7451.2</v>
@@ -33103,7 +33101,7 @@
         <v>24</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I378">
         <v>10113.75</v>
@@ -33468,7 +33466,7 @@
         <v>27</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I386">
         <v>5961.3</v>
@@ -33809,7 +33807,7 @@
         <v>29</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I396">
         <v>9131.4500000000007</v>
@@ -34190,7 +34188,7 @@
         <v>38</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I408" s="7">
         <v>8358.2999999999993</v>
@@ -34272,75 +34270,9 @@
       <c r="BN410" s="2"/>
       <c r="BP410" s="2"/>
     </row>
-    <row r="411" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A411" s="10"/>
-      <c r="B411" s="9"/>
-      <c r="C411" s="9"/>
-      <c r="D411" s="9"/>
-      <c r="E411" s="9"/>
-      <c r="F411" s="9"/>
-      <c r="G411" s="9"/>
-      <c r="H411" s="9"/>
-      <c r="I411" s="9"/>
-      <c r="J411" s="9"/>
-      <c r="K411" s="9"/>
-      <c r="L411" s="9"/>
-      <c r="M411" s="9"/>
-      <c r="N411" s="9"/>
-      <c r="O411" s="9"/>
-      <c r="P411" s="9"/>
-      <c r="Q411" s="9"/>
-      <c r="R411" s="9"/>
-      <c r="S411" s="9"/>
-      <c r="T411" s="9"/>
-      <c r="U411" s="9"/>
-      <c r="V411" s="9"/>
-      <c r="W411" s="9"/>
-      <c r="X411" s="9"/>
-      <c r="Y411" s="9"/>
-      <c r="Z411" s="9"/>
-      <c r="AA411" s="9"/>
-      <c r="AB411" s="9"/>
-      <c r="AC411" s="9"/>
-      <c r="AD411" s="9"/>
-      <c r="AE411" s="9"/>
-      <c r="AF411" s="9"/>
-      <c r="AG411" s="9"/>
-      <c r="AH411" s="9"/>
-      <c r="AI411" s="9"/>
-      <c r="AJ411" s="9"/>
-      <c r="AK411" s="9"/>
-      <c r="AL411" s="9"/>
-      <c r="AM411" s="9"/>
-      <c r="AN411" s="9"/>
-      <c r="AO411" s="9"/>
-      <c r="AP411" s="9"/>
-      <c r="AQ411" s="9"/>
-      <c r="AR411" s="9"/>
-      <c r="AS411" s="9"/>
-      <c r="AT411" s="9"/>
-      <c r="AU411" s="9"/>
-      <c r="AV411" s="9"/>
-      <c r="AW411" s="9"/>
-      <c r="AX411" s="9"/>
-      <c r="AY411" s="9"/>
-      <c r="AZ411" s="9"/>
-      <c r="BA411" s="9"/>
-      <c r="BB411" s="9"/>
-      <c r="BC411" s="9"/>
-      <c r="BD411" s="9"/>
-      <c r="BE411" s="9"/>
-      <c r="BF411" s="9"/>
-      <c r="BG411" s="9"/>
-      <c r="BH411" s="9"/>
-      <c r="BI411" s="9"/>
-      <c r="BJ411" s="9"/>
-      <c r="BK411" s="9"/>
-      <c r="BL411" s="9"/>
-      <c r="BM411" s="9"/>
-      <c r="BN411" s="9"/>
-      <c r="BO411" s="9"/>
-      <c r="BP411" s="13"/>
+    <row r="411" spans="1:68" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="31"/>
+      <c r="BP411" s="31"/>
     </row>
     <row r="412" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
@@ -34669,7 +34601,7 @@
         <v>90</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I422">
         <v>19524.7</v>
@@ -35166,7 +35098,7 @@
         <v>177</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I439">
         <v>19217.349999999999</v>
@@ -35411,7 +35343,7 @@
         <v>220</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I450">
         <v>11786.95</v>
@@ -35662,7 +35594,7 @@
         <v>246</v>
       </c>
       <c r="B462" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H462" s="6"/>
       <c r="I462">
@@ -36119,7 +36051,7 @@
         <v>250</v>
       </c>
       <c r="B478" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I478">
         <v>13790.3</v>
@@ -36425,7 +36357,7 @@
         <v>254</v>
       </c>
       <c r="B490" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I490">
         <v>17450</v>
@@ -36468,7 +36400,7 @@
     <row r="493" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="494" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B494" t="s">
         <v>8</v>
@@ -36502,7 +36434,7 @@
     </row>
     <row r="495" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>14</v>
@@ -36533,7 +36465,7 @@
     </row>
     <row r="496" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>15</v>
@@ -36564,7 +36496,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B497" s="8" t="s">
         <v>26</v>
@@ -36595,10 +36527,10 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B498" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I498" s="14">
         <v>8253.15</v>
@@ -36641,7 +36573,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B502" t="s">
         <v>14</v>
@@ -36670,13 +36602,16 @@
         <v>2560</v>
       </c>
     </row>
+    <row r="505" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="31"/>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A506" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="X1:AA1"/>
@@ -36686,6 +36621,11 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36694,11 +36634,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:M353"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L350" sqref="L350"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36728,7 +36668,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -36738,7 +36678,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>129</v>
@@ -36747,7 +36687,7 @@
         <v>232</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -36755,7 +36695,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8">
         <v>200</v>
@@ -36843,7 +36783,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="8">
         <f>(D6*E6)</f>
@@ -36865,7 +36805,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -36907,7 +36847,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="8">
         <v>200</v>
@@ -36995,7 +36935,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" s="8">
         <f>(D13*E13)</f>
@@ -37017,7 +36957,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
@@ -37059,7 +36999,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -37147,7 +37087,7 @@
         <v>113</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="8">
         <f>(D20*E20)</f>
@@ -37169,7 +37109,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -37211,7 +37151,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="8">
         <v>200</v>
@@ -37299,7 +37239,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" s="8">
         <f>(D27*E27)</f>
@@ -37321,7 +37261,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -37363,7 +37303,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="8">
         <v>200</v>
@@ -37451,7 +37391,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="8">
         <f>(D34*E34)</f>
@@ -37473,7 +37413,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -37529,7 +37469,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="8">
         <v>200</v>
@@ -37617,7 +37557,7 @@
         <v>138</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="8">
         <f>(D42*E42)</f>
@@ -37639,7 +37579,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -37681,7 +37621,7 @@
         <v>142</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" s="8">
         <v>200</v>
@@ -37769,7 +37709,7 @@
         <v>142</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="8">
         <f>(D49*E49)</f>
@@ -37791,7 +37731,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -37833,7 +37773,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="8">
         <v>200</v>
@@ -37921,7 +37861,7 @@
         <v>145</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C56" s="8">
         <f>(D56*E56)</f>
@@ -37943,7 +37883,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -37985,7 +37925,7 @@
         <v>149</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C59" s="8">
         <v>200</v>
@@ -38073,7 +38013,7 @@
         <v>149</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C63" s="8">
         <f>(D63*E63)</f>
@@ -38095,7 +38035,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2">
@@ -38137,7 +38077,7 @@
         <v>153</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="8">
         <v>200</v>
@@ -38225,7 +38165,7 @@
         <v>153</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C70" s="8">
         <f>(D70*E70)</f>
@@ -38247,7 +38187,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2">
@@ -38289,7 +38229,7 @@
         <v>156</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" s="8">
         <v>200</v>
@@ -38377,7 +38317,7 @@
         <v>156</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C77" s="8">
         <f>(D77*E77)</f>
@@ -38399,7 +38339,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2">
@@ -38455,7 +38395,7 @@
         <v>158</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C81" s="8">
         <v>200</v>
@@ -38543,7 +38483,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C85" s="8">
         <f>(D85*E85)</f>
@@ -38565,7 +38505,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="2">
@@ -38607,7 +38547,7 @@
         <v>160</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C88" s="8">
         <v>200</v>
@@ -38695,7 +38635,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C92" s="8">
         <f>(D92*E92)</f>
@@ -38717,7 +38657,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="2">
@@ -38759,7 +38699,7 @@
         <v>162</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C95" s="8">
         <v>200</v>
@@ -38847,7 +38787,7 @@
         <v>162</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C99" s="8">
         <f>(D99*E99)</f>
@@ -38869,7 +38809,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="2">
@@ -38911,7 +38851,7 @@
         <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C102" s="8">
         <v>200</v>
@@ -38999,7 +38939,7 @@
         <v>163</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C106" s="8">
         <f>(D106*E106)</f>
@@ -39021,7 +38961,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="2">
@@ -39063,7 +39003,7 @@
         <v>165</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109" s="8">
         <v>200</v>
@@ -39151,7 +39091,7 @@
         <v>165</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C113" s="8">
         <f>(D113*E113)</f>
@@ -39173,7 +39113,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="2">
@@ -39215,7 +39155,7 @@
         <v>167</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C116" s="8">
         <v>200</v>
@@ -39303,7 +39243,7 @@
         <v>167</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C120" s="8">
         <f>(D120*E120)</f>
@@ -39325,7 +39265,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="2">
@@ -39381,7 +39321,7 @@
         <v>169</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C124" s="8">
         <v>200</v>
@@ -39469,7 +39409,7 @@
         <v>169</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C128" s="8">
         <f>(D128*E128)</f>
@@ -39491,7 +39431,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="2">
@@ -39533,7 +39473,7 @@
         <v>170</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C131" s="8">
         <v>200</v>
@@ -39621,7 +39561,7 @@
         <v>170</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C135" s="8">
         <f>(D135*E135)</f>
@@ -39643,7 +39583,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="2">
@@ -39685,7 +39625,7 @@
         <v>171</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C138" s="8">
         <v>200</v>
@@ -39773,7 +39713,7 @@
         <v>171</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C142" s="8">
         <f>(D142*E142)</f>
@@ -39795,7 +39735,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="2">
@@ -39837,7 +39777,7 @@
         <v>175</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C145" s="8">
         <v>200</v>
@@ -39925,7 +39865,7 @@
         <v>175</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C149" s="8">
         <f>(D149*E149)</f>
@@ -39947,7 +39887,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="2">
@@ -39989,7 +39929,7 @@
         <v>180</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C152" s="8">
         <v>200</v>
@@ -40077,7 +40017,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C156" s="8">
         <f>(D156*E156)</f>
@@ -40099,7 +40039,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="2">
@@ -40141,7 +40081,7 @@
         <v>181</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C159" s="8">
         <v>200</v>
@@ -40229,7 +40169,7 @@
         <v>181</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C163" s="8">
         <f>(D163*E163)</f>
@@ -40251,7 +40191,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="2">
@@ -40307,7 +40247,7 @@
         <v>183</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167" s="8">
         <v>200</v>
@@ -40395,7 +40335,7 @@
         <v>183</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C171" s="8">
         <f>(D171*E171)</f>
@@ -40417,7 +40357,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="2">
@@ -40459,7 +40399,7 @@
         <v>185</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C174" s="8">
         <v>200</v>
@@ -40547,7 +40487,7 @@
         <v>185</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C178" s="8">
         <f>(D178*E178)</f>
@@ -40569,7 +40509,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="2">
@@ -40611,7 +40551,7 @@
         <v>186</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C181" s="8">
         <v>200</v>
@@ -40699,7 +40639,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C185" s="8">
         <f>(D185*E185)</f>
@@ -40721,7 +40661,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="2">
@@ -40763,7 +40703,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C188" s="8">
         <v>200</v>
@@ -40851,7 +40791,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C192" s="8">
         <f>(D192*E192)</f>
@@ -40873,7 +40813,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="2">
@@ -40915,7 +40855,7 @@
         <v>188</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C195" s="8">
         <v>200</v>
@@ -41003,7 +40943,7 @@
         <v>188</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C199" s="8">
         <f>(D199*E199)</f>
@@ -41025,7 +40965,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="2">
@@ -41067,7 +41007,7 @@
         <v>190</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C202" s="8">
         <v>200</v>
@@ -41155,7 +41095,7 @@
         <v>190</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C206" s="8">
         <f>(D206*E206)</f>
@@ -41177,7 +41117,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="2">
@@ -41233,7 +41173,7 @@
         <v>191</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C210" s="8">
         <v>200</v>
@@ -41321,7 +41261,7 @@
         <v>191</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="8">
         <f>(D214*E214)</f>
@@ -41343,7 +41283,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="2">
@@ -41385,7 +41325,7 @@
         <v>192</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C217" s="8">
         <v>200</v>
@@ -41473,7 +41413,7 @@
         <v>192</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221" s="8">
         <f>(D221*E221)</f>
@@ -41495,7 +41435,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="2">
@@ -41537,7 +41477,7 @@
         <v>193</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C224" s="8">
         <v>200</v>
@@ -41625,7 +41565,7 @@
         <v>193</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C228" s="8">
         <f>(D228*E228)</f>
@@ -41647,7 +41587,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="2">
@@ -41689,7 +41629,7 @@
         <v>194</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C231" s="8">
         <v>200</v>
@@ -41777,7 +41717,7 @@
         <v>194</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C235" s="8">
         <f>(D235*E235)</f>
@@ -41799,7 +41739,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="2">
@@ -41841,7 +41781,7 @@
         <v>195</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C238" s="8">
         <v>200</v>
@@ -41929,7 +41869,7 @@
         <v>195</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C242" s="8">
         <f>(D242*E242)</f>
@@ -41951,7 +41891,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="2">
@@ -41993,7 +41933,7 @@
         <v>199</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C245" s="8">
         <v>200</v>
@@ -42081,7 +42021,7 @@
         <v>199</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C249" s="8">
         <f>(D249*E249)</f>
@@ -42103,7 +42043,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="2">
@@ -42159,7 +42099,7 @@
         <v>19</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C253" s="8">
         <v>200</v>
@@ -42247,7 +42187,7 @@
         <v>19</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C257" s="8">
         <f>(D257*E257)</f>
@@ -42269,7 +42209,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="2">
@@ -42311,7 +42251,7 @@
         <v>20</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C260" s="8">
         <v>200</v>
@@ -42399,7 +42339,7 @@
         <v>20</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C264" s="8">
         <f>(D264*E264)</f>
@@ -42421,7 +42361,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="2">
@@ -42460,10 +42400,10 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C267" s="8">
         <v>200</v>
@@ -42484,7 +42424,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>121</v>
@@ -42508,7 +42448,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>73</v>
@@ -42528,7 +42468,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>122</v>
@@ -42548,10 +42488,10 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C271" s="8">
         <f>(D271*E271)</f>
@@ -42573,7 +42513,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="2">
@@ -42612,10 +42552,10 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" s="8">
         <v>200</v>
@@ -42636,7 +42576,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>121</v>
@@ -42660,7 +42600,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>73</v>
@@ -42680,7 +42620,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>122</v>
@@ -42700,10 +42640,10 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C278" s="8">
         <f>(D278*E278)</f>
@@ -42725,7 +42665,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="2">
@@ -42764,10 +42704,10 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C281" s="8">
         <v>200</v>
@@ -42788,7 +42728,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>121</v>
@@ -42812,7 +42752,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>73</v>
@@ -42832,7 +42772,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>122</v>
@@ -42852,10 +42792,10 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C285" s="8">
         <f>(D285*E285)</f>
@@ -42877,7 +42817,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="2">
@@ -42915,10 +42855,10 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C288" s="8">
         <v>200</v>
@@ -42943,7 +42883,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>121</v>
@@ -42971,7 +42911,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>73</v>
@@ -42995,7 +42935,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>122</v>
@@ -43015,10 +42955,10 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C292" s="8">
         <f>(D292*E292)</f>
@@ -43040,7 +42980,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="2">
@@ -43065,7 +43005,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="2"/>
@@ -43108,7 +43048,7 @@
         <v>176</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C296" s="8">
         <v>200</v>
@@ -43224,7 +43164,7 @@
         <v>176</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" s="8">
         <f>(D301*E301)</f>
@@ -43246,7 +43186,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="2">
@@ -43325,7 +43265,7 @@
     </row>
     <row r="306" spans="1:13" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306" s="15"/>
       <c r="C306" s="13">
@@ -43487,7 +43427,7 @@
         <v>177</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="8">
         <f>(D314*E314)</f>
@@ -43509,7 +43449,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="2">
@@ -43647,7 +43587,7 @@
         <v>220</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C321" s="8">
         <f>(D321*E321)</f>
@@ -43669,7 +43609,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="2">
@@ -43784,7 +43724,7 @@
         <v>246</v>
       </c>
       <c r="B329" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C329">
         <f>(D329*E329)</f>
@@ -43799,7 +43739,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C330" s="2">
         <f>SUM(C325:C329)</f>
@@ -43886,7 +43826,7 @@
         <v>250</v>
       </c>
       <c r="B336" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C336">
         <f>(D336*E336)</f>
@@ -43901,7 +43841,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C337" s="2">
         <f>SUM(C332:C336)</f>
@@ -43956,7 +43896,7 @@
         <v>250</v>
       </c>
       <c r="G340" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H340">
         <v>2000</v>
@@ -43973,7 +43913,7 @@
         <v>250</v>
       </c>
       <c r="G341" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H341">
         <v>350</v>
@@ -44001,7 +43941,7 @@
         <v>254</v>
       </c>
       <c r="B343" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C343" s="8">
         <f>(D343*E343)</f>
@@ -44022,7 +43962,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C344" s="2">
         <f>SUM(C339:C343)</f>
@@ -44051,7 +43991,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B346" t="s">
         <v>73</v>
@@ -44068,7 +44008,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B347" t="s">
         <v>122</v>
@@ -44085,7 +44025,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B348" t="s">
         <v>234</v>
@@ -44102,7 +44042,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B349" t="s">
         <v>236</v>
@@ -44113,10 +44053,10 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B350" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C350">
         <f>(D350*E350)</f>
@@ -44131,7 +44071,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C351" s="2">
         <f>SUM(C346:C350)</f>
@@ -44157,11 +44097,78 @@
       <c r="H352" s="35"/>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B353" s="2"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A356" s="31"/>
+      <c r="B356" s="32"/>
+      <c r="C356" s="32"/>
+      <c r="D356" s="32"/>
+      <c r="E356" s="32"/>
+      <c r="F356" s="32"/>
+      <c r="G356" s="32"/>
+      <c r="H356" s="32"/>
+      <c r="I356" s="32"/>
+      <c r="J356" s="32"/>
+      <c r="K356" s="32"/>
+      <c r="L356" s="32"/>
+      <c r="M356" s="32"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A357" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B357" t="s">
+        <v>73</v>
+      </c>
+      <c r="C357">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A358" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B358" t="s">
+        <v>122</v>
+      </c>
+      <c r="C358">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A359" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B359" t="s">
+        <v>234</v>
+      </c>
+      <c r="C359">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B360" t="s">
+        <v>236</v>
+      </c>
+      <c r="C360">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A361" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B361" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44173,7 +44180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
   <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView topLeftCell="AK1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
@@ -44197,99 +44204,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="U1" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="U1" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Z1" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AE1" s="40" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AE1" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AJ1" s="51" t="s">
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AJ1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
       <c r="AO1" s="48" t="s">
         <v>241</v>
       </c>
       <c r="AP1" s="48"/>
       <c r="AQ1" s="48"/>
       <c r="AR1" s="48"/>
-      <c r="AT1" s="47" t="s">
+      <c r="AT1" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AY1" s="37" t="s">
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AY1" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
       <c r="BD1" s="48" t="s">
         <v>252</v>
       </c>
       <c r="BE1" s="48"/>
       <c r="BF1" s="48"/>
       <c r="BG1" s="48"/>
-      <c r="BI1" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BN1" s="50" t="s">
+      <c r="BI1" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BN1" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BS1" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BS1" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
     </row>
     <row r="2" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -45012,6 +45019,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="U1:X1"/>
@@ -45021,12 +45034,6 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45037,7 +45044,7 @@
   <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45066,21 +45073,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -45294,36 +45301,36 @@
     </row>
     <row r="11" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="s">
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52" t="s">
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52" t="s">
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52" t="s">
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="23" t="s">
         <v>82</v>
       </c>
@@ -45606,51 +45613,51 @@
     </row>
     <row r="23" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53" t="s">
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53" t="s">
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="s">
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53" t="s">
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53" t="s">
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53" t="s">
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53" t="s">
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53" t="s">
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="54"/>
     </row>
     <row r="25" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="13" t="s">
@@ -45995,36 +46002,36 @@
     </row>
     <row r="35" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53" t="s">
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53" t="s">
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53" t="s">
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53" t="s">
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53" t="s">
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
     </row>
     <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H37" s="13" t="s">
@@ -46305,16 +46312,16 @@
     </row>
     <row r="47" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="52" t="s">
+      <c r="H48" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52" t="s">
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H49" s="2" t="s">
@@ -46538,21 +46545,21 @@
     </row>
     <row r="59" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="53" t="s">
+      <c r="H60" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53" t="s">
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53" t="s">
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H61" s="2" t="s">
@@ -46791,21 +46798,21 @@
     </row>
     <row r="71" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H72" s="52" t="s">
+      <c r="H72" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52" t="s">
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52" t="s">
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
     </row>
     <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
@@ -47138,26 +47145,26 @@
     </row>
     <row r="83" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H84" s="52" t="s">
+      <c r="H84" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52" t="s">
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52" t="s">
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52" t="s">
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="R84" s="52"/>
-      <c r="S84" s="52"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
@@ -47441,16 +47448,16 @@
     </row>
     <row r="95" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H96" s="52" t="s">
+      <c r="H96" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52" t="s">
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
     </row>
     <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
@@ -47537,7 +47544,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B101">
         <v>2129</v>
@@ -47551,12 +47558,36 @@
       <c r="E101">
         <v>76029.149999999994</v>
       </c>
+      <c r="H101">
+        <v>1236</v>
+      </c>
       <c r="K101">
         <v>893</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="Q12:S12"/>
@@ -47573,27 +47604,6 @@
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="N84:P84"/>
     <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47605,8 +47615,8 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47685,10 +47695,10 @@
         <v>44385</v>
       </c>
       <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
         <v>319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
       </c>
       <c r="D3">
         <v>714</v>
@@ -47835,12 +47845,9 @@
         <f t="shared" ref="H10:H16" si="2">(F10)</f>
         <v>2357.0500000000002</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>-2932.0999999999995</v>
-      </c>
-      <c r="K10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -48086,7 +48093,7 @@
         <v>44394</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D21">
         <v>714</v>
@@ -48112,7 +48119,7 @@
         <v>44394</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22">
         <v>510</v>
@@ -48164,7 +48171,7 @@
         <v>44395</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D24">
         <v>561</v>
@@ -48190,7 +48197,7 @@
         <v>44395</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D25">
         <v>910</v>
@@ -48242,7 +48249,7 @@
         <v>44398</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27">
         <v>680</v>
@@ -48268,7 +48275,7 @@
         <v>44398</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28">
         <v>425</v>
@@ -48320,7 +48327,7 @@
         <v>44398</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30">
         <v>731</v>
@@ -48346,7 +48353,7 @@
         <v>44398</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31">
         <v>561</v>
@@ -48372,7 +48379,7 @@
         <v>44398</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D32">
         <v>306</v>
@@ -48398,7 +48405,7 @@
         <v>44398</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33">
         <v>408</v>
@@ -48424,7 +48431,7 @@
         <v>44398</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34">
         <v>1156</v>
@@ -48450,10 +48457,10 @@
         <v>44399</v>
       </c>
       <c r="B35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" t="s">
         <v>319</v>
-      </c>
-      <c r="C35" t="s">
-        <v>320</v>
       </c>
       <c r="D35">
         <v>510</v>
@@ -48479,7 +48486,7 @@
         <v>44399</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D36">
         <v>204</v>
@@ -48502,13 +48509,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" t="s">
         <v>280</v>
       </c>
-      <c r="B37" t="s">
-        <v>281</v>
-      </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37">
         <v>340</v>
@@ -48534,10 +48541,10 @@
         <v>44399</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38">
         <v>85</v>
@@ -48563,10 +48570,10 @@
         <v>44399</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39">
         <v>221</v>
@@ -48618,10 +48625,10 @@
         <v>44399</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D41">
         <v>408</v>
@@ -48647,7 +48654,7 @@
         <v>44399</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42">
         <v>748</v>
@@ -48673,7 +48680,7 @@
         <v>44399</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43">
         <v>629</v>
@@ -48699,7 +48706,7 @@
         <v>44399</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D44">
         <v>799</v>
@@ -48725,10 +48732,10 @@
         <v>44400</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45">
         <v>255</v>
@@ -48754,7 +48761,7 @@
         <v>44400</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
         <v>223</v>
@@ -48783,10 +48790,10 @@
         <v>44400</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47">
         <v>748</v>
@@ -48819,7 +48826,7 @@
         <v>12067.750000000004</v>
       </c>
       <c r="K48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -48827,10 +48834,10 @@
         <v>44401</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49">
         <v>408</v>
@@ -48856,7 +48863,7 @@
         <v>44401</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D50">
         <v>459</v>
@@ -48882,10 +48889,10 @@
         <v>44401</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D51">
         <v>799</v>
@@ -48911,7 +48918,7 @@
         <v>44401</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52">
         <v>1020</v>
@@ -48937,7 +48944,7 @@
         <v>44402</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D53">
         <v>119</v>
@@ -48963,10 +48970,10 @@
         <v>44402</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D54">
         <v>272</v>
@@ -49018,10 +49025,10 @@
         <v>44402</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56">
         <v>714</v>
@@ -49047,7 +49054,7 @@
         <v>44402</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D57">
         <v>901</v>
@@ -49073,7 +49080,7 @@
         <v>44402</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58">
         <v>204</v>
@@ -49106,7 +49113,7 @@
         <v>-16533.449999999993</v>
       </c>
       <c r="K59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCBEF8-6957-432D-95EE-724C220561CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBA661-84CF-4764-B04F-DF229F3B89F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="3" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="319">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -765,9 +765,6 @@
     <t>ŞABAN OK</t>
   </si>
   <si>
-    <t>SERCAN GÜR</t>
-  </si>
-  <si>
     <t>YUSUF AKINCI</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
   </si>
   <si>
     <t>Sıtkı Adsız</t>
-  </si>
-  <si>
-    <t>CEMAL ŞİMŞEK</t>
   </si>
   <si>
     <t>SALİH ELDEN</t>
@@ -936,9 +930,6 @@
     <t>FERİT _ADSIZ</t>
   </si>
   <si>
-    <t>HALİL AĞIR</t>
-  </si>
-  <si>
     <t>Ali Yücel</t>
   </si>
   <si>
@@ -1002,9 +993,6 @@
     <t>AYSU_GIDA</t>
   </si>
   <si>
-    <t>ÇÜRÜK</t>
-  </si>
-  <si>
     <t>ÇEK(40)</t>
   </si>
   <si>
@@ -1012,6 +1000,9 @@
   </si>
   <si>
     <t>2.8.2021/PAZARTESİ</t>
+  </si>
+  <si>
+    <t>3.8.2021/SALI</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,12 +1056,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1177,8 +1162,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,9 +1173,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1201,7 +1186,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,23 +1194,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1235,25 +1220,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1271,22 +1256,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1603,13 +1585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BU515"/>
+  <dimension ref="A1:BU524"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BB500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="BT521" sqref="BT521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,7 +1746,7 @@
       <c r="BN1" s="49"/>
       <c r="BO1" s="49"/>
       <c r="BP1" s="46" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BQ1" s="46"/>
       <c r="BR1" s="46"/>
@@ -2160,7 +2142,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I5">
         <v>3500.85</v>
@@ -2642,7 +2624,7 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I11">
         <v>3014.4</v>
@@ -3300,7 +3282,7 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I19">
         <v>3909.75</v>
@@ -4171,7 +4153,7 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4774,7 +4756,7 @@
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5847,7 +5829,7 @@
         <v>138</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -6849,7 +6831,7 @@
         <v>142</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -7863,7 +7845,7 @@
         <v>145</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -9150,7 +9132,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -10258,7 +10240,7 @@
         <v>153</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -11157,7 +11139,7 @@
         <v>156</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="15"/>
@@ -12055,7 +12037,7 @@
         <v>158</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -12968,7 +12950,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -13781,7 +13763,7 @@
         <v>162</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -14590,7 +14572,7 @@
         <v>163</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -15594,7 +15576,7 @@
         <v>165</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -16976,7 +16958,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -18081,7 +18063,7 @@
         <v>169</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -18993,7 +18975,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -20100,7 +20082,7 @@
         <v>171</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -21003,7 +20985,7 @@
         <v>175</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -21808,7 +21790,7 @@
         <v>180</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -22518,7 +22500,7 @@
         <v>181</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -23417,7 +23399,7 @@
         <v>183</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -24223,7 +24205,7 @@
         <v>185</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -25311,7 +25293,7 @@
         <v>186</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -26023,7 +26005,7 @@
         <v>187</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -26735,7 +26717,7 @@
         <v>188</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -26969,7 +26951,9 @@
       <c r="BC280" s="2"/>
       <c r="BD280" s="11"/>
       <c r="BE280" s="11"/>
-      <c r="BF280" s="11"/>
+      <c r="BF280">
+        <v>460</v>
+      </c>
       <c r="BG280" s="11"/>
       <c r="BH280" s="11"/>
       <c r="BI280" s="11"/>
@@ -27353,7 +27337,7 @@
         <v>190</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -28440,7 +28424,7 @@
         <v>191</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -29154,7 +29138,7 @@
         <v>192</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -30060,7 +30044,7 @@
         <v>193</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -30873,7 +30857,7 @@
         <v>194</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -32077,7 +32061,7 @@
         <v>195</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -32987,7 +32971,7 @@
         <v>199</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -33732,7 +33716,7 @@
         <v>19</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I360">
         <v>8774.25</v>
@@ -34137,7 +34121,7 @@
         <v>20</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I368">
         <v>7451.2</v>
@@ -34582,7 +34566,7 @@
         <v>24</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I378">
         <v>10113.75</v>
@@ -34951,7 +34935,7 @@
         <v>27</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I386">
         <v>5961.3</v>
@@ -35296,7 +35280,7 @@
         <v>29</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I396">
         <v>9131.4500000000007</v>
@@ -35681,7 +35665,7 @@
         <v>38</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I408" s="7">
         <v>8358.2999999999993</v>
@@ -36094,7 +36078,7 @@
         <v>90</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I422">
         <v>19524.7</v>
@@ -36591,7 +36575,7 @@
         <v>177</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I439">
         <v>19217.349999999999</v>
@@ -36836,7 +36820,7 @@
         <v>220</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I450">
         <v>11786.95</v>
@@ -36882,10 +36866,10 @@
     </row>
     <row r="455" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B455" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D455">
         <v>486</v>
@@ -36916,10 +36900,10 @@
     </row>
     <row r="456" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B456" t="s">
         <v>245</v>
-      </c>
-      <c r="B456" t="s">
-        <v>246</v>
       </c>
       <c r="D456">
         <v>48</v>
@@ -36944,7 +36928,7 @@
     </row>
     <row r="457" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B457" t="s">
         <v>14</v>
@@ -36972,10 +36956,10 @@
     </row>
     <row r="458" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B458" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D458">
         <v>759</v>
@@ -37000,7 +36984,7 @@
     </row>
     <row r="459" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B459" t="s">
         <v>117</v>
@@ -37028,7 +37012,7 @@
     </row>
     <row r="460" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B460" t="s">
         <v>117</v>
@@ -37056,7 +37040,7 @@
     </row>
     <row r="461" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -37084,10 +37068,10 @@
     </row>
     <row r="462" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B462" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H462" s="6"/>
       <c r="I462">
@@ -37144,7 +37128,7 @@
     </row>
     <row r="466" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B466" t="s">
         <v>140</v>
@@ -37187,7 +37171,7 @@
     </row>
     <row r="467" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B467" t="s">
         <v>28</v>
@@ -37230,7 +37214,7 @@
     </row>
     <row r="468" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B468" t="s">
         <v>8</v>
@@ -37262,7 +37246,7 @@
     </row>
     <row r="469" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B469" t="s">
         <v>26</v>
@@ -37293,7 +37277,7 @@
     </row>
     <row r="470" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B470" t="s">
         <v>117</v>
@@ -37324,7 +37308,7 @@
     </row>
     <row r="471" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B471" t="s">
         <v>217</v>
@@ -37355,10 +37339,10 @@
     </row>
     <row r="472" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B472" t="s">
         <v>248</v>
-      </c>
-      <c r="B472" t="s">
-        <v>249</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -37386,10 +37370,10 @@
     </row>
     <row r="473" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B473" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
@@ -37417,7 +37401,7 @@
     </row>
     <row r="474" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B474" t="s">
         <v>14</v>
@@ -37448,7 +37432,7 @@
     </row>
     <row r="475" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B475" t="s">
         <v>22</v>
@@ -37479,7 +37463,7 @@
     </row>
     <row r="476" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B476" t="s">
         <v>15</v>
@@ -37510,7 +37494,7 @@
     </row>
     <row r="477" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B477" t="s">
         <v>15</v>
@@ -37541,10 +37525,10 @@
     </row>
     <row r="478" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B478" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I478">
         <v>13790.3</v>
@@ -37583,7 +37567,7 @@
         <f>SUM(BH466:BH477)</f>
         <v>3072</v>
       </c>
-      <c r="BT479">
+      <c r="BT479" s="2">
         <f>(BD479+BH479)</f>
         <v>4698</v>
       </c>
@@ -37597,9 +37581,9 @@
         <v>7.441087184006169</v>
       </c>
     </row>
-    <row r="482" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B482" t="s">
         <v>22</v>
@@ -37628,9 +37612,9 @@
         <v>10743.9</v>
       </c>
     </row>
-    <row r="483" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
@@ -37659,9 +37643,9 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="484" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B484" t="s">
         <v>31</v>
@@ -37690,12 +37674,12 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="485" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B485" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -37721,9 +37705,9 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="486" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B486" t="s">
         <v>26</v>
@@ -37752,9 +37736,9 @@
         <v>29032</v>
       </c>
     </row>
-    <row r="487" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B487" t="s">
         <v>215</v>
@@ -37783,9 +37767,9 @@
         <v>18860.399999999998</v>
       </c>
     </row>
-    <row r="488" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B488" t="s">
         <v>28</v>
@@ -37814,9 +37798,9 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="489" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B489" t="s">
         <v>15</v>
@@ -37845,18 +37829,18 @@
         <v>18039</v>
       </c>
     </row>
-    <row r="490" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B490" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I490">
         <v>17450</v>
       </c>
     </row>
-    <row r="491" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B491" s="2" t="s">
         <v>17</v>
       </c>
@@ -37881,7 +37865,7 @@
         <v>138085.29999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B492" s="2" t="s">
         <v>18</v>
       </c>
@@ -37890,10 +37874,10 @@
         <v>8.0685579058081096</v>
       </c>
     </row>
-    <row r="493" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B494" t="s">
         <v>8</v>
@@ -37927,10 +37911,14 @@
       <c r="BH494">
         <v>893</v>
       </c>
-    </row>
-    <row r="495" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="BT494" s="2">
+        <f>(BD494+BH494)</f>
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="495" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>14</v>
@@ -37959,9 +37947,9 @@
         <v>20724</v>
       </c>
     </row>
-    <row r="496" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>15</v>
@@ -37990,9 +37978,9 @@
         <v>21750</v>
       </c>
     </row>
-    <row r="497" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B497" s="8" t="s">
         <v>26</v>
@@ -38021,18 +38009,18 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="498" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B498" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I498" s="14">
         <v>8253.15</v>
       </c>
     </row>
-    <row r="499" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B499" s="2" t="s">
         <v>17</v>
       </c>
@@ -38058,7 +38046,7 @@
         <v>76029.149999999994</v>
       </c>
     </row>
-    <row r="500" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B500" s="2" t="s">
         <v>18</v>
       </c>
@@ -38067,9 +38055,9 @@
         <v>7.465548900235663</v>
       </c>
     </row>
-    <row r="502" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B502" t="s">
         <v>14</v>
@@ -38098,18 +38086,18 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="503" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B503" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I503">
         <v>1329</v>
       </c>
     </row>
-    <row r="504" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B504" s="2" t="s">
         <v>17</v>
       </c>
@@ -38130,7 +38118,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="505" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B505" s="2" t="s">
         <v>18</v>
       </c>
@@ -38139,12 +38127,12 @@
         <v>6.0765624999999996</v>
       </c>
     </row>
-    <row r="506" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:72" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A506" s="30"/>
     </row>
-    <row r="507" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B507" t="s">
         <v>14</v>
@@ -38181,13 +38169,17 @@
       <c r="BP507">
         <v>274</v>
       </c>
-    </row>
-    <row r="508" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="BT507">
+        <f>(BD507+BH507+BP507)</f>
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="508" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B508" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
@@ -38213,9 +38205,9 @@
         <v>13986.699999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B509" t="s">
         <v>26</v>
@@ -38244,9 +38236,9 @@
         <v>26364</v>
       </c>
     </row>
-    <row r="510" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B510" t="s">
         <v>215</v>
@@ -38275,19 +38267,19 @@
         <v>9318.5499999999993</v>
       </c>
     </row>
-    <row r="511" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B511" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D511" s="2"/>
       <c r="I511">
         <v>7212</v>
       </c>
     </row>
-    <row r="512" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B512" s="2" t="s">
         <v>17</v>
       </c>
@@ -38313,7 +38305,7 @@
         <v>64959.25</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B513" s="2" t="s">
         <v>18</v>
       </c>
@@ -38322,9 +38314,201 @@
         <v>7.2620737842370042</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="B515" t="s">
+        <v>15</v>
+      </c>
+      <c r="D515">
+        <v>860</v>
+      </c>
+      <c r="E515">
+        <v>3460</v>
+      </c>
+      <c r="F515">
+        <v>345</v>
+      </c>
+      <c r="G515">
+        <f>(E515-F515)</f>
+        <v>3115</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <f>(G515*H515)</f>
+        <v>21805</v>
+      </c>
+      <c r="BH515">
+        <v>460</v>
+      </c>
+      <c r="BP515">
+        <v>400</v>
+      </c>
+      <c r="BT515">
+        <f>(BH515+BP515)</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="516" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A516" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B516" t="s">
+        <v>299</v>
+      </c>
+      <c r="I516">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="517" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="B517" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D517" s="2">
+        <f t="shared" ref="D517:I517" si="116">SUM(D515:D516)</f>
+        <v>860</v>
+      </c>
+      <c r="E517" s="2">
+        <f t="shared" si="116"/>
+        <v>3460</v>
+      </c>
+      <c r="F517" s="2">
+        <f t="shared" si="116"/>
+        <v>345</v>
+      </c>
+      <c r="G517" s="2">
+        <f t="shared" si="116"/>
+        <v>3115</v>
+      </c>
+      <c r="H517" s="2"/>
+      <c r="I517" s="2">
+        <f t="shared" si="116"/>
+        <v>24826</v>
+      </c>
+    </row>
+    <row r="518" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="B518" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H518" s="2">
+        <f>(I517/G517)</f>
+        <v>7.9698234349919739</v>
+      </c>
+    </row>
+    <row r="520" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A520" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B520" t="s">
+        <v>15</v>
+      </c>
+      <c r="D520">
+        <v>398</v>
+      </c>
+      <c r="E520">
+        <v>1760</v>
+      </c>
+      <c r="F520">
+        <v>175</v>
+      </c>
+      <c r="G520">
+        <f>(E520-F520)</f>
+        <v>1585</v>
+      </c>
+      <c r="H520">
+        <v>7</v>
+      </c>
+      <c r="I520">
+        <f>(G520*H520)</f>
+        <v>11095</v>
+      </c>
+      <c r="BH520">
+        <v>504</v>
+      </c>
+      <c r="BP520">
+        <v>400</v>
+      </c>
+      <c r="BT520">
+        <f>(BH520+BP520)</f>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="521" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A521" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B521" t="s">
+        <v>26</v>
+      </c>
+      <c r="D521">
+        <v>506</v>
+      </c>
+      <c r="E521">
+        <v>1920</v>
+      </c>
+      <c r="F521">
+        <v>220</v>
+      </c>
+      <c r="G521">
+        <f>(E521-F521)</f>
+        <v>1700</v>
+      </c>
+      <c r="H521">
+        <v>7</v>
+      </c>
+      <c r="I521">
+        <f>(G521*H521)</f>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="522" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A522" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B522" t="s">
+        <v>299</v>
+      </c>
+      <c r="D522" s="2"/>
+      <c r="I522">
+        <v>3124.4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="B523" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D523" s="2">
+        <f t="shared" ref="D523:I523" si="117">SUM(D520:D522)</f>
+        <v>904</v>
+      </c>
+      <c r="E523" s="2">
+        <f t="shared" si="117"/>
+        <v>3680</v>
+      </c>
+      <c r="F523" s="2">
+        <f t="shared" si="117"/>
+        <v>395</v>
+      </c>
+      <c r="G523" s="2">
+        <f t="shared" si="117"/>
+        <v>3285</v>
+      </c>
+      <c r="H523" s="2"/>
+      <c r="I523" s="2">
+        <f t="shared" si="117"/>
+        <v>26119.4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="B524" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H524" s="2">
+        <f>(I523/G523)</f>
+        <v>7.9511111111111115</v>
       </c>
     </row>
   </sheetData>
@@ -38352,10 +38536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781AA57-6247-4A4F-9752-70CC607DC978}">
-  <dimension ref="A1:AK110"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A88" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39689,7 +39873,7 @@
         <v>12005</v>
       </c>
       <c r="E50" s="6">
-        <v>66336.25</v>
+        <v>77704.899999999994</v>
       </c>
       <c r="F50" s="40"/>
       <c r="H50">
@@ -39713,7 +39897,7 @@
         <v>6568</v>
       </c>
       <c r="E51" s="6">
-        <v>37760</v>
+        <v>44546.15</v>
       </c>
       <c r="F51" s="40"/>
       <c r="H51">
@@ -39737,7 +39921,7 @@
         <v>10342</v>
       </c>
       <c r="E52" s="6">
-        <v>57291</v>
+        <v>66596.350000000006</v>
       </c>
       <c r="F52" s="40"/>
       <c r="H52">
@@ -39761,7 +39945,7 @@
         <v>6463</v>
       </c>
       <c r="E53" s="6">
-        <v>39774.5</v>
+        <v>46372.65</v>
       </c>
       <c r="F53" s="40"/>
       <c r="H53">
@@ -39785,7 +39969,7 @@
         <v>8479</v>
       </c>
       <c r="E54" s="6">
-        <v>51469.5</v>
+        <v>59785.5</v>
       </c>
       <c r="F54" s="40"/>
       <c r="H54">
@@ -39809,7 +39993,7 @@
         <v>2690</v>
       </c>
       <c r="E55" s="6">
-        <v>14086</v>
+        <v>18505.7</v>
       </c>
       <c r="F55" s="40"/>
       <c r="H55">
@@ -39837,7 +40021,7 @@
       </c>
       <c r="E56" s="2">
         <f t="shared" si="4"/>
-        <v>266717.25</v>
+        <v>313511.25</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" t="s">
@@ -39939,7 +40123,7 @@
         <v>13449</v>
       </c>
       <c r="E62" s="6">
-        <v>92809.5</v>
+        <v>104598.8</v>
       </c>
       <c r="F62" s="40"/>
       <c r="H62">
@@ -39963,7 +40147,7 @@
         <v>7972</v>
       </c>
       <c r="E63" s="6">
-        <v>53028.600000000006</v>
+        <v>60954.5</v>
       </c>
       <c r="F63" s="40"/>
       <c r="H63">
@@ -39987,7 +40171,7 @@
         <v>8442</v>
       </c>
       <c r="E64" s="6">
-        <v>58727.5</v>
+        <v>66500.649999999994</v>
       </c>
       <c r="F64" s="40"/>
       <c r="H64">
@@ -40011,7 +40195,7 @@
         <v>10341</v>
       </c>
       <c r="E65" s="6">
-        <v>57998.25</v>
+        <v>67298.899999999994</v>
       </c>
       <c r="F65" s="40"/>
       <c r="H65">
@@ -40038,7 +40222,7 @@
         <v>13276</v>
       </c>
       <c r="E66" s="6">
-        <v>80914</v>
+        <v>90929.05</v>
       </c>
       <c r="F66" s="40"/>
       <c r="H66">
@@ -40062,7 +40246,7 @@
         <v>4875</v>
       </c>
       <c r="E67" s="6">
-        <v>29387</v>
+        <v>34631.550000000003</v>
       </c>
       <c r="F67" s="40"/>
       <c r="H67">
@@ -40090,7 +40274,7 @@
       </c>
       <c r="E68" s="2">
         <f t="shared" si="5"/>
-        <v>372864.85</v>
+        <v>424913.44999999995</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" t="s">
@@ -40195,7 +40379,7 @@
         <v>9762</v>
       </c>
       <c r="E74" s="6">
-        <v>63851.5</v>
+        <v>72625.75</v>
       </c>
       <c r="F74" s="40"/>
       <c r="H74" s="6">
@@ -40224,7 +40408,7 @@
         <v>7750</v>
       </c>
       <c r="E75" s="6">
-        <v>48226.5</v>
+        <v>55677.7</v>
       </c>
       <c r="F75" s="40"/>
       <c r="H75" s="6">
@@ -40253,7 +40437,7 @@
         <v>12631</v>
       </c>
       <c r="E76" s="6">
-        <v>84508.3</v>
+        <v>94622.05</v>
       </c>
       <c r="F76" s="40"/>
       <c r="H76" s="6">
@@ -40282,7 +40466,7 @@
         <v>4465</v>
       </c>
       <c r="E77" s="6">
-        <v>27477.5</v>
+        <v>33438.800000000003</v>
       </c>
       <c r="F77" s="40"/>
       <c r="H77" s="6">
@@ -40308,7 +40492,7 @@
         <v>10276</v>
       </c>
       <c r="E78" s="6">
-        <v>64623.15</v>
+        <v>73754.600000000006</v>
       </c>
       <c r="F78" s="40"/>
       <c r="H78" s="6">
@@ -40337,7 +40521,7 @@
         <v>9216</v>
       </c>
       <c r="E79" s="6">
-        <v>56907.65</v>
+        <v>65265.95</v>
       </c>
       <c r="F79" s="40"/>
       <c r="H79" s="6">
@@ -40370,7 +40554,7 @@
       </c>
       <c r="E80" s="2">
         <f t="shared" si="6"/>
-        <v>345594.60000000003</v>
+        <v>395384.85000000003</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" t="s">
@@ -40560,7 +40744,7 @@
         <v>24238</v>
       </c>
       <c r="E86">
-        <v>164057.1</v>
+        <v>183581.8</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
@@ -40577,7 +40761,7 @@
         <v>25004</v>
       </c>
       <c r="E87">
-        <v>195360</v>
+        <v>222687.4</v>
       </c>
       <c r="N87">
         <v>648</v>
@@ -40698,11 +40882,11 @@
       </c>
       <c r="E93" s="2">
         <f>SUM(E86:E89)</f>
-        <v>457453.39999999997</v>
+        <v>504305.49999999994</v>
       </c>
       <c r="F93" s="13">
         <f>(E93/D93)</f>
-        <v>7.2236707881314439</v>
+        <v>7.9635147725298836</v>
       </c>
       <c r="H93" s="2">
         <v>4897</v>
@@ -40821,7 +41005,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B98">
         <v>2427</v>
@@ -40844,7 +41028,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B99">
         <v>4698</v>
@@ -40867,7 +41051,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B100">
         <v>4057</v>
@@ -40879,12 +41063,12 @@
         <v>14537</v>
       </c>
       <c r="E100">
-        <v>102596.3</v>
+        <v>138085.29999999999</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B101">
         <v>2129</v>
@@ -40907,7 +41091,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B102">
         <v>140</v>
@@ -40940,7 +41124,7 @@
       </c>
       <c r="E103" s="2">
         <f t="shared" si="9"/>
-        <v>388932.54999999993</v>
+        <v>424421.54999999993</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -40958,7 +41142,7 @@
       <c r="L107" s="52"/>
       <c r="M107" s="52"/>
       <c r="N107" s="52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O107" s="52"/>
       <c r="P107" s="52"/>
@@ -40994,7 +41178,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B109">
         <v>2481</v>
@@ -41020,7 +41204,48 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="B110">
+        <v>860</v>
+      </c>
+      <c r="C110">
+        <v>3460</v>
+      </c>
+      <c r="D110">
+        <v>3115</v>
+      </c>
+      <c r="E110">
+        <v>24826</v>
+      </c>
+      <c r="K110">
+        <v>460</v>
+      </c>
+      <c r="N110">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111">
+        <v>904</v>
+      </c>
+      <c r="C111">
+        <v>3680</v>
+      </c>
+      <c r="D111">
+        <v>3285</v>
+      </c>
+      <c r="E111">
+        <v>26119.4</v>
+      </c>
+      <c r="K111">
+        <v>504</v>
+      </c>
+      <c r="N111">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -41073,11 +41298,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M370"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A363" sqref="A363"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370:I370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41107,7 +41332,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -41117,7 +41342,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>129</v>
@@ -41126,7 +41351,7 @@
         <v>232</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -41134,7 +41359,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" s="8">
         <v>200</v>
@@ -41222,7 +41447,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="8">
         <f>(D6*E6)</f>
@@ -41244,7 +41469,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -41286,7 +41511,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C9" s="8">
         <v>200</v>
@@ -41374,7 +41599,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C13" s="8">
         <f>(D13*E13)</f>
@@ -41396,7 +41621,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
@@ -41438,7 +41663,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -41526,7 +41751,7 @@
         <v>113</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C20" s="8">
         <f>(D20*E20)</f>
@@ -41548,7 +41773,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -41590,7 +41815,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C23" s="8">
         <v>200</v>
@@ -41678,7 +41903,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C27" s="8">
         <f>(D27*E27)</f>
@@ -41700,7 +41925,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -41742,7 +41967,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" s="8">
         <v>200</v>
@@ -41830,7 +42055,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C34" s="8">
         <f>(D34*E34)</f>
@@ -41852,7 +42077,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -41908,7 +42133,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C38" s="8">
         <v>200</v>
@@ -41996,7 +42221,7 @@
         <v>138</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="8">
         <f>(D42*E42)</f>
@@ -42018,7 +42243,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -42060,7 +42285,7 @@
         <v>142</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C45" s="8">
         <v>200</v>
@@ -42148,7 +42373,7 @@
         <v>142</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C49" s="8">
         <f>(D49*E49)</f>
@@ -42170,7 +42395,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -42212,7 +42437,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C52" s="8">
         <v>200</v>
@@ -42300,7 +42525,7 @@
         <v>145</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="8">
         <f>(D56*E56)</f>
@@ -42322,7 +42547,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -42364,7 +42589,7 @@
         <v>149</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C59" s="8">
         <v>200</v>
@@ -42452,7 +42677,7 @@
         <v>149</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C63" s="8">
         <f>(D63*E63)</f>
@@ -42474,7 +42699,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2">
@@ -42516,7 +42741,7 @@
         <v>153</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C66" s="8">
         <v>200</v>
@@ -42604,7 +42829,7 @@
         <v>153</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C70" s="8">
         <f>(D70*E70)</f>
@@ -42626,7 +42851,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2">
@@ -42668,7 +42893,7 @@
         <v>156</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C73" s="8">
         <v>200</v>
@@ -42756,7 +42981,7 @@
         <v>156</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C77" s="8">
         <f>(D77*E77)</f>
@@ -42778,7 +43003,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2">
@@ -42834,7 +43059,7 @@
         <v>158</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C81" s="8">
         <v>200</v>
@@ -42922,7 +43147,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C85" s="8">
         <f>(D85*E85)</f>
@@ -42944,7 +43169,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="2">
@@ -42986,7 +43211,7 @@
         <v>160</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C88" s="8">
         <v>200</v>
@@ -43074,7 +43299,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C92" s="8">
         <f>(D92*E92)</f>
@@ -43096,7 +43321,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="2">
@@ -43138,7 +43363,7 @@
         <v>162</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C95" s="8">
         <v>200</v>
@@ -43226,7 +43451,7 @@
         <v>162</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C99" s="8">
         <f>(D99*E99)</f>
@@ -43248,7 +43473,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="2">
@@ -43290,7 +43515,7 @@
         <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C102" s="8">
         <v>200</v>
@@ -43378,7 +43603,7 @@
         <v>163</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C106" s="8">
         <f>(D106*E106)</f>
@@ -43400,7 +43625,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="2">
@@ -43442,7 +43667,7 @@
         <v>165</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C109" s="8">
         <v>200</v>
@@ -43530,7 +43755,7 @@
         <v>165</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C113" s="8">
         <f>(D113*E113)</f>
@@ -43552,7 +43777,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="2">
@@ -43594,7 +43819,7 @@
         <v>167</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C116" s="8">
         <v>200</v>
@@ -43682,7 +43907,7 @@
         <v>167</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C120" s="8">
         <f>(D120*E120)</f>
@@ -43704,7 +43929,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="2">
@@ -43760,7 +43985,7 @@
         <v>169</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C124" s="8">
         <v>200</v>
@@ -43848,7 +44073,7 @@
         <v>169</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C128" s="8">
         <f>(D128*E128)</f>
@@ -43870,7 +44095,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="2">
@@ -43912,7 +44137,7 @@
         <v>170</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C131" s="8">
         <v>200</v>
@@ -44000,7 +44225,7 @@
         <v>170</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C135" s="8">
         <f>(D135*E135)</f>
@@ -44022,7 +44247,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="2">
@@ -44064,7 +44289,7 @@
         <v>171</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C138" s="8">
         <v>200</v>
@@ -44152,7 +44377,7 @@
         <v>171</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C142" s="8">
         <f>(D142*E142)</f>
@@ -44174,7 +44399,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="2">
@@ -44216,7 +44441,7 @@
         <v>175</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C145" s="8">
         <v>200</v>
@@ -44304,7 +44529,7 @@
         <v>175</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C149" s="8">
         <f>(D149*E149)</f>
@@ -44326,7 +44551,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="2">
@@ -44368,7 +44593,7 @@
         <v>180</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C152" s="8">
         <v>200</v>
@@ -44456,7 +44681,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C156" s="8">
         <f>(D156*E156)</f>
@@ -44478,7 +44703,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="2">
@@ -44520,7 +44745,7 @@
         <v>181</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C159" s="8">
         <v>200</v>
@@ -44608,7 +44833,7 @@
         <v>181</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C163" s="8">
         <f>(D163*E163)</f>
@@ -44630,7 +44855,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="2">
@@ -44686,7 +44911,7 @@
         <v>183</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C167" s="8">
         <v>200</v>
@@ -44774,7 +44999,7 @@
         <v>183</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C171" s="8">
         <f>(D171*E171)</f>
@@ -44796,7 +45021,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="2">
@@ -44838,7 +45063,7 @@
         <v>185</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C174" s="8">
         <v>200</v>
@@ -44926,7 +45151,7 @@
         <v>185</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C178" s="8">
         <f>(D178*E178)</f>
@@ -44948,7 +45173,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="2">
@@ -44990,7 +45215,7 @@
         <v>186</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C181" s="8">
         <v>200</v>
@@ -45078,7 +45303,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C185" s="8">
         <f>(D185*E185)</f>
@@ -45100,7 +45325,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="2">
@@ -45142,7 +45367,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C188" s="8">
         <v>200</v>
@@ -45230,7 +45455,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C192" s="8">
         <f>(D192*E192)</f>
@@ -45252,7 +45477,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="2">
@@ -45294,7 +45519,7 @@
         <v>188</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C195" s="8">
         <v>200</v>
@@ -45382,7 +45607,7 @@
         <v>188</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C199" s="8">
         <f>(D199*E199)</f>
@@ -45404,7 +45629,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="2">
@@ -45446,7 +45671,7 @@
         <v>190</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C202" s="8">
         <v>200</v>
@@ -45534,7 +45759,7 @@
         <v>190</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C206" s="8">
         <f>(D206*E206)</f>
@@ -45556,7 +45781,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="2">
@@ -45612,7 +45837,7 @@
         <v>191</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C210" s="8">
         <v>200</v>
@@ -45700,7 +45925,7 @@
         <v>191</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C214" s="8">
         <f>(D214*E214)</f>
@@ -45722,7 +45947,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="2">
@@ -45764,7 +45989,7 @@
         <v>192</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C217" s="8">
         <v>200</v>
@@ -45852,7 +46077,7 @@
         <v>192</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C221" s="8">
         <f>(D221*E221)</f>
@@ -45874,7 +46099,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="2">
@@ -45916,7 +46141,7 @@
         <v>193</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C224" s="8">
         <v>200</v>
@@ -46004,7 +46229,7 @@
         <v>193</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C228" s="8">
         <f>(D228*E228)</f>
@@ -46026,7 +46251,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="2">
@@ -46068,7 +46293,7 @@
         <v>194</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C231" s="8">
         <v>200</v>
@@ -46156,7 +46381,7 @@
         <v>194</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C235" s="8">
         <f>(D235*E235)</f>
@@ -46178,7 +46403,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="2">
@@ -46220,7 +46445,7 @@
         <v>195</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C238" s="8">
         <v>200</v>
@@ -46308,7 +46533,7 @@
         <v>195</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C242" s="8">
         <f>(D242*E242)</f>
@@ -46330,7 +46555,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="2">
@@ -46372,7 +46597,7 @@
         <v>199</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C245" s="8">
         <v>200</v>
@@ -46460,7 +46685,7 @@
         <v>199</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C249" s="8">
         <f>(D249*E249)</f>
@@ -46482,7 +46707,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="2">
@@ -46538,7 +46763,7 @@
         <v>19</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C253" s="8">
         <v>200</v>
@@ -46626,7 +46851,7 @@
         <v>19</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C257" s="8">
         <f>(D257*E257)</f>
@@ -46648,7 +46873,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="2">
@@ -46690,7 +46915,7 @@
         <v>20</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C260" s="8">
         <v>200</v>
@@ -46778,7 +47003,7 @@
         <v>20</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C264" s="8">
         <f>(D264*E264)</f>
@@ -46800,7 +47025,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="2">
@@ -46839,10 +47064,10 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C267" s="8">
         <v>200</v>
@@ -46863,7 +47088,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>121</v>
@@ -46887,7 +47112,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>73</v>
@@ -46907,7 +47132,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>122</v>
@@ -46927,10 +47152,10 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C271" s="8">
         <f>(D271*E271)</f>
@@ -46952,7 +47177,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="2">
@@ -46991,10 +47216,10 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C274" s="8">
         <v>200</v>
@@ -47015,7 +47240,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>121</v>
@@ -47039,7 +47264,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>73</v>
@@ -47059,7 +47284,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>122</v>
@@ -47079,10 +47304,10 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C278" s="8">
         <f>(D278*E278)</f>
@@ -47104,7 +47329,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="2">
@@ -47143,10 +47368,10 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C281" s="8">
         <v>200</v>
@@ -47167,7 +47392,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>121</v>
@@ -47191,7 +47416,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>73</v>
@@ -47211,7 +47436,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>122</v>
@@ -47231,10 +47456,10 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C285" s="8">
         <f>(D285*E285)</f>
@@ -47256,7 +47481,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="2">
@@ -47294,10 +47519,10 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C288" s="8">
         <v>200</v>
@@ -47322,7 +47547,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>121</v>
@@ -47350,7 +47575,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>73</v>
@@ -47374,7 +47599,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>122</v>
@@ -47394,10 +47619,10 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C292" s="8">
         <f>(D292*E292)</f>
@@ -47419,7 +47644,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="2">
@@ -47444,7 +47669,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="2"/>
@@ -47487,7 +47712,7 @@
         <v>176</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C296" s="8">
         <v>200</v>
@@ -47603,7 +47828,7 @@
         <v>176</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C301" s="8">
         <f>(D301*E301)</f>
@@ -47625,7 +47850,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="2">
@@ -47704,7 +47929,7 @@
     </row>
     <row r="306" spans="1:13" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B306" s="15"/>
       <c r="C306" s="13">
@@ -47866,7 +48091,7 @@
         <v>177</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C314" s="8">
         <f>(D314*E314)</f>
@@ -47888,7 +48113,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="2">
@@ -48026,7 +48251,7 @@
         <v>220</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C321" s="8">
         <f>(D321*E321)</f>
@@ -48048,7 +48273,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="2">
@@ -48110,7 +48335,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B325" t="s">
         <v>73</v>
@@ -48127,7 +48352,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B326" t="s">
         <v>122</v>
@@ -48138,7 +48363,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B327" t="s">
         <v>234</v>
@@ -48149,7 +48374,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B328" t="s">
         <v>236</v>
@@ -48160,10 +48385,10 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B329" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C329">
         <f>(D329*E329)</f>
@@ -48178,7 +48403,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C330" s="2">
         <f>SUM(C325:C329)</f>
@@ -48206,7 +48431,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B332" t="s">
         <v>73</v>
@@ -48223,7 +48448,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B333" t="s">
         <v>122</v>
@@ -48240,7 +48465,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B334" t="s">
         <v>234</v>
@@ -48251,7 +48476,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B335" t="s">
         <v>236</v>
@@ -48262,10 +48487,10 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B336" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C336">
         <f>(D336*E336)</f>
@@ -48280,7 +48505,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C337" s="2">
         <f>SUM(C332:C336)</f>
@@ -48309,7 +48534,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B339" t="s">
         <v>73</v>
@@ -48326,7 +48551,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B340" t="s">
         <v>122</v>
@@ -48335,7 +48560,7 @@
         <v>250</v>
       </c>
       <c r="G340" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H340">
         <v>2000</v>
@@ -48343,7 +48568,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B341" t="s">
         <v>234</v>
@@ -48352,7 +48577,7 @@
         <v>250</v>
       </c>
       <c r="G341" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H341">
         <v>350</v>
@@ -48360,7 +48585,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B342" t="s">
         <v>236</v>
@@ -48377,10 +48602,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B343" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C343" s="8">
         <f>(D343*E343)</f>
@@ -48401,7 +48626,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C344" s="2">
         <f>SUM(C339:C343)</f>
@@ -48430,7 +48655,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B346" t="s">
         <v>73</v>
@@ -48447,7 +48672,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B347" t="s">
         <v>122</v>
@@ -48464,7 +48689,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B348" t="s">
         <v>234</v>
@@ -48481,7 +48706,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B349" t="s">
         <v>236</v>
@@ -48492,10 +48717,10 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B350" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C350">
         <f>(D350*E350)</f>
@@ -48510,7 +48735,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C351" s="2">
         <f>SUM(C346:C350)</f>
@@ -48538,7 +48763,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B353" t="s">
         <v>73</v>
@@ -48555,10 +48780,10 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B354" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C354">
         <f>(D354*E354)</f>
@@ -48573,7 +48798,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C355" s="2">
         <f>SUM(C353:C354)</f>
@@ -48612,7 +48837,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B358" t="s">
         <v>73</v>
@@ -48629,7 +48854,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B359" t="s">
         <v>122</v>
@@ -48646,10 +48871,10 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B360" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C360">
         <f>(D360*E360)</f>
@@ -48664,7 +48889,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C361" s="2">
         <f>SUM(C358:C360)</f>
@@ -48692,8 +48917,127 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B363" t="s">
+        <v>73</v>
+      </c>
+      <c r="C363">
+        <v>250</v>
+      </c>
+      <c r="G363" t="s">
+        <v>125</v>
+      </c>
+      <c r="H363">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A364" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B364" t="s">
+        <v>297</v>
+      </c>
+      <c r="C364">
+        <f>(D364*E364)</f>
+        <v>2021</v>
+      </c>
+      <c r="D364">
+        <v>860</v>
+      </c>
+      <c r="E364">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A365" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C365" s="2">
+        <f>SUM(C363:C364)</f>
+        <v>2271</v>
+      </c>
+      <c r="H365" s="2">
+        <v>750</v>
+      </c>
+      <c r="I365" s="2">
+        <f>(C365+H365)</f>
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A366" s="29"/>
+      <c r="B366" s="34"/>
+      <c r="C366" s="34"/>
+      <c r="D366" s="34"/>
+      <c r="E366" s="34"/>
+      <c r="F366" s="34"/>
+      <c r="G366" s="34"/>
+      <c r="H366" s="34"/>
+      <c r="I366" s="34"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A367" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B367" t="s">
+        <v>73</v>
+      </c>
+      <c r="C367">
+        <v>250</v>
+      </c>
+      <c r="G367" t="s">
+        <v>125</v>
+      </c>
+      <c r="H367">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A368" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B368" t="s">
+        <v>297</v>
+      </c>
+      <c r="C368">
+        <f>(D368*E368)</f>
+        <v>2124.4</v>
+      </c>
+      <c r="D368">
+        <v>904</v>
+      </c>
+      <c r="E368">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C369" s="2">
+        <f>SUM(C367:C368)</f>
+        <v>2374.4</v>
+      </c>
+      <c r="H369" s="2">
+        <v>750</v>
+      </c>
+      <c r="I369" s="2">
+        <f>(C369+H369)</f>
+        <v>3124.4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A370" s="29"/>
+      <c r="B370" s="34"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="34"/>
+      <c r="E370" s="34"/>
+      <c r="F370" s="34"/>
+      <c r="G370" s="34"/>
+      <c r="H370" s="34"/>
+      <c r="I370" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48703,10 +49047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48714,17 +49058,14 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>222</v>
       </c>
@@ -48739,71 +49080,53 @@
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
       <c r="J1" s="26"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
       <c r="O1" s="24"/>
-      <c r="P1" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="U1" s="49" t="s">
+      <c r="P1" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AE1" s="58" t="s">
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Z1" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AJ1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AE1" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AO1" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AT1" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AY1" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-    </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AJ1" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+    </row>
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>221</v>
@@ -48812,10 +49135,10 @@
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>221</v>
@@ -48824,10 +49147,10 @@
         <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>221</v>
@@ -48836,10 +49159,10 @@
         <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>221</v>
@@ -48848,10 +49171,10 @@
         <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>221</v>
@@ -48860,10 +49183,10 @@
         <v>59</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>221</v>
@@ -48872,10 +49195,10 @@
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>221</v>
@@ -48884,52 +49207,16 @@
         <v>59</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>38000</v>
       </c>
@@ -48960,89 +49247,56 @@
         <f>(L3-M3)</f>
         <v>16297</v>
       </c>
-      <c r="P3" s="1">
-        <v>44404</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3">
-        <v>20300</v>
+        <v>10650</v>
+      </c>
+      <c r="R3">
+        <v>5000</v>
       </c>
       <c r="S3">
         <f>(Q3-R3)</f>
-        <v>20300</v>
-      </c>
-      <c r="U3" s="1"/>
+        <v>5650</v>
+      </c>
       <c r="V3">
-        <v>10650</v>
-      </c>
-      <c r="W3">
-        <v>5000</v>
+        <v>28947</v>
       </c>
       <c r="X3">
         <f>(V3-W3)</f>
-        <v>5650</v>
+        <v>28947</v>
       </c>
       <c r="AA3">
-        <v>28947</v>
+        <v>35737</v>
+      </c>
+      <c r="AB3">
+        <v>10000</v>
       </c>
       <c r="AC3">
         <f>(AA3-AB3)</f>
-        <v>28947</v>
+        <v>25737</v>
       </c>
       <c r="AE3" s="1">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="AF3">
-        <v>35499</v>
-      </c>
-      <c r="AG3">
-        <v>30000</v>
+        <v>23310</v>
       </c>
       <c r="AH3">
         <f>(AF3-AG3)</f>
-        <v>5499</v>
+        <v>23310</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>44403</v>
       </c>
       <c r="AK3">
-        <v>35737</v>
-      </c>
-      <c r="AL3">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="AM3">
         <f>(AK3-AL3)</f>
-        <v>25737</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>44399</v>
-      </c>
-      <c r="AP3">
-        <v>23310</v>
-      </c>
-      <c r="AR3">
-        <f>(AP3-AQ3)</f>
-        <v>23310</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>44403</v>
-      </c>
-      <c r="AU3">
-        <v>1050</v>
-      </c>
-      <c r="AW3">
-        <f>(AU3-AV3)</f>
-        <v>1050</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>44403</v>
-      </c>
-      <c r="AZ3">
         <v>9000</v>
       </c>
-      <c r="BB3">
-        <f>(AZ3-BA3)</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44402</v>
       </c>
@@ -49076,58 +49330,38 @@
         <f t="shared" ref="N4:N9" si="1">(L4-M4+N3)</f>
         <v>34758</v>
       </c>
-      <c r="P4" s="1">
-        <v>44408</v>
-      </c>
-      <c r="R4">
+      <c r="U4" s="1">
+        <v>44403</v>
+      </c>
+      <c r="V4">
+        <v>26628</v>
+      </c>
+      <c r="X4">
+        <f>(V4-W4+X3)</f>
+        <v>55575</v>
+      </c>
+      <c r="AB4">
         <v>10000</v>
       </c>
-      <c r="S4">
-        <f>(Q4-R4+S3)</f>
-        <v>10300</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>44403</v>
-      </c>
-      <c r="AA4">
-        <v>26628</v>
-      </c>
       <c r="AC4">
-        <f>(AA4-AB4+AC3)</f>
-        <v>55575</v>
-      </c>
-      <c r="AL4">
-        <v>10000</v>
-      </c>
-      <c r="AM4">
-        <f>(AM3+AK4-AL4)</f>
+        <f>(AC3+AA4-AB4)</f>
         <v>15737</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AE4" s="1">
         <v>44404</v>
       </c>
-      <c r="AP4">
+      <c r="AF4">
         <v>18875</v>
       </c>
-      <c r="AQ4">
+      <c r="AG4">
         <v>25000</v>
       </c>
-      <c r="AR4">
-        <f>(AP4-AQ4+AR3)</f>
+      <c r="AH4">
+        <f>(AF4-AG4+AH3)</f>
         <v>17185</v>
       </c>
-      <c r="AT4" s="1">
-        <v>44404</v>
-      </c>
-      <c r="AU4">
-        <v>10950</v>
-      </c>
-      <c r="AW4">
-        <f>(AU4-AV4+AW3)</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44403</v>
       </c>
@@ -49161,58 +49395,38 @@
         <f t="shared" si="1"/>
         <v>41758</v>
       </c>
-      <c r="P5" t="s">
-        <v>318</v>
-      </c>
-      <c r="R5">
-        <v>1300</v>
-      </c>
-      <c r="S5">
-        <f>(Q5-R5+S4)</f>
-        <v>9000</v>
+      <c r="U5" s="1">
+        <v>44404</v>
+      </c>
+      <c r="V5">
+        <v>18039</v>
+      </c>
+      <c r="X5">
+        <f>(V5-W5+X4)</f>
+        <v>73614</v>
       </c>
       <c r="Z5" s="1">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="AA5">
-        <v>18039</v>
+        <v>28100</v>
       </c>
       <c r="AC5">
-        <f>(AA5-AB5+AC4)</f>
-        <v>73614</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>44403</v>
-      </c>
-      <c r="AK5">
-        <v>28100</v>
-      </c>
-      <c r="AM5">
-        <f>(AM4+AK5-AL5)</f>
+        <f>(AC4+AA5-AB5)</f>
         <v>43837</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AE5" s="1">
         <v>44408</v>
       </c>
-      <c r="AQ5">
+      <c r="AG5">
         <v>10000</v>
       </c>
-      <c r="AR5">
-        <f>(AP5-AQ5+AR4)</f>
+      <c r="AH5">
+        <f>(AF5-AG5+AH4)</f>
         <v>7185</v>
       </c>
-      <c r="AT5" s="1">
-        <v>44408</v>
-      </c>
-      <c r="AV5">
-        <v>5000</v>
-      </c>
-      <c r="AW5">
-        <f>(AU5-AV5+AW4)</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44404</v>
       </c>
@@ -49246,44 +49460,44 @@
         <f t="shared" si="1"/>
         <v>31093</v>
       </c>
+      <c r="U6" s="1">
+        <v>44405</v>
+      </c>
+      <c r="V6">
+        <v>21750</v>
+      </c>
+      <c r="W6">
+        <v>20000</v>
+      </c>
+      <c r="X6">
+        <f>(V6-W6+X5)</f>
+        <v>75364</v>
+      </c>
       <c r="Z6" s="1">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="AA6">
-        <v>21750</v>
+        <v>13400</v>
       </c>
       <c r="AB6">
-        <v>20000</v>
+        <v>13400</v>
       </c>
       <c r="AC6">
         <f>(AA6-AB6+AC5)</f>
-        <v>75364</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>44404</v>
-      </c>
-      <c r="AK6">
-        <v>13400</v>
-      </c>
-      <c r="AL6">
-        <v>13400</v>
-      </c>
-      <c r="AM6">
-        <f>(AK6-AL6+AM5)</f>
         <v>43837</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AE6" s="1">
         <v>44409</v>
       </c>
-      <c r="AP6">
+      <c r="AF6">
         <v>9325</v>
       </c>
-      <c r="AR6">
-        <f>(AP6-AQ6+AR5)</f>
+      <c r="AH6">
+        <f>(AF6-AG6+AH5)</f>
         <v>16510</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44405</v>
       </c>
@@ -49317,13 +49531,33 @@
         <f t="shared" si="1"/>
         <v>45093</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="U7" s="1">
+        <v>44411</v>
+      </c>
+      <c r="V7">
+        <v>32900</v>
+      </c>
+      <c r="X7">
+        <f>(V7-W7+X6)</f>
+        <v>108264</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>44411</v>
+      </c>
+      <c r="AG7">
+        <v>10000</v>
+      </c>
+      <c r="AH7">
+        <f>(AF7-AG7+AH6)</f>
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F8" s="1">
         <v>44405</v>
@@ -49349,7 +49583,7 @@
         <v>47043</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="F9" s="1">
         <v>44406</v>
       </c>
@@ -49374,7 +49608,7 @@
         <v>46093</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="F10" s="1">
         <v>44409</v>
       </c>
@@ -49396,7 +49630,7 @@
         <v>70093</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="K11" s="1">
         <v>44406</v>
       </c>
@@ -49408,7 +49642,7 @@
         <v>30093</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="K12" s="1">
         <v>44409</v>
       </c>
@@ -49420,19 +49654,28 @@
         <v>59093</v>
       </c>
     </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="K13" s="1">
+        <v>44411</v>
+      </c>
+      <c r="L13">
+        <v>11900</v>
+      </c>
+      <c r="N13">
+        <f>(L13-M13+N12)</f>
+        <v>70993</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49462,7 +49705,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>120</v>
@@ -49471,25 +49714,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -49523,10 +49766,10 @@
         <v>44385</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D3">
         <v>714</v>
@@ -49552,7 +49795,7 @@
         <v>44385</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D4">
         <v>2720</v>
@@ -49603,7 +49846,7 @@
         <v>44388</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D7">
         <v>2720</v>
@@ -49649,12 +49892,12 @@
         <v>-5289.15</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
@@ -49683,7 +49926,7 @@
         <v>44390</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11">
         <v>340</v>
@@ -49709,7 +49952,7 @@
         <v>44390</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12">
         <v>510</v>
@@ -49735,7 +49978,7 @@
         <v>44391</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D13">
         <v>612</v>
@@ -49761,7 +50004,7 @@
         <v>44391</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14">
         <v>510</v>
@@ -49813,7 +50056,7 @@
         <v>44392</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D16">
         <v>306</v>
@@ -49846,7 +50089,7 @@
         <v>1657.1500000000015</v>
       </c>
       <c r="K17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -49887,7 +50130,7 @@
         <v>-15146.849999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -49895,7 +50138,7 @@
         <v>44394</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D20">
         <v>510</v>
@@ -49921,7 +50164,7 @@
         <v>44394</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D21">
         <v>714</v>
@@ -49947,7 +50190,7 @@
         <v>44394</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D22">
         <v>510</v>
@@ -49973,7 +50216,7 @@
         <v>44394</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D23">
         <v>731</v>
@@ -49999,7 +50242,7 @@
         <v>44395</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24">
         <v>561</v>
@@ -50025,7 +50268,7 @@
         <v>44395</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25">
         <v>910</v>
@@ -50051,7 +50294,7 @@
         <v>44395</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D26">
         <v>731</v>
@@ -50077,7 +50320,7 @@
         <v>44398</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D27">
         <v>680</v>
@@ -50103,7 +50346,7 @@
         <v>44398</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D28">
         <v>425</v>
@@ -50129,7 +50372,7 @@
         <v>44398</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29">
         <v>1020</v>
@@ -50155,7 +50398,7 @@
         <v>44398</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D30">
         <v>731</v>
@@ -50181,7 +50424,7 @@
         <v>44398</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D31">
         <v>561</v>
@@ -50207,7 +50450,7 @@
         <v>44398</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D32">
         <v>306</v>
@@ -50233,7 +50476,7 @@
         <v>44398</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D33">
         <v>408</v>
@@ -50259,7 +50502,7 @@
         <v>44398</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D34">
         <v>1156</v>
@@ -50285,10 +50528,10 @@
         <v>44399</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D35">
         <v>510</v>
@@ -50314,7 +50557,7 @@
         <v>44399</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D36">
         <v>204</v>
@@ -50337,13 +50580,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D37">
         <v>340</v>
@@ -50369,10 +50612,10 @@
         <v>44399</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D38">
         <v>85</v>
@@ -50398,10 +50641,10 @@
         <v>44399</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D39">
         <v>221</v>
@@ -50427,7 +50670,7 @@
         <v>44399</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D40">
         <v>680</v>
@@ -50453,10 +50696,10 @@
         <v>44399</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D41">
         <v>408</v>
@@ -50482,7 +50725,7 @@
         <v>44399</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D42">
         <v>748</v>
@@ -50508,7 +50751,7 @@
         <v>44399</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D43">
         <v>629</v>
@@ -50534,7 +50777,7 @@
         <v>44399</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D44">
         <v>799</v>
@@ -50560,10 +50803,10 @@
         <v>44400</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D45">
         <v>255</v>
@@ -50589,7 +50832,7 @@
         <v>44400</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
         <v>223</v>
@@ -50618,10 +50861,10 @@
         <v>44400</v>
       </c>
       <c r="B47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D47">
         <v>748</v>
@@ -50654,7 +50897,7 @@
         <v>12067.750000000004</v>
       </c>
       <c r="K48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -50662,10 +50905,10 @@
         <v>44401</v>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D49">
         <v>408</v>
@@ -50691,7 +50934,7 @@
         <v>44401</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D50">
         <v>459</v>
@@ -50717,10 +50960,10 @@
         <v>44401</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D51">
         <v>799</v>
@@ -50746,7 +50989,7 @@
         <v>44401</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52">
         <v>1020</v>
@@ -50772,7 +51015,7 @@
         <v>44402</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D53">
         <v>119</v>
@@ -50798,10 +51041,10 @@
         <v>44402</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D54">
         <v>272</v>
@@ -50827,7 +51070,7 @@
         <v>44402</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D55">
         <v>612</v>
@@ -50853,10 +51096,10 @@
         <v>44402</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D56">
         <v>714</v>
@@ -50882,7 +51125,7 @@
         <v>44402</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D57">
         <v>901</v>
@@ -50908,7 +51151,7 @@
         <v>44402</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D58">
         <v>204</v>
@@ -50941,7 +51184,7 @@
         <v>-16533.449999999993</v>
       </c>
       <c r="K59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Muhasebe.xlsx
+++ b/Muhasebe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BELEVİ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2908652-6D5C-44C3-9E6E-3BA8F9A451F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A444F-5727-4EAD-BBE8-4089F3240F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" firstSheet="1" activeTab="2" xr2:uid="{B38A589B-49D3-4226-8883-CE6CE99F1FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNLÜK_GELEN_GİDEN_MAL" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="327">
   <si>
     <t>MÜSTAHSİL</t>
   </si>
@@ -1011,6 +1011,24 @@
   <si>
     <t>6.8.2021/CUMA</t>
   </si>
+  <si>
+    <t>YUSUF AKINCI</t>
+  </si>
+  <si>
+    <t>35 LEY 78</t>
+  </si>
+  <si>
+    <t>35 AUO 236</t>
+  </si>
+  <si>
+    <t>45 LN 574</t>
+  </si>
+  <si>
+    <t>09 SG 917</t>
+  </si>
+  <si>
+    <t>10 YL 326</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,12 +1146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1151,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1247,9 +1259,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,7 +1268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1576,13 +1585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BD046-FBF6-4454-99AD-0B843F600705}">
-  <dimension ref="A1:BU540"/>
+  <dimension ref="A1:BU543"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B533" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B540" sqref="B540"/>
+      <selection pane="bottomRight" activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38548,6 +38557,69 @@
       <c r="B540" t="s">
         <v>26</v>
       </c>
+      <c r="C540" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540">
+        <v>935</v>
+      </c>
+      <c r="E540">
+        <v>3490</v>
+      </c>
+      <c r="F540">
+        <v>390</v>
+      </c>
+      <c r="G540">
+        <f>(E540-F540)</f>
+        <v>3100</v>
+      </c>
+      <c r="H540">
+        <v>6</v>
+      </c>
+      <c r="I540">
+        <f>(G540*H540)</f>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="541" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A541" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B541" t="s">
+        <v>296</v>
+      </c>
+      <c r="I541">
+        <v>2762.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="D542" s="2">
+        <f t="shared" ref="D542:I542" si="120">SUM(D540:D541)</f>
+        <v>935</v>
+      </c>
+      <c r="E542" s="2">
+        <f t="shared" si="120"/>
+        <v>3490</v>
+      </c>
+      <c r="F542" s="2">
+        <f t="shared" si="120"/>
+        <v>390</v>
+      </c>
+      <c r="G542" s="2">
+        <f t="shared" si="120"/>
+        <v>3100</v>
+      </c>
+      <c r="H542" s="2"/>
+      <c r="I542" s="2">
+        <f t="shared" si="120"/>
+        <v>21362.5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="H543" s="2">
+        <f>(I542/G542)</f>
+        <v>6.8911290322580649</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -38781,11 +38853,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE3A-5538-4FC4-A07C-C660CA12141D}">
-  <dimension ref="A1:M380"/>
+  <dimension ref="A1:M382"/>
   <sheetViews>
     <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I377" sqref="I377"/>
+      <selection pane="bottomLeft" activeCell="E381" sqref="E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46495,7 +46567,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>299</v>
       </c>
@@ -46511,7 +46583,7 @@
         <v>3124.4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" s="27"/>
       <c r="B370" s="32"/>
       <c r="C370" s="32"/>
@@ -46522,7 +46594,7 @@
       <c r="H370" s="32"/>
       <c r="I370" s="32"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>315</v>
       </c>
@@ -46539,7 +46611,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>315</v>
       </c>
@@ -46557,7 +46629,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>299</v>
       </c>
@@ -46573,7 +46645,7 @@
         <v>3509.8</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374" s="27"/>
       <c r="B374" s="32"/>
       <c r="C374" s="32"/>
@@ -46584,7 +46656,7 @@
       <c r="H374" s="32"/>
       <c r="I374" s="32"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>317</v>
       </c>
@@ -46601,7 +46673,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>317</v>
       </c>
@@ -46619,7 +46691,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>299</v>
       </c>
@@ -46635,7 +46707,7 @@
         <v>3573.25</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378" s="27"/>
       <c r="B378" s="32"/>
       <c r="C378" s="32"/>
@@ -46646,7 +46718,7 @@
       <c r="H378" s="32"/>
       <c r="I378" s="32"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>320</v>
       </c>
@@ -46663,13 +46735,54 @@
         <v>750</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B380" t="s">
         <v>294</v>
       </c>
+      <c r="C380">
+        <f>(D380*E380)</f>
+        <v>1762.5</v>
+      </c>
+      <c r="D380">
+        <v>750</v>
+      </c>
+      <c r="E380">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A381" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C381" s="2">
+        <f>SUM(C379:C380)</f>
+        <v>2012.5</v>
+      </c>
+      <c r="H381" s="2">
+        <v>750</v>
+      </c>
+      <c r="I381" s="2">
+        <f>(C381+H381)</f>
+        <v>2762.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A382" s="28"/>
+      <c r="B382" s="29"/>
+      <c r="C382" s="29"/>
+      <c r="D382" s="29"/>
+      <c r="E382" s="29"/>
+      <c r="F382" s="29"/>
+      <c r="G382" s="29"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="29"/>
+      <c r="J382" s="29"/>
+      <c r="K382" s="29"/>
+      <c r="L382" s="29"/>
+      <c r="M382" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46679,26 +46792,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD1A8C-99DF-4166-8097-144C71FF7489}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="24"/>
       <c r="F1" s="44" t="s">
         <v>236</v>
@@ -46706,14 +46818,8 @@
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
-      <c r="K1" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -46738,20 +46844,8 @@
       <c r="I2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44395</v>
       </c>
@@ -46769,18 +46863,8 @@
         <f>(G3-H3)</f>
         <v>28947</v>
       </c>
-      <c r="K3" s="1">
-        <v>44403</v>
-      </c>
-      <c r="L3">
-        <v>9000</v>
-      </c>
-      <c r="N3">
-        <f>(L3-M3)</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44399</v>
       </c>
@@ -46801,18 +46885,8 @@
         <f t="shared" ref="I4:I9" si="1">(G4-H4+I3)</f>
         <v>55575</v>
       </c>
-      <c r="K4" s="1">
-        <v>44411</v>
-      </c>
-      <c r="M4">
-        <v>8000</v>
-      </c>
-      <c r="N4">
-        <f>(L4-M4+N3)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44400</v>
       </c>
@@ -46836,18 +46910,8 @@
         <f t="shared" si="1"/>
         <v>73614</v>
       </c>
-      <c r="K5" s="1">
-        <v>44412</v>
-      </c>
-      <c r="L5">
-        <v>11000</v>
-      </c>
-      <c r="N5">
-        <f>(L5-M5+N4)</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44402</v>
       </c>
@@ -46874,18 +46938,8 @@
         <f t="shared" si="1"/>
         <v>75364</v>
       </c>
-      <c r="K6" s="1">
-        <v>44413</v>
-      </c>
-      <c r="L6">
-        <v>8750</v>
-      </c>
-      <c r="N6">
-        <f>(L6-M6+N5)</f>
-        <v>20750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44403</v>
       </c>
@@ -46907,7 +46961,7 @@
         <v>108264</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44403</v>
       </c>
@@ -46929,7 +46983,7 @@
         <v>117264</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44404</v>
       </c>
@@ -46954,7 +47008,7 @@
         <v>91264</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44405</v>
       </c>
@@ -46976,7 +47030,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44406</v>
       </c>
@@ -46987,8 +47041,18 @@
         <f t="shared" si="2"/>
         <v>30093</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F11" s="1">
+        <v>44418</v>
+      </c>
+      <c r="H11">
+        <v>7000</v>
+      </c>
+      <c r="I11">
+        <f>(G11-H11+I10)</f>
+        <v>34264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44409</v>
       </c>
@@ -47000,7 +47064,7 @@
         <v>59093</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44411</v>
       </c>
@@ -47012,7 +47076,7 @@
         <v>70993</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44412</v>
       </c>
@@ -47024,7 +47088,7 @@
         <v>72993</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44413</v>
       </c>
@@ -47036,7 +47100,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44413</v>
       </c>
@@ -47060,9 +47124,20 @@
         <v>47543</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B18">
+        <v>19000</v>
+      </c>
+      <c r="D18">
+        <f>(B18-C18+D17)</f>
+        <v>66543</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
@@ -47105,21 +47180,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -47348,36 +47423,36 @@
       <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51" t="s">
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51" t="s">
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
       <c r="Z12" s="22" t="s">
         <v>82</v>
       </c>
@@ -47674,51 +47749,51 @@
       <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52" t="s">
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52" t="s">
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52" t="s">
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52" t="s">
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52" t="s">
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52" t="s">
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52" t="s">
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52" t="s">
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
     </row>
     <row r="25" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="13" t="s">
@@ -48077,36 +48152,36 @@
       <c r="E36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52" t="s">
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52" t="s">
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52" t="s">
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52" t="s">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52" t="s">
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
     </row>
     <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H37" s="13" t="s">
@@ -48402,16 +48477,16 @@
         <v>92</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51" t="s">
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F49" s="13"/>
@@ -48650,21 +48725,21 @@
       <c r="E60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H60" s="52" t="s">
+      <c r="H60" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52" t="s">
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52" t="s">
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F61" s="13"/>
@@ -48918,21 +48993,21 @@
       <c r="E72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H72" s="51" t="s">
+      <c r="H72" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51" t="s">
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51" t="s">
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
     </row>
     <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F73" s="13"/>
@@ -49281,26 +49356,26 @@
         <v>92</v>
       </c>
       <c r="F84" s="13"/>
-      <c r="H84" s="51" t="s">
+      <c r="H84" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51" t="s">
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51" t="s">
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51" t="s">
+      <c r="O84" s="50"/>
+      <c r="P84" s="50"/>
+      <c r="Q84" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="50"/>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F85" s="13"/>
@@ -49600,16 +49675,16 @@
         <v>92</v>
       </c>
       <c r="F96" s="13"/>
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51" t="s">
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
@@ -49775,26 +49850,26 @@
       <c r="E107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H107" s="51" t="s">
+      <c r="H107" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51" t="s">
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="51" t="s">
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="O107" s="51"/>
-      <c r="P107" s="51"/>
-      <c r="Q107" s="51" t="s">
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
+      <c r="Q107" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="R107" s="51"/>
-      <c r="S107" s="51"/>
+      <c r="R107" s="50"/>
+      <c r="S107" s="50"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
@@ -50043,11 +50118,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F519C0-9E9A-4E41-AA7E-8A963A2671DA}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51555,205 +51630,390 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44405</v>
+        <v>44403</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D60">
-        <v>884</v>
+        <v>153</v>
       </c>
       <c r="E60">
         <v>2.35</v>
       </c>
       <c r="F60">
-        <f t="shared" ref="F60:F66" si="8">(D60*E60)</f>
-        <v>2077.4</v>
+        <f>(D60*E60)</f>
+        <v>359.55</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:H66" si="9">(F60)</f>
-        <v>2077.4</v>
+        <f>(F60)</f>
+        <v>359.55</v>
       </c>
       <c r="J60">
-        <f>(H60-I60+J59)</f>
-        <v>-14456.049999999994</v>
+        <f t="shared" ref="J60:J65" si="8">(H60-I60+J59)</f>
+        <v>-16173.899999999994</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>44408</v>
+        <v>44403</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D61">
-        <v>680</v>
+        <v>510</v>
       </c>
       <c r="E61">
         <v>2.35</v>
       </c>
       <c r="F61">
+        <f>(D61*E61)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="H61">
+        <f>(F61)</f>
+        <v>1198.5</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="8"/>
-        <v>1598</v>
-      </c>
-      <c r="H61">
+        <v>-14975.399999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B62" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62">
+        <v>612</v>
+      </c>
+      <c r="E62">
+        <v>2.35</v>
+      </c>
+      <c r="F62">
+        <f>(D62*E62)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="H62">
+        <f>(F62)</f>
+        <v>1438.2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>-13537.199999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B63" t="s">
+        <v>323</v>
+      </c>
+      <c r="D63">
+        <v>408</v>
+      </c>
+      <c r="E63">
+        <v>2.35</v>
+      </c>
+      <c r="F63">
+        <f>(D63*E63)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="H63">
+        <f>(F63)</f>
+        <v>958.80000000000007</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>-12578.399999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B64" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64">
+        <v>374</v>
+      </c>
+      <c r="E64">
+        <v>2.35</v>
+      </c>
+      <c r="F64">
+        <f>(D64*E64)</f>
+        <v>878.9</v>
+      </c>
+      <c r="H64">
+        <f>(F64)</f>
+        <v>878.9</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>-11699.499999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65">
+        <v>884</v>
+      </c>
+      <c r="E65">
+        <v>2.35</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F73" si="9">(D65*E65)</f>
+        <v>2077.4</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65:H73" si="10">(F65)</f>
+        <v>2077.4</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>-9622.0999999999949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66">
+        <v>680</v>
+      </c>
+      <c r="E66">
+        <v>2.35</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="9"/>
         <v>1598</v>
       </c>
-      <c r="J61">
-        <f>(H61-I61+J60)</f>
-        <v>-12858.049999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="H66">
+        <f t="shared" si="10"/>
+        <v>1598</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J73" si="11">(H66-I66+J65)</f>
+        <v>-8024.0999999999949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>44408</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>268</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>237</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>884</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>2.35</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="8"/>
-        <v>2077.4</v>
-      </c>
-      <c r="H62">
+      <c r="F67">
         <f t="shared" si="9"/>
         <v>2077.4</v>
       </c>
-      <c r="J62">
-        <f>(H62-I62+J61)</f>
-        <v>-10780.649999999994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="H67">
+        <f t="shared" si="10"/>
+        <v>2077.4</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="11"/>
+        <v>-5946.6999999999953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>44408</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>273</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C68" t="s">
         <v>222</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>340</v>
       </c>
-      <c r="E63">
+      <c r="E68">
         <v>2.35</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="8"/>
-        <v>799</v>
-      </c>
-      <c r="H63">
+      <c r="F68">
         <f t="shared" si="9"/>
         <v>799</v>
       </c>
-      <c r="J63">
-        <f>(H63-I63+J62)</f>
-        <v>-9981.6499999999942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="H68">
+        <f t="shared" si="10"/>
+        <v>799</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>-5147.6999999999953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69">
+        <v>1020</v>
+      </c>
+      <c r="E69">
+        <v>2.35</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>2397</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="10"/>
+        <v>2397</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>-2750.6999999999953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70">
+        <v>252</v>
+      </c>
+      <c r="E70">
+        <v>3.8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>957.59999999999991</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>957.59999999999991</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>-1793.0999999999954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>44411</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71">
+        <v>544</v>
+      </c>
+      <c r="E71">
+        <v>2.35</v>
+      </c>
+      <c r="F71">
+        <f>(D71*E71)</f>
+        <v>1278.4000000000001</v>
+      </c>
+      <c r="H71">
+        <f>(F71)</f>
+        <v>1278.4000000000001</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>-514.69999999999527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B72" t="s">
         <v>319</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>236</v>
       </c>
-      <c r="D64">
+      <c r="D72">
         <v>510</v>
       </c>
-      <c r="E64">
+      <c r="E72">
         <v>2.35</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="8"/>
-        <v>1198.5</v>
-      </c>
-      <c r="H64">
+      <c r="F72">
         <f t="shared" si="9"/>
         <v>1198.5</v>
       </c>
-      <c r="J64">
-        <f>(H64-I64+J63)</f>
-        <v>-8783.1499999999942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44411</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>1198.5</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>683.80000000000473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B73" t="s">
         <v>267</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>246</v>
       </c>
-      <c r="D65">
-        <v>544</v>
-      </c>
-      <c r="E65">
+      <c r="D73">
+        <v>510</v>
+      </c>
+      <c r="E73">
         <v>2.35</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="8"/>
-        <v>1278.4000000000001</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="9"/>
-        <v>1278.4000000000001</v>
-      </c>
-      <c r="J65">
-        <f t="shared" ref="J65:J66" si="10">(H65-I65+J64)</f>
-        <v>-7504.7499999999945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>44412</v>
-      </c>
-      <c r="B66" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" t="s">
-        <v>246</v>
-      </c>
-      <c r="D66">
-        <v>510</v>
-      </c>
-      <c r="E66">
-        <v>2.35</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="8"/>
-        <v>1198.5</v>
-      </c>
-      <c r="H66">
+      <c r="F73">
         <f t="shared" si="9"/>
         <v>1198.5</v>
       </c>
-      <c r="J66">
+      <c r="H73">
         <f t="shared" si="10"/>
-        <v>-6306.2499999999945</v>
+        <v>1198.5</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>1882.3000000000047</v>
       </c>
     </row>
   </sheetData>
